--- a/BackTest/2019-10-29 BackTest IOST.xlsx
+++ b/BackTest/2019-10-29 BackTest IOST.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N104"/>
+  <dimension ref="A1:M133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6.1</v>
+        <v>6.41</v>
       </c>
       <c r="C2" t="n">
-        <v>6.06</v>
+        <v>6.41</v>
       </c>
       <c r="D2" t="n">
-        <v>6.1</v>
+        <v>6.41</v>
       </c>
       <c r="E2" t="n">
-        <v>6.06</v>
+        <v>6.41</v>
       </c>
       <c r="F2" t="n">
-        <v>25418.9246</v>
+        <v>3679</v>
       </c>
       <c r="G2" t="n">
-        <v>6.150000000000001</v>
+        <v>-1470766.686261815</v>
       </c>
       <c r="H2" t="n">
-        <v>6.309000000000007</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.06</v>
+        <v>6.4</v>
       </c>
       <c r="C3" t="n">
-        <v>6.06</v>
+        <v>6.4</v>
       </c>
       <c r="D3" t="n">
-        <v>6.06</v>
+        <v>6.4</v>
       </c>
       <c r="E3" t="n">
-        <v>6.06</v>
+        <v>6.4</v>
       </c>
       <c r="F3" t="n">
-        <v>128107.5107</v>
+        <v>500</v>
       </c>
       <c r="G3" t="n">
-        <v>6.134666666666667</v>
+        <v>-1471266.686261815</v>
       </c>
       <c r="H3" t="n">
-        <v>6.301666666666674</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6.06</v>
+        <v>6.4</v>
       </c>
       <c r="C4" t="n">
-        <v>6.1</v>
+        <v>6.28</v>
       </c>
       <c r="D4" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="E4" t="n">
-        <v>6.06</v>
+        <v>6.28</v>
       </c>
       <c r="F4" t="n">
-        <v>50023.5241</v>
+        <v>1952</v>
       </c>
       <c r="G4" t="n">
-        <v>6.128</v>
+        <v>-1473218.686261815</v>
       </c>
       <c r="H4" t="n">
-        <v>6.294666666666674</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.1</v>
+        <v>6.28</v>
       </c>
       <c r="C5" t="n">
-        <v>6.1</v>
+        <v>6.28</v>
       </c>
       <c r="D5" t="n">
-        <v>6.1</v>
+        <v>6.28</v>
       </c>
       <c r="E5" t="n">
-        <v>6.1</v>
+        <v>6.28</v>
       </c>
       <c r="F5" t="n">
-        <v>129658.9789</v>
+        <v>3585</v>
       </c>
       <c r="G5" t="n">
-        <v>6.124666666666666</v>
+        <v>-1473218.686261815</v>
       </c>
       <c r="H5" t="n">
-        <v>6.287833333333341</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6.1</v>
+        <v>6.28</v>
       </c>
       <c r="C6" t="n">
-        <v>6.18</v>
+        <v>6.25</v>
       </c>
       <c r="D6" t="n">
-        <v>6.18</v>
+        <v>6.28</v>
       </c>
       <c r="E6" t="n">
-        <v>6.1</v>
+        <v>6.25</v>
       </c>
       <c r="F6" t="n">
-        <v>55569.3796</v>
+        <v>16838.5</v>
       </c>
       <c r="G6" t="n">
-        <v>6.131333333333332</v>
+        <v>-1490057.186261815</v>
       </c>
       <c r="H6" t="n">
-        <v>6.282333333333342</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6.06</v>
+        <v>6.25</v>
       </c>
       <c r="C7" t="n">
-        <v>6.06</v>
+        <v>6.21</v>
       </c>
       <c r="D7" t="n">
-        <v>6.06</v>
+        <v>6.25</v>
       </c>
       <c r="E7" t="n">
-        <v>6.06</v>
+        <v>6.21</v>
       </c>
       <c r="F7" t="n">
-        <v>100</v>
+        <v>12004</v>
       </c>
       <c r="G7" t="n">
-        <v>6.129999999999999</v>
+        <v>-1502061.186261815</v>
       </c>
       <c r="H7" t="n">
-        <v>6.276666666666675</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,40 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6.13</v>
+        <v>6.25</v>
       </c>
       <c r="C8" t="n">
-        <v>6.14</v>
+        <v>6.25</v>
       </c>
       <c r="D8" t="n">
-        <v>6.14</v>
+        <v>6.25</v>
       </c>
       <c r="E8" t="n">
-        <v>6.13</v>
+        <v>6.25</v>
       </c>
       <c r="F8" t="n">
-        <v>3000</v>
+        <v>6046.7569</v>
       </c>
       <c r="G8" t="n">
-        <v>6.130666666666666</v>
+        <v>-1496014.429361816</v>
       </c>
       <c r="H8" t="n">
-        <v>6.271666666666675</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="L8" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -708,44 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6.14</v>
+        <v>6.26</v>
       </c>
       <c r="C9" t="n">
-        <v>6.14</v>
+        <v>6.26</v>
       </c>
       <c r="D9" t="n">
-        <v>6.14</v>
+        <v>6.26</v>
       </c>
       <c r="E9" t="n">
-        <v>6.14</v>
+        <v>6.26</v>
       </c>
       <c r="F9" t="n">
-        <v>47326.472</v>
+        <v>400</v>
       </c>
       <c r="G9" t="n">
-        <v>6.127999999999999</v>
+        <v>-1495614.429361816</v>
       </c>
       <c r="H9" t="n">
-        <v>6.266333333333342</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="L9" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -754,44 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6.18</v>
+        <v>6.26</v>
       </c>
       <c r="C10" t="n">
-        <v>6.18</v>
+        <v>6.26</v>
       </c>
       <c r="D10" t="n">
-        <v>6.18</v>
+        <v>6.26</v>
       </c>
       <c r="E10" t="n">
-        <v>6.18</v>
+        <v>6.26</v>
       </c>
       <c r="F10" t="n">
-        <v>2000</v>
+        <v>63281.492</v>
       </c>
       <c r="G10" t="n">
-        <v>6.127999999999999</v>
+        <v>-1495614.429361816</v>
       </c>
       <c r="H10" t="n">
-        <v>6.262666666666676</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="L10" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -800,40 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6.18</v>
+        <v>6.27</v>
       </c>
       <c r="C11" t="n">
-        <v>6.18</v>
+        <v>6.27</v>
       </c>
       <c r="D11" t="n">
-        <v>6.18</v>
+        <v>6.27</v>
       </c>
       <c r="E11" t="n">
-        <v>6.18</v>
+        <v>6.27</v>
       </c>
       <c r="F11" t="n">
-        <v>7145.53</v>
+        <v>74984</v>
       </c>
       <c r="G11" t="n">
-        <v>6.129333333333333</v>
+        <v>-1420630.429361816</v>
       </c>
       <c r="H11" t="n">
-        <v>6.258166666666677</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="L11" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -842,44 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6.18</v>
+        <v>6.29</v>
       </c>
       <c r="C12" t="n">
-        <v>6.18</v>
+        <v>6.29</v>
       </c>
       <c r="D12" t="n">
-        <v>6.18</v>
+        <v>6.29</v>
       </c>
       <c r="E12" t="n">
-        <v>6.18</v>
+        <v>6.29</v>
       </c>
       <c r="F12" t="n">
-        <v>50</v>
+        <v>8159.1827</v>
       </c>
       <c r="G12" t="n">
-        <v>6.129333333333333</v>
+        <v>-1412471.246661816</v>
       </c>
       <c r="H12" t="n">
-        <v>6.254000000000009</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="L12" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -888,44 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6.19</v>
+        <v>6.29</v>
       </c>
       <c r="C13" t="n">
-        <v>6.2</v>
+        <v>6.29</v>
       </c>
       <c r="D13" t="n">
-        <v>6.2</v>
+        <v>6.29</v>
       </c>
       <c r="E13" t="n">
-        <v>6.19</v>
+        <v>6.29</v>
       </c>
       <c r="F13" t="n">
-        <v>410.241935483871</v>
+        <v>265.3789</v>
       </c>
       <c r="G13" t="n">
-        <v>6.130666666666667</v>
+        <v>-1412471.246661816</v>
       </c>
       <c r="H13" t="n">
-        <v>6.250666666666676</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="L13" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -934,40 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6.19</v>
+        <v>6.3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.19</v>
+        <v>6.3</v>
       </c>
       <c r="D14" t="n">
-        <v>6.19</v>
+        <v>6.3</v>
       </c>
       <c r="E14" t="n">
-        <v>6.19</v>
+        <v>6.3</v>
       </c>
       <c r="F14" t="n">
-        <v>5000</v>
+        <v>25624.8701</v>
       </c>
       <c r="G14" t="n">
-        <v>6.134</v>
+        <v>-1386846.376561816</v>
       </c>
       <c r="H14" t="n">
-        <v>6.247333333333343</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="L14" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -976,44 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6.19</v>
+        <v>6.3</v>
       </c>
       <c r="C15" t="n">
-        <v>6.19</v>
+        <v>6.3</v>
       </c>
       <c r="D15" t="n">
-        <v>6.19</v>
+        <v>6.3</v>
       </c>
       <c r="E15" t="n">
-        <v>6.19</v>
+        <v>6.3</v>
       </c>
       <c r="F15" t="n">
-        <v>18000</v>
+        <v>71935.5996</v>
       </c>
       <c r="G15" t="n">
-        <v>6.137333333333333</v>
+        <v>-1386846.376561816</v>
       </c>
       <c r="H15" t="n">
-        <v>6.244166666666676</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>6.19</v>
-      </c>
-      <c r="L15" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1022,44 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6.18</v>
+        <v>6.3</v>
       </c>
       <c r="C16" t="n">
-        <v>6.18</v>
+        <v>6.3</v>
       </c>
       <c r="D16" t="n">
-        <v>6.18</v>
+        <v>6.3</v>
       </c>
       <c r="E16" t="n">
-        <v>6.18</v>
+        <v>6.3</v>
       </c>
       <c r="F16" t="n">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="G16" t="n">
-        <v>6.142666666666668</v>
+        <v>-1386846.376561816</v>
       </c>
       <c r="H16" t="n">
-        <v>6.241500000000011</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>6.19</v>
-      </c>
-      <c r="L16" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1068,44 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6.19</v>
+        <v>6.29</v>
       </c>
       <c r="C17" t="n">
-        <v>6.18</v>
+        <v>6.29</v>
       </c>
       <c r="D17" t="n">
-        <v>6.19</v>
+        <v>6.29</v>
       </c>
       <c r="E17" t="n">
-        <v>6.18</v>
+        <v>6.29</v>
       </c>
       <c r="F17" t="n">
-        <v>19971.0962</v>
+        <v>15584.6211</v>
       </c>
       <c r="G17" t="n">
-        <v>6.150666666666668</v>
+        <v>-1402430.997661816</v>
       </c>
       <c r="H17" t="n">
-        <v>6.239000000000011</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="L17" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1114,44 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6.12</v>
+        <v>6.23</v>
       </c>
       <c r="C18" t="n">
-        <v>6.19</v>
+        <v>6.2</v>
       </c>
       <c r="D18" t="n">
-        <v>6.19</v>
+        <v>6.23</v>
       </c>
       <c r="E18" t="n">
-        <v>6.12</v>
+        <v>6.2</v>
       </c>
       <c r="F18" t="n">
-        <v>205000</v>
+        <v>156664.5312</v>
       </c>
       <c r="G18" t="n">
-        <v>6.159333333333334</v>
+        <v>-1559095.528861816</v>
       </c>
       <c r="H18" t="n">
-        <v>6.236666666666678</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="L18" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,42 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6.19</v>
+        <v>6.2</v>
       </c>
       <c r="C19" t="n">
-        <v>6.19</v>
+        <v>6.15</v>
       </c>
       <c r="D19" t="n">
-        <v>6.19</v>
+        <v>6.2</v>
       </c>
       <c r="E19" t="n">
-        <v>6.19</v>
+        <v>6.15</v>
       </c>
       <c r="F19" t="n">
-        <v>15000</v>
+        <v>79280.43829999999</v>
       </c>
       <c r="G19" t="n">
-        <v>6.165333333333335</v>
+        <v>-1638375.967161816</v>
       </c>
       <c r="H19" t="n">
-        <v>6.234333333333344</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1204,42 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6.14</v>
+        <v>6.1</v>
       </c>
       <c r="C20" t="n">
-        <v>6.19</v>
+        <v>6.08</v>
       </c>
       <c r="D20" t="n">
-        <v>6.19</v>
+        <v>6.1</v>
       </c>
       <c r="E20" t="n">
-        <v>6.13</v>
+        <v>6.08</v>
       </c>
       <c r="F20" t="n">
-        <v>150802.0385</v>
+        <v>109001.9999</v>
       </c>
       <c r="G20" t="n">
-        <v>6.171333333333335</v>
+        <v>-1747377.967061816</v>
       </c>
       <c r="H20" t="n">
-        <v>6.232000000000012</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1248,42 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6.14</v>
+        <v>6.09</v>
       </c>
       <c r="C21" t="n">
-        <v>6.19</v>
+        <v>6.08</v>
       </c>
       <c r="D21" t="n">
-        <v>6.19</v>
+        <v>6.09</v>
       </c>
       <c r="E21" t="n">
-        <v>6.14</v>
+        <v>6.08</v>
       </c>
       <c r="F21" t="n">
-        <v>61556.0344</v>
+        <v>39664.3124</v>
       </c>
       <c r="G21" t="n">
-        <v>6.172000000000001</v>
+        <v>-1747377.967061816</v>
       </c>
       <c r="H21" t="n">
-        <v>6.229666666666678</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1292,42 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>6.19</v>
+        <v>6.13</v>
       </c>
       <c r="C22" t="n">
-        <v>6.5</v>
+        <v>6.13</v>
       </c>
       <c r="D22" t="n">
-        <v>6.5</v>
+        <v>6.13</v>
       </c>
       <c r="E22" t="n">
-        <v>6.19</v>
+        <v>6.13</v>
       </c>
       <c r="F22" t="n">
-        <v>104470.6926</v>
+        <v>3984</v>
       </c>
       <c r="G22" t="n">
-        <v>6.201333333333334</v>
+        <v>-1743393.967061816</v>
       </c>
       <c r="H22" t="n">
-        <v>6.232500000000012</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1336,42 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>6.23</v>
+        <v>6.18</v>
       </c>
       <c r="C23" t="n">
-        <v>6.23</v>
+        <v>6.18</v>
       </c>
       <c r="D23" t="n">
-        <v>6.23</v>
+        <v>6.18</v>
       </c>
       <c r="E23" t="n">
-        <v>6.23</v>
+        <v>6.1</v>
       </c>
       <c r="F23" t="n">
-        <v>7159.2295</v>
+        <v>70797.7717</v>
       </c>
       <c r="G23" t="n">
-        <v>6.207333333333334</v>
+        <v>-1672596.195361816</v>
       </c>
       <c r="H23" t="n">
-        <v>6.231333333333345</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N23" t="n">
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1380,42 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>6.23</v>
+        <v>6.18</v>
       </c>
       <c r="C24" t="n">
-        <v>6.23</v>
+        <v>6.18</v>
       </c>
       <c r="D24" t="n">
-        <v>6.23</v>
+        <v>6.18</v>
       </c>
       <c r="E24" t="n">
-        <v>6.23</v>
+        <v>6.18</v>
       </c>
       <c r="F24" t="n">
-        <v>60710.502</v>
+        <v>8263.2556</v>
       </c>
       <c r="G24" t="n">
-        <v>6.213333333333335</v>
+        <v>-1672596.195361816</v>
       </c>
       <c r="H24" t="n">
-        <v>6.230166666666679</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1436,30 +1250,21 @@
         <v>6.16</v>
       </c>
       <c r="F25" t="n">
-        <v>10895.2304</v>
+        <v>8923</v>
       </c>
       <c r="G25" t="n">
-        <v>6.212000000000001</v>
+        <v>-1681519.195361816</v>
       </c>
       <c r="H25" t="n">
-        <v>6.225333333333347</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1468,42 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>6.23</v>
+        <v>6.18</v>
       </c>
       <c r="C26" t="n">
-        <v>6.23</v>
+        <v>6.18</v>
       </c>
       <c r="D26" t="n">
-        <v>6.23</v>
+        <v>6.18</v>
       </c>
       <c r="E26" t="n">
-        <v>6.23</v>
+        <v>6.18</v>
       </c>
       <c r="F26" t="n">
-        <v>61.3162</v>
+        <v>31895.996</v>
       </c>
       <c r="G26" t="n">
-        <v>6.215333333333334</v>
+        <v>-1649623.199361816</v>
       </c>
       <c r="H26" t="n">
-        <v>6.22216666666668</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1512,44 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>6.23</v>
+        <v>6.18</v>
       </c>
       <c r="C27" t="n">
-        <v>6.29</v>
+        <v>6.18</v>
       </c>
       <c r="D27" t="n">
-        <v>6.49</v>
+        <v>6.18</v>
       </c>
       <c r="E27" t="n">
-        <v>6.19</v>
+        <v>6.18</v>
       </c>
       <c r="F27" t="n">
-        <v>14610.1919</v>
+        <v>52517</v>
       </c>
       <c r="G27" t="n">
-        <v>6.222666666666669</v>
+        <v>-1649623.199361816</v>
       </c>
       <c r="H27" t="n">
-        <v>6.220000000000013</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>6.23</v>
-      </c>
-      <c r="L27" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1558,42 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>6.2</v>
+        <v>6.18</v>
       </c>
       <c r="C28" t="n">
-        <v>6.2</v>
+        <v>6.14</v>
       </c>
       <c r="D28" t="n">
-        <v>6.2</v>
+        <v>6.18</v>
       </c>
       <c r="E28" t="n">
-        <v>6.2</v>
+        <v>6.14</v>
       </c>
       <c r="F28" t="n">
-        <v>32967.9032</v>
+        <v>34777.8866</v>
       </c>
       <c r="G28" t="n">
-        <v>6.222666666666669</v>
+        <v>-1684401.085961816</v>
       </c>
       <c r="H28" t="n">
-        <v>6.216333333333346</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1602,42 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>6.22</v>
+        <v>6.14</v>
       </c>
       <c r="C29" t="n">
-        <v>6.24</v>
+        <v>6.14</v>
       </c>
       <c r="D29" t="n">
-        <v>6.24</v>
+        <v>6.14</v>
       </c>
       <c r="E29" t="n">
-        <v>6.22</v>
+        <v>6.14</v>
       </c>
       <c r="F29" t="n">
-        <v>72588.35159999999</v>
+        <v>50185</v>
       </c>
       <c r="G29" t="n">
-        <v>6.226000000000002</v>
+        <v>-1684401.085961816</v>
       </c>
       <c r="H29" t="n">
-        <v>6.213333333333346</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1646,42 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>6.21</v>
+        <v>6.1</v>
       </c>
       <c r="C30" t="n">
-        <v>6.21</v>
+        <v>6.1</v>
       </c>
       <c r="D30" t="n">
-        <v>6.21</v>
+        <v>6.1</v>
       </c>
       <c r="E30" t="n">
-        <v>6.21</v>
+        <v>6.1</v>
       </c>
       <c r="F30" t="n">
-        <v>4915.7624</v>
+        <v>4324</v>
       </c>
       <c r="G30" t="n">
-        <v>6.227333333333335</v>
+        <v>-1688725.085961816</v>
       </c>
       <c r="H30" t="n">
-        <v>6.209833333333346</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1690,42 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>6.21</v>
+        <v>6.1</v>
       </c>
       <c r="C31" t="n">
-        <v>6.21</v>
+        <v>6.06</v>
       </c>
       <c r="D31" t="n">
-        <v>6.21</v>
+        <v>6.1</v>
       </c>
       <c r="E31" t="n">
-        <v>6.21</v>
+        <v>6.06</v>
       </c>
       <c r="F31" t="n">
-        <v>14694.7034</v>
+        <v>25418.9246</v>
       </c>
       <c r="G31" t="n">
-        <v>6.229333333333335</v>
+        <v>-1714144.010561816</v>
       </c>
       <c r="H31" t="n">
-        <v>6.208833333333345</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1734,44 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>6.21</v>
+        <v>6.06</v>
       </c>
       <c r="C32" t="n">
-        <v>6.21</v>
+        <v>6.06</v>
       </c>
       <c r="D32" t="n">
-        <v>6.21</v>
+        <v>6.06</v>
       </c>
       <c r="E32" t="n">
-        <v>6.21</v>
+        <v>6.06</v>
       </c>
       <c r="F32" t="n">
-        <v>6558.3004</v>
+        <v>128107.5107</v>
       </c>
       <c r="G32" t="n">
-        <v>6.231333333333335</v>
+        <v>-1714144.010561816</v>
       </c>
       <c r="H32" t="n">
-        <v>6.205500000000011</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="L32" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1780,44 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>6.21</v>
+        <v>6.06</v>
       </c>
       <c r="C33" t="n">
-        <v>6.21</v>
+        <v>6.1</v>
       </c>
       <c r="D33" t="n">
-        <v>6.21</v>
+        <v>6.1</v>
       </c>
       <c r="E33" t="n">
-        <v>6.21</v>
+        <v>6.06</v>
       </c>
       <c r="F33" t="n">
-        <v>3018.231</v>
+        <v>50023.5241</v>
       </c>
       <c r="G33" t="n">
-        <v>6.232666666666669</v>
+        <v>-1664120.486461816</v>
       </c>
       <c r="H33" t="n">
-        <v>6.202166666666677</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="L33" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1826,44 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>6.21</v>
+        <v>6.1</v>
       </c>
       <c r="C34" t="n">
-        <v>6.21</v>
+        <v>6.1</v>
       </c>
       <c r="D34" t="n">
-        <v>6.21</v>
+        <v>6.1</v>
       </c>
       <c r="E34" t="n">
-        <v>6.21</v>
+        <v>6.1</v>
       </c>
       <c r="F34" t="n">
-        <v>12972.5429</v>
+        <v>129658.9789</v>
       </c>
       <c r="G34" t="n">
-        <v>6.234000000000001</v>
+        <v>-1664120.486461816</v>
       </c>
       <c r="H34" t="n">
-        <v>6.199000000000011</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="L34" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1872,42 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>6.21</v>
+        <v>6.1</v>
       </c>
       <c r="C35" t="n">
-        <v>6.2</v>
+        <v>6.18</v>
       </c>
       <c r="D35" t="n">
-        <v>6.21</v>
+        <v>6.18</v>
       </c>
       <c r="E35" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="F35" t="n">
-        <v>101027.9512</v>
+        <v>55569.3796</v>
       </c>
       <c r="G35" t="n">
-        <v>6.234666666666668</v>
+        <v>-1608551.106861816</v>
       </c>
       <c r="H35" t="n">
-        <v>6.197666666666677</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1916,42 +1623,37 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>6.18</v>
+        <v>6.06</v>
       </c>
       <c r="C36" t="n">
-        <v>6.17</v>
+        <v>6.06</v>
       </c>
       <c r="D36" t="n">
-        <v>6.18</v>
+        <v>6.06</v>
       </c>
       <c r="E36" t="n">
-        <v>6.17</v>
+        <v>6.06</v>
       </c>
       <c r="F36" t="n">
-        <v>77000</v>
+        <v>100</v>
       </c>
       <c r="G36" t="n">
-        <v>6.233333333333335</v>
+        <v>-1608651.106861816</v>
       </c>
       <c r="H36" t="n">
-        <v>6.195833333333344</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="K36" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1960,7 +1662,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>6.14</v>
+        <v>6.13</v>
       </c>
       <c r="C37" t="n">
         <v>6.14</v>
@@ -1969,33 +1671,32 @@
         <v>6.14</v>
       </c>
       <c r="E37" t="n">
-        <v>6.14</v>
+        <v>6.13</v>
       </c>
       <c r="F37" t="n">
-        <v>273.9344</v>
+        <v>3000</v>
       </c>
       <c r="G37" t="n">
-        <v>6.209333333333335</v>
+        <v>-1605651.106861816</v>
       </c>
       <c r="H37" t="n">
-        <v>6.194000000000011</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K37" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2004,42 +1705,41 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>6.23</v>
+        <v>6.14</v>
       </c>
       <c r="C38" t="n">
-        <v>6.26</v>
+        <v>6.14</v>
       </c>
       <c r="D38" t="n">
-        <v>6.26</v>
+        <v>6.14</v>
       </c>
       <c r="E38" t="n">
-        <v>6.23</v>
+        <v>6.14</v>
       </c>
       <c r="F38" t="n">
-        <v>8206.6669</v>
+        <v>47326.472</v>
       </c>
       <c r="G38" t="n">
-        <v>6.211333333333335</v>
+        <v>-1605651.106861816</v>
       </c>
       <c r="H38" t="n">
-        <v>6.194833333333345</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N38" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="K38" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2048,44 +1748,41 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>6.17</v>
+        <v>6.18</v>
       </c>
       <c r="C39" t="n">
-        <v>6.24</v>
+        <v>6.18</v>
       </c>
       <c r="D39" t="n">
-        <v>6.24</v>
+        <v>6.18</v>
       </c>
       <c r="E39" t="n">
-        <v>6.17</v>
+        <v>6.18</v>
       </c>
       <c r="F39" t="n">
-        <v>17699</v>
+        <v>2000</v>
       </c>
       <c r="G39" t="n">
-        <v>6.212000000000002</v>
+        <v>-1603651.106861816</v>
       </c>
       <c r="H39" t="n">
-        <v>6.194666666666678</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>6.14</v>
       </c>
       <c r="K39" t="n">
-        <v>6.26</v>
-      </c>
-      <c r="L39" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2094,42 +1791,41 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>6.17</v>
+        <v>6.18</v>
       </c>
       <c r="C40" t="n">
-        <v>6.23</v>
+        <v>6.18</v>
       </c>
       <c r="D40" t="n">
-        <v>6.23</v>
+        <v>6.18</v>
       </c>
       <c r="E40" t="n">
-        <v>6.17</v>
+        <v>6.18</v>
       </c>
       <c r="F40" t="n">
-        <v>1718</v>
+        <v>7145.53</v>
       </c>
       <c r="G40" t="n">
-        <v>6.216666666666669</v>
+        <v>-1603651.106861816</v>
       </c>
       <c r="H40" t="n">
-        <v>6.194166666666678</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N40" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="K40" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2150,32 +1846,29 @@
         <v>6.18</v>
       </c>
       <c r="F41" t="n">
-        <v>481.7741</v>
+        <v>50</v>
       </c>
       <c r="G41" t="n">
-        <v>6.213333333333336</v>
+        <v>-1603651.106861816</v>
       </c>
       <c r="H41" t="n">
-        <v>6.192833333333345</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>6.18</v>
       </c>
       <c r="K41" t="n">
-        <v>6.23</v>
-      </c>
-      <c r="L41" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N41" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2184,44 +1877,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>6.18</v>
+        <v>6.19</v>
       </c>
       <c r="C42" t="n">
-        <v>6.18</v>
+        <v>6.2</v>
       </c>
       <c r="D42" t="n">
-        <v>6.18</v>
+        <v>6.2</v>
       </c>
       <c r="E42" t="n">
-        <v>6.18</v>
+        <v>6.19</v>
       </c>
       <c r="F42" t="n">
-        <v>100</v>
+        <v>410.241935483871</v>
       </c>
       <c r="G42" t="n">
-        <v>6.206000000000001</v>
+        <v>-1603240.864926332</v>
       </c>
       <c r="H42" t="n">
-        <v>6.191333333333346</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
         <v>6.18</v>
       </c>
-      <c r="L42" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N42" t="n">
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2230,44 +1918,41 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>6.18</v>
+        <v>6.19</v>
       </c>
       <c r="C43" t="n">
-        <v>6.18</v>
+        <v>6.19</v>
       </c>
       <c r="D43" t="n">
-        <v>6.18</v>
+        <v>6.19</v>
       </c>
       <c r="E43" t="n">
-        <v>6.18</v>
+        <v>6.19</v>
       </c>
       <c r="F43" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="G43" t="n">
-        <v>6.204666666666667</v>
+        <v>-1608240.864926332</v>
       </c>
       <c r="H43" t="n">
-        <v>6.189500000000012</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="K43" t="n">
         <v>6.18</v>
       </c>
-      <c r="L43" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N43" t="n">
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2276,44 +1961,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>6.17</v>
+        <v>6.19</v>
       </c>
       <c r="C44" t="n">
-        <v>6.17</v>
+        <v>6.19</v>
       </c>
       <c r="D44" t="n">
-        <v>6.18</v>
+        <v>6.19</v>
       </c>
       <c r="E44" t="n">
-        <v>6.17</v>
+        <v>6.19</v>
       </c>
       <c r="F44" t="n">
-        <v>29019.5705</v>
+        <v>18000</v>
       </c>
       <c r="G44" t="n">
-        <v>6.200000000000001</v>
+        <v>-1608240.864926332</v>
       </c>
       <c r="H44" t="n">
-        <v>6.187500000000012</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
         <v>6.18</v>
       </c>
-      <c r="L44" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2322,44 +2002,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>6.17</v>
+        <v>6.18</v>
       </c>
       <c r="C45" t="n">
-        <v>6.17</v>
+        <v>6.18</v>
       </c>
       <c r="D45" t="n">
-        <v>6.17</v>
+        <v>6.18</v>
       </c>
       <c r="E45" t="n">
-        <v>6.17</v>
+        <v>6.18</v>
       </c>
       <c r="F45" t="n">
-        <v>10269.5705</v>
+        <v>10000</v>
       </c>
       <c r="G45" t="n">
-        <v>6.197333333333335</v>
+        <v>-1618240.864926332</v>
       </c>
       <c r="H45" t="n">
-        <v>6.185333333333346</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="L45" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2371,41 +2046,36 @@
         <v>6.19</v>
       </c>
       <c r="C46" t="n">
-        <v>6.19</v>
+        <v>6.18</v>
       </c>
       <c r="D46" t="n">
         <v>6.19</v>
       </c>
       <c r="E46" t="n">
-        <v>6.19</v>
+        <v>6.18</v>
       </c>
       <c r="F46" t="n">
-        <v>5036.7817</v>
+        <v>19971.0962</v>
       </c>
       <c r="G46" t="n">
-        <v>6.196000000000002</v>
+        <v>-1618240.864926332</v>
       </c>
       <c r="H46" t="n">
-        <v>6.183500000000012</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="L46" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,44 +2084,41 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="C47" t="n">
         <v>6.19</v>
       </c>
-      <c r="C47" t="n">
-        <v>6.29</v>
-      </c>
       <c r="D47" t="n">
-        <v>6.29</v>
+        <v>6.19</v>
       </c>
       <c r="E47" t="n">
-        <v>6.19</v>
+        <v>6.12</v>
       </c>
       <c r="F47" t="n">
-        <v>64400.4485</v>
+        <v>205000</v>
       </c>
       <c r="G47" t="n">
-        <v>6.201333333333336</v>
+        <v>-1413240.864926332</v>
       </c>
       <c r="H47" t="n">
-        <v>6.183333333333346</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>6.18</v>
       </c>
       <c r="K47" t="n">
-        <v>6.19</v>
-      </c>
-      <c r="L47" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N47" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2460,44 +2127,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>6.24</v>
+        <v>6.19</v>
       </c>
       <c r="C48" t="n">
-        <v>6.29</v>
+        <v>6.19</v>
       </c>
       <c r="D48" t="n">
-        <v>6.29</v>
+        <v>6.19</v>
       </c>
       <c r="E48" t="n">
-        <v>6.24</v>
+        <v>6.19</v>
       </c>
       <c r="F48" t="n">
-        <v>5085.7509</v>
+        <v>15000</v>
       </c>
       <c r="G48" t="n">
-        <v>6.20666666666667</v>
+        <v>-1413240.864926332</v>
       </c>
       <c r="H48" t="n">
-        <v>6.183333333333346</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="L48" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N48" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2506,44 +2168,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>6.29</v>
+        <v>6.14</v>
       </c>
       <c r="C49" t="n">
-        <v>6.5</v>
+        <v>6.19</v>
       </c>
       <c r="D49" t="n">
-        <v>6.5</v>
+        <v>6.19</v>
       </c>
       <c r="E49" t="n">
-        <v>6.29</v>
+        <v>6.13</v>
       </c>
       <c r="F49" t="n">
-        <v>203498.3926</v>
+        <v>150802.0385</v>
       </c>
       <c r="G49" t="n">
-        <v>6.226000000000004</v>
+        <v>-1413240.864926332</v>
       </c>
       <c r="H49" t="n">
-        <v>6.188333333333346</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="L49" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2552,42 +2209,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>6.44</v>
+        <v>6.14</v>
       </c>
       <c r="C50" t="n">
-        <v>6.5</v>
+        <v>6.19</v>
       </c>
       <c r="D50" t="n">
-        <v>6.5</v>
+        <v>6.19</v>
       </c>
       <c r="E50" t="n">
-        <v>6.44</v>
+        <v>6.14</v>
       </c>
       <c r="F50" t="n">
-        <v>4665</v>
+        <v>61556.0344</v>
       </c>
       <c r="G50" t="n">
-        <v>6.246000000000004</v>
+        <v>-1413240.864926332</v>
       </c>
       <c r="H50" t="n">
-        <v>6.194166666666679</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2596,42 +2250,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>6.51</v>
+        <v>6.19</v>
       </c>
       <c r="C51" t="n">
         <v>6.5</v>
       </c>
       <c r="D51" t="n">
-        <v>6.51</v>
+        <v>6.5</v>
       </c>
       <c r="E51" t="n">
-        <v>6.5</v>
+        <v>6.19</v>
       </c>
       <c r="F51" t="n">
-        <v>26978</v>
+        <v>104470.6926</v>
       </c>
       <c r="G51" t="n">
-        <v>6.268000000000003</v>
+        <v>-1308770.172326332</v>
       </c>
       <c r="H51" t="n">
-        <v>6.20116666666668</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2640,42 +2291,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>6.43</v>
+        <v>6.23</v>
       </c>
       <c r="C52" t="n">
-        <v>6.43</v>
+        <v>6.23</v>
       </c>
       <c r="D52" t="n">
-        <v>6.43</v>
+        <v>6.23</v>
       </c>
       <c r="E52" t="n">
-        <v>6.43</v>
+        <v>6.23</v>
       </c>
       <c r="F52" t="n">
-        <v>50</v>
+        <v>7159.2295</v>
       </c>
       <c r="G52" t="n">
-        <v>6.287333333333336</v>
+        <v>-1315929.401826332</v>
       </c>
       <c r="H52" t="n">
-        <v>6.207000000000013</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2684,42 +2332,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>6.5</v>
+        <v>6.23</v>
       </c>
       <c r="C53" t="n">
-        <v>6.5</v>
+        <v>6.23</v>
       </c>
       <c r="D53" t="n">
-        <v>6.5</v>
+        <v>6.23</v>
       </c>
       <c r="E53" t="n">
-        <v>6.5</v>
+        <v>6.23</v>
       </c>
       <c r="F53" t="n">
-        <v>4082.0252</v>
+        <v>60710.502</v>
       </c>
       <c r="G53" t="n">
-        <v>6.303333333333336</v>
+        <v>-1315929.401826332</v>
       </c>
       <c r="H53" t="n">
-        <v>6.21316666666668</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N53" t="n">
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2728,42 +2373,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>6.5</v>
+        <v>6.16</v>
       </c>
       <c r="C54" t="n">
-        <v>6.55</v>
+        <v>6.16</v>
       </c>
       <c r="D54" t="n">
-        <v>6.55</v>
+        <v>6.16</v>
       </c>
       <c r="E54" t="n">
-        <v>6.5</v>
+        <v>6.16</v>
       </c>
       <c r="F54" t="n">
-        <v>2667.227</v>
+        <v>10895.2304</v>
       </c>
       <c r="G54" t="n">
-        <v>6.324000000000003</v>
+        <v>-1326824.632226332</v>
       </c>
       <c r="H54" t="n">
-        <v>6.219333333333347</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N54" t="n">
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2772,42 +2414,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>6.54</v>
+        <v>6.23</v>
       </c>
       <c r="C55" t="n">
-        <v>6.54</v>
+        <v>6.23</v>
       </c>
       <c r="D55" t="n">
-        <v>6.54</v>
+        <v>6.23</v>
       </c>
       <c r="E55" t="n">
-        <v>6.54</v>
+        <v>6.23</v>
       </c>
       <c r="F55" t="n">
-        <v>23998.999</v>
+        <v>61.3162</v>
       </c>
       <c r="G55" t="n">
-        <v>6.34466666666667</v>
+        <v>-1326763.316026332</v>
       </c>
       <c r="H55" t="n">
-        <v>6.225333333333348</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2816,42 +2455,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>6.54</v>
+        <v>6.23</v>
       </c>
       <c r="C56" t="n">
-        <v>6.54</v>
+        <v>6.29</v>
       </c>
       <c r="D56" t="n">
-        <v>6.54</v>
+        <v>6.49</v>
       </c>
       <c r="E56" t="n">
-        <v>6.54</v>
+        <v>6.19</v>
       </c>
       <c r="F56" t="n">
-        <v>49096.8859</v>
+        <v>14610.1919</v>
       </c>
       <c r="G56" t="n">
-        <v>6.36866666666667</v>
+        <v>-1312153.124126332</v>
       </c>
       <c r="H56" t="n">
-        <v>6.231666666666681</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N56" t="n">
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2860,42 +2496,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>6.54</v>
+        <v>6.2</v>
       </c>
       <c r="C57" t="n">
-        <v>6.55</v>
+        <v>6.2</v>
       </c>
       <c r="D57" t="n">
-        <v>6.55</v>
+        <v>6.2</v>
       </c>
       <c r="E57" t="n">
-        <v>6.54</v>
+        <v>6.2</v>
       </c>
       <c r="F57" t="n">
-        <v>134185.446</v>
+        <v>32967.9032</v>
       </c>
       <c r="G57" t="n">
-        <v>6.393333333333337</v>
+        <v>-1345121.027326332</v>
       </c>
       <c r="H57" t="n">
-        <v>6.237833333333347</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2904,42 +2537,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>6.52</v>
+        <v>6.22</v>
       </c>
       <c r="C58" t="n">
-        <v>6.52</v>
+        <v>6.24</v>
       </c>
       <c r="D58" t="n">
-        <v>6.52</v>
+        <v>6.24</v>
       </c>
       <c r="E58" t="n">
-        <v>6.52</v>
+        <v>6.22</v>
       </c>
       <c r="F58" t="n">
-        <v>175908.3603</v>
+        <v>72588.35159999999</v>
       </c>
       <c r="G58" t="n">
-        <v>6.416000000000005</v>
+        <v>-1272532.675726332</v>
       </c>
       <c r="H58" t="n">
-        <v>6.243500000000013</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2948,42 +2578,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>6.54</v>
+        <v>6.21</v>
       </c>
       <c r="C59" t="n">
-        <v>6.55</v>
+        <v>6.21</v>
       </c>
       <c r="D59" t="n">
-        <v>6.55</v>
+        <v>6.21</v>
       </c>
       <c r="E59" t="n">
-        <v>6.54</v>
+        <v>6.21</v>
       </c>
       <c r="F59" t="n">
-        <v>3570</v>
+        <v>4915.7624</v>
       </c>
       <c r="G59" t="n">
-        <v>6.441333333333337</v>
+        <v>-1277448.438126332</v>
       </c>
       <c r="H59" t="n">
-        <v>6.250333333333347</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2992,42 +2619,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>6.55</v>
+        <v>6.21</v>
       </c>
       <c r="C60" t="n">
-        <v>6.55</v>
+        <v>6.21</v>
       </c>
       <c r="D60" t="n">
-        <v>6.55</v>
+        <v>6.21</v>
       </c>
       <c r="E60" t="n">
-        <v>6.55</v>
+        <v>6.21</v>
       </c>
       <c r="F60" t="n">
-        <v>1957</v>
+        <v>14694.7034</v>
       </c>
       <c r="G60" t="n">
-        <v>6.46666666666667</v>
+        <v>-1277448.438126332</v>
       </c>
       <c r="H60" t="n">
-        <v>6.257166666666681</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3036,42 +2660,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>6.55</v>
+        <v>6.21</v>
       </c>
       <c r="C61" t="n">
-        <v>6.55</v>
+        <v>6.21</v>
       </c>
       <c r="D61" t="n">
-        <v>6.55</v>
+        <v>6.21</v>
       </c>
       <c r="E61" t="n">
-        <v>6.55</v>
+        <v>6.21</v>
       </c>
       <c r="F61" t="n">
-        <v>6209</v>
+        <v>6558.3004</v>
       </c>
       <c r="G61" t="n">
-        <v>6.49066666666667</v>
+        <v>-1277448.438126332</v>
       </c>
       <c r="H61" t="n">
-        <v>6.264666666666681</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3080,42 +2701,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>6.55</v>
+        <v>6.21</v>
       </c>
       <c r="C62" t="n">
-        <v>6.59</v>
+        <v>6.21</v>
       </c>
       <c r="D62" t="n">
-        <v>6.59</v>
+        <v>6.21</v>
       </c>
       <c r="E62" t="n">
-        <v>6.55</v>
+        <v>6.21</v>
       </c>
       <c r="F62" t="n">
-        <v>43824.9081</v>
+        <v>3018.231</v>
       </c>
       <c r="G62" t="n">
-        <v>6.51066666666667</v>
+        <v>-1277448.438126332</v>
       </c>
       <c r="H62" t="n">
-        <v>6.273500000000014</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3124,42 +2742,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>6.59</v>
+        <v>6.21</v>
       </c>
       <c r="C63" t="n">
-        <v>6.59</v>
+        <v>6.21</v>
       </c>
       <c r="D63" t="n">
-        <v>6.59</v>
+        <v>6.21</v>
       </c>
       <c r="E63" t="n">
-        <v>6.59</v>
+        <v>6.21</v>
       </c>
       <c r="F63" t="n">
-        <v>1777</v>
+        <v>12972.5429</v>
       </c>
       <c r="G63" t="n">
-        <v>6.53066666666667</v>
+        <v>-1277448.438126332</v>
       </c>
       <c r="H63" t="n">
-        <v>6.282333333333346</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N63" t="n">
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3168,42 +2783,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>6.56</v>
+        <v>6.21</v>
       </c>
       <c r="C64" t="n">
-        <v>6.56</v>
+        <v>6.2</v>
       </c>
       <c r="D64" t="n">
-        <v>6.56</v>
+        <v>6.21</v>
       </c>
       <c r="E64" t="n">
-        <v>6.56</v>
+        <v>6.2</v>
       </c>
       <c r="F64" t="n">
-        <v>129408.9081</v>
+        <v>101027.9512</v>
       </c>
       <c r="G64" t="n">
-        <v>6.53466666666667</v>
+        <v>-1378476.389326332</v>
       </c>
       <c r="H64" t="n">
-        <v>6.290000000000012</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3212,42 +2824,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>6.56</v>
+        <v>6.18</v>
       </c>
       <c r="C65" t="n">
-        <v>6.56</v>
+        <v>6.17</v>
       </c>
       <c r="D65" t="n">
-        <v>6.56</v>
+        <v>6.18</v>
       </c>
       <c r="E65" t="n">
-        <v>6.56</v>
+        <v>6.17</v>
       </c>
       <c r="F65" t="n">
-        <v>1667.881</v>
+        <v>77000</v>
       </c>
       <c r="G65" t="n">
-        <v>6.53866666666667</v>
+        <v>-1455476.389326332</v>
       </c>
       <c r="H65" t="n">
-        <v>6.29766666666668</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N65" t="n">
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3256,42 +2865,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>6.52</v>
+        <v>6.14</v>
       </c>
       <c r="C66" t="n">
-        <v>6.58</v>
+        <v>6.14</v>
       </c>
       <c r="D66" t="n">
-        <v>6.59</v>
+        <v>6.14</v>
       </c>
       <c r="E66" t="n">
-        <v>6.52</v>
+        <v>6.14</v>
       </c>
       <c r="F66" t="n">
-        <v>5098</v>
+        <v>273.9344</v>
       </c>
       <c r="G66" t="n">
-        <v>6.544000000000003</v>
+        <v>-1455750.323726332</v>
       </c>
       <c r="H66" t="n">
-        <v>6.304333333333346</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N66" t="n">
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3300,42 +2906,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>6.57</v>
+        <v>6.23</v>
       </c>
       <c r="C67" t="n">
-        <v>6.53</v>
+        <v>6.26</v>
       </c>
       <c r="D67" t="n">
-        <v>6.57</v>
+        <v>6.26</v>
       </c>
       <c r="E67" t="n">
-        <v>6.53</v>
+        <v>6.23</v>
       </c>
       <c r="F67" t="n">
-        <v>31</v>
+        <v>8206.6669</v>
       </c>
       <c r="G67" t="n">
-        <v>6.55066666666667</v>
+        <v>-1447543.656826332</v>
       </c>
       <c r="H67" t="n">
-        <v>6.312166666666679</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N67" t="n">
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3344,42 +2947,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>6.52</v>
+        <v>6.17</v>
       </c>
       <c r="C68" t="n">
-        <v>6.52</v>
+        <v>6.24</v>
       </c>
       <c r="D68" t="n">
-        <v>6.52</v>
+        <v>6.24</v>
       </c>
       <c r="E68" t="n">
-        <v>6.52</v>
+        <v>6.17</v>
       </c>
       <c r="F68" t="n">
-        <v>5912</v>
+        <v>17699</v>
       </c>
       <c r="G68" t="n">
-        <v>6.552000000000003</v>
+        <v>-1465242.656826332</v>
       </c>
       <c r="H68" t="n">
-        <v>6.318500000000012</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N68" t="n">
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,42 +2988,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>6.52</v>
+        <v>6.17</v>
       </c>
       <c r="C69" t="n">
-        <v>6.52</v>
+        <v>6.23</v>
       </c>
       <c r="D69" t="n">
-        <v>6.52</v>
+        <v>6.23</v>
       </c>
       <c r="E69" t="n">
-        <v>6.51</v>
+        <v>6.17</v>
       </c>
       <c r="F69" t="n">
-        <v>170660</v>
+        <v>1718</v>
       </c>
       <c r="G69" t="n">
-        <v>6.550000000000002</v>
+        <v>-1466960.656826332</v>
       </c>
       <c r="H69" t="n">
-        <v>6.324833333333345</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N69" t="n">
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3432,42 +3029,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>6.52</v>
+        <v>6.18</v>
       </c>
       <c r="C70" t="n">
-        <v>6.52</v>
+        <v>6.18</v>
       </c>
       <c r="D70" t="n">
-        <v>6.52</v>
+        <v>6.18</v>
       </c>
       <c r="E70" t="n">
-        <v>6.52</v>
+        <v>6.18</v>
       </c>
       <c r="F70" t="n">
-        <v>15128.0736</v>
+        <v>481.7741</v>
       </c>
       <c r="G70" t="n">
-        <v>6.548666666666668</v>
+        <v>-1467442.430926332</v>
       </c>
       <c r="H70" t="n">
-        <v>6.330500000000011</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N70" t="n">
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3476,42 +3070,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>6.51</v>
+        <v>6.18</v>
       </c>
       <c r="C71" t="n">
-        <v>6.51</v>
+        <v>6.18</v>
       </c>
       <c r="D71" t="n">
-        <v>6.51</v>
+        <v>6.18</v>
       </c>
       <c r="E71" t="n">
-        <v>6.51</v>
+        <v>6.18</v>
       </c>
       <c r="F71" t="n">
-        <v>209.475</v>
+        <v>100</v>
       </c>
       <c r="G71" t="n">
-        <v>6.546666666666669</v>
+        <v>-1467442.430926332</v>
       </c>
       <c r="H71" t="n">
-        <v>6.336000000000011</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N71" t="n">
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3520,42 +3111,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>6.52</v>
+        <v>6.18</v>
       </c>
       <c r="C72" t="n">
-        <v>6.52</v>
+        <v>6.18</v>
       </c>
       <c r="D72" t="n">
-        <v>6.52</v>
+        <v>6.18</v>
       </c>
       <c r="E72" t="n">
-        <v>6.52</v>
+        <v>6.18</v>
       </c>
       <c r="F72" t="n">
-        <v>8417.276</v>
+        <v>15000</v>
       </c>
       <c r="G72" t="n">
-        <v>6.544666666666669</v>
+        <v>-1467442.430926332</v>
       </c>
       <c r="H72" t="n">
-        <v>6.341666666666677</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N72" t="n">
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3564,42 +3152,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>6.51</v>
+        <v>6.17</v>
       </c>
       <c r="C73" t="n">
-        <v>6.51</v>
+        <v>6.17</v>
       </c>
       <c r="D73" t="n">
-        <v>6.51</v>
+        <v>6.18</v>
       </c>
       <c r="E73" t="n">
-        <v>6.51</v>
+        <v>6.17</v>
       </c>
       <c r="F73" t="n">
-        <v>26645.8828</v>
+        <v>29019.5705</v>
       </c>
       <c r="G73" t="n">
-        <v>6.544000000000002</v>
+        <v>-1496462.001426332</v>
       </c>
       <c r="H73" t="n">
-        <v>6.346833333333344</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N73" t="n">
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3608,42 +3193,41 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>6.52</v>
+        <v>6.17</v>
       </c>
       <c r="C74" t="n">
-        <v>6.52</v>
+        <v>6.17</v>
       </c>
       <c r="D74" t="n">
-        <v>6.52</v>
+        <v>6.17</v>
       </c>
       <c r="E74" t="n">
-        <v>6.52</v>
+        <v>6.17</v>
       </c>
       <c r="F74" t="n">
-        <v>36056.7111</v>
+        <v>10269.5705</v>
       </c>
       <c r="G74" t="n">
-        <v>6.542000000000002</v>
+        <v>-1496462.001426332</v>
       </c>
       <c r="H74" t="n">
-        <v>6.352333333333344</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N74" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="K74" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3652,42 +3236,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>6.51</v>
+        <v>6.19</v>
       </c>
       <c r="C75" t="n">
-        <v>6.51</v>
+        <v>6.19</v>
       </c>
       <c r="D75" t="n">
-        <v>6.51</v>
+        <v>6.19</v>
       </c>
       <c r="E75" t="n">
-        <v>6.51</v>
+        <v>6.19</v>
       </c>
       <c r="F75" t="n">
-        <v>65068.4223</v>
+        <v>5036.7817</v>
       </c>
       <c r="G75" t="n">
-        <v>6.539333333333336</v>
+        <v>-1491425.219726332</v>
       </c>
       <c r="H75" t="n">
-        <v>6.357666666666677</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N75" t="n">
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3696,42 +3277,41 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>6.51</v>
+        <v>6.19</v>
       </c>
       <c r="C76" t="n">
-        <v>6.51</v>
+        <v>6.29</v>
       </c>
       <c r="D76" t="n">
-        <v>6.51</v>
+        <v>6.29</v>
       </c>
       <c r="E76" t="n">
-        <v>6.51</v>
+        <v>6.19</v>
       </c>
       <c r="F76" t="n">
-        <v>27879</v>
+        <v>64400.4485</v>
       </c>
       <c r="G76" t="n">
-        <v>6.536666666666671</v>
+        <v>-1427024.771226332</v>
       </c>
       <c r="H76" t="n">
-        <v>6.363166666666676</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N76" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="K76" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3740,42 +3320,41 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>6.51</v>
+        <v>6.24</v>
       </c>
       <c r="C77" t="n">
-        <v>6.51</v>
+        <v>6.29</v>
       </c>
       <c r="D77" t="n">
-        <v>6.51</v>
+        <v>6.29</v>
       </c>
       <c r="E77" t="n">
-        <v>6.51</v>
+        <v>6.24</v>
       </c>
       <c r="F77" t="n">
-        <v>77799.01179999999</v>
+        <v>5085.7509</v>
       </c>
       <c r="G77" t="n">
-        <v>6.531333333333337</v>
+        <v>-1427024.771226332</v>
       </c>
       <c r="H77" t="n">
-        <v>6.368666666666676</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N77" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="K77" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3784,42 +3363,41 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>6.52</v>
+        <v>6.29</v>
       </c>
       <c r="C78" t="n">
-        <v>6.55</v>
+        <v>6.5</v>
       </c>
       <c r="D78" t="n">
-        <v>6.55</v>
+        <v>6.5</v>
       </c>
       <c r="E78" t="n">
-        <v>6.52</v>
+        <v>6.29</v>
       </c>
       <c r="F78" t="n">
-        <v>26168.0547</v>
+        <v>203498.3926</v>
       </c>
       <c r="G78" t="n">
-        <v>6.52866666666667</v>
+        <v>-1223526.378626332</v>
       </c>
       <c r="H78" t="n">
-        <v>6.374666666666676</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N78" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="K78" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3828,42 +3406,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>6.51</v>
+        <v>6.44</v>
       </c>
       <c r="C79" t="n">
-        <v>6.51</v>
+        <v>6.5</v>
       </c>
       <c r="D79" t="n">
-        <v>6.51</v>
+        <v>6.5</v>
       </c>
       <c r="E79" t="n">
-        <v>6.51</v>
+        <v>6.44</v>
       </c>
       <c r="F79" t="n">
-        <v>31</v>
+        <v>4665</v>
       </c>
       <c r="G79" t="n">
-        <v>6.525333333333337</v>
+        <v>-1223526.378626332</v>
       </c>
       <c r="H79" t="n">
-        <v>6.38000000000001</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N79" t="n">
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3872,42 +3447,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>6.52</v>
+        <v>6.51</v>
       </c>
       <c r="C80" t="n">
-        <v>6.52</v>
+        <v>6.5</v>
       </c>
       <c r="D80" t="n">
-        <v>6.52</v>
+        <v>6.51</v>
       </c>
       <c r="E80" t="n">
-        <v>6.52</v>
+        <v>6.5</v>
       </c>
       <c r="F80" t="n">
-        <v>48839.7957</v>
+        <v>26978</v>
       </c>
       <c r="G80" t="n">
-        <v>6.522666666666669</v>
+        <v>-1223526.378626332</v>
       </c>
       <c r="H80" t="n">
-        <v>6.385500000000009</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3916,42 +3488,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>6.53</v>
+        <v>6.43</v>
       </c>
       <c r="C81" t="n">
-        <v>6.53</v>
+        <v>6.43</v>
       </c>
       <c r="D81" t="n">
-        <v>6.53</v>
+        <v>6.43</v>
       </c>
       <c r="E81" t="n">
-        <v>6.53</v>
+        <v>6.43</v>
       </c>
       <c r="F81" t="n">
-        <v>270230.7799</v>
+        <v>50</v>
       </c>
       <c r="G81" t="n">
-        <v>6.519333333333337</v>
+        <v>-1223576.378626332</v>
       </c>
       <c r="H81" t="n">
-        <v>6.391166666666676</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3960,42 +3529,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>6.54</v>
+        <v>6.5</v>
       </c>
       <c r="C82" t="n">
-        <v>6.51</v>
+        <v>6.5</v>
       </c>
       <c r="D82" t="n">
-        <v>6.58</v>
+        <v>6.5</v>
       </c>
       <c r="E82" t="n">
-        <v>6.51</v>
+        <v>6.5</v>
       </c>
       <c r="F82" t="n">
-        <v>38050.549</v>
+        <v>4082.0252</v>
       </c>
       <c r="G82" t="n">
-        <v>6.518000000000003</v>
+        <v>-1219494.353426332</v>
       </c>
       <c r="H82" t="n">
-        <v>6.391333333333342</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4004,42 +3570,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>6.58</v>
+        <v>6.5</v>
       </c>
       <c r="C83" t="n">
-        <v>6.58</v>
+        <v>6.55</v>
       </c>
       <c r="D83" t="n">
-        <v>6.58</v>
+        <v>6.55</v>
       </c>
       <c r="E83" t="n">
-        <v>6.58</v>
+        <v>6.5</v>
       </c>
       <c r="F83" t="n">
-        <v>3051</v>
+        <v>2667.227</v>
       </c>
       <c r="G83" t="n">
-        <v>6.522000000000004</v>
+        <v>-1216827.126426332</v>
       </c>
       <c r="H83" t="n">
-        <v>6.397166666666675</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4048,42 +3611,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>6.58</v>
+        <v>6.54</v>
       </c>
       <c r="C84" t="n">
-        <v>6.58</v>
+        <v>6.54</v>
       </c>
       <c r="D84" t="n">
-        <v>6.58</v>
+        <v>6.54</v>
       </c>
       <c r="E84" t="n">
-        <v>6.58</v>
+        <v>6.54</v>
       </c>
       <c r="F84" t="n">
-        <v>179</v>
+        <v>23998.999</v>
       </c>
       <c r="G84" t="n">
-        <v>6.526000000000004</v>
+        <v>-1240826.125426332</v>
       </c>
       <c r="H84" t="n">
-        <v>6.403000000000008</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4092,42 +3652,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>6.51</v>
+        <v>6.54</v>
       </c>
       <c r="C85" t="n">
-        <v>6.51</v>
+        <v>6.54</v>
       </c>
       <c r="D85" t="n">
-        <v>6.51</v>
+        <v>6.54</v>
       </c>
       <c r="E85" t="n">
-        <v>6.51</v>
+        <v>6.54</v>
       </c>
       <c r="F85" t="n">
-        <v>21414.3595</v>
+        <v>49096.8859</v>
       </c>
       <c r="G85" t="n">
-        <v>6.525333333333338</v>
+        <v>-1240826.125426332</v>
       </c>
       <c r="H85" t="n">
-        <v>6.40883333333334</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4136,42 +3693,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>6.46</v>
+        <v>6.54</v>
       </c>
       <c r="C86" t="n">
-        <v>6.45</v>
+        <v>6.55</v>
       </c>
       <c r="D86" t="n">
-        <v>6.46</v>
+        <v>6.55</v>
       </c>
       <c r="E86" t="n">
-        <v>6.45</v>
+        <v>6.54</v>
       </c>
       <c r="F86" t="n">
-        <v>2561</v>
+        <v>134185.446</v>
       </c>
       <c r="G86" t="n">
-        <v>6.521333333333337</v>
+        <v>-1106640.679426332</v>
       </c>
       <c r="H86" t="n">
-        <v>6.412500000000007</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4180,42 +3734,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>6.57</v>
+        <v>6.52</v>
       </c>
       <c r="C87" t="n">
-        <v>6.57</v>
+        <v>6.52</v>
       </c>
       <c r="D87" t="n">
-        <v>6.57</v>
+        <v>6.52</v>
       </c>
       <c r="E87" t="n">
-        <v>6.57</v>
+        <v>6.52</v>
       </c>
       <c r="F87" t="n">
-        <v>20000</v>
+        <v>175908.3603</v>
       </c>
       <c r="G87" t="n">
-        <v>6.524666666666672</v>
+        <v>-1282549.039726332</v>
       </c>
       <c r="H87" t="n">
-        <v>6.417166666666673</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4224,42 +3775,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>6.58</v>
+        <v>6.54</v>
       </c>
       <c r="C88" t="n">
-        <v>6.58</v>
+        <v>6.55</v>
       </c>
       <c r="D88" t="n">
-        <v>6.58</v>
+        <v>6.55</v>
       </c>
       <c r="E88" t="n">
-        <v>6.58</v>
+        <v>6.54</v>
       </c>
       <c r="F88" t="n">
-        <v>2000</v>
+        <v>3570</v>
       </c>
       <c r="G88" t="n">
-        <v>6.529333333333338</v>
+        <v>-1278979.039726332</v>
       </c>
       <c r="H88" t="n">
-        <v>6.423500000000006</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4268,42 +3816,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>6.59</v>
+        <v>6.55</v>
       </c>
       <c r="C89" t="n">
-        <v>6.57</v>
+        <v>6.55</v>
       </c>
       <c r="D89" t="n">
-        <v>6.59</v>
+        <v>6.55</v>
       </c>
       <c r="E89" t="n">
-        <v>6.57</v>
+        <v>6.55</v>
       </c>
       <c r="F89" t="n">
-        <v>86471.5275</v>
+        <v>1957</v>
       </c>
       <c r="G89" t="n">
-        <v>6.532666666666672</v>
+        <v>-1278979.039726332</v>
       </c>
       <c r="H89" t="n">
-        <v>6.429000000000006</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4312,42 +3857,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>6.52</v>
+        <v>6.55</v>
       </c>
       <c r="C90" t="n">
-        <v>6.52</v>
+        <v>6.55</v>
       </c>
       <c r="D90" t="n">
-        <v>6.52</v>
+        <v>6.55</v>
       </c>
       <c r="E90" t="n">
-        <v>6.52</v>
+        <v>6.55</v>
       </c>
       <c r="F90" t="n">
-        <v>88994.93859999999</v>
+        <v>6209</v>
       </c>
       <c r="G90" t="n">
-        <v>6.533333333333338</v>
+        <v>-1278979.039726332</v>
       </c>
       <c r="H90" t="n">
-        <v>6.434166666666672</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4356,42 +3898,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>6.58</v>
+        <v>6.55</v>
       </c>
       <c r="C91" t="n">
-        <v>6.58</v>
+        <v>6.59</v>
       </c>
       <c r="D91" t="n">
-        <v>6.6</v>
+        <v>6.59</v>
       </c>
       <c r="E91" t="n">
-        <v>6.58</v>
+        <v>6.55</v>
       </c>
       <c r="F91" t="n">
-        <v>418140.4434</v>
+        <v>43824.9081</v>
       </c>
       <c r="G91" t="n">
-        <v>6.538000000000005</v>
+        <v>-1235154.131626332</v>
       </c>
       <c r="H91" t="n">
-        <v>6.440333333333339</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4400,42 +3939,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>6.58</v>
+        <v>6.59</v>
       </c>
       <c r="C92" t="n">
-        <v>6.62</v>
+        <v>6.59</v>
       </c>
       <c r="D92" t="n">
-        <v>6.62</v>
+        <v>6.59</v>
       </c>
       <c r="E92" t="n">
-        <v>6.58</v>
+        <v>6.59</v>
       </c>
       <c r="F92" t="n">
-        <v>27634</v>
+        <v>1777</v>
       </c>
       <c r="G92" t="n">
-        <v>6.545333333333337</v>
+        <v>-1235154.131626332</v>
       </c>
       <c r="H92" t="n">
-        <v>6.447166666666673</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4444,42 +3980,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>6.62</v>
+        <v>6.56</v>
       </c>
       <c r="C93" t="n">
-        <v>6.53</v>
+        <v>6.56</v>
       </c>
       <c r="D93" t="n">
-        <v>6.62</v>
+        <v>6.56</v>
       </c>
       <c r="E93" t="n">
-        <v>6.53</v>
+        <v>6.56</v>
       </c>
       <c r="F93" t="n">
-        <v>59775</v>
+        <v>129408.9081</v>
       </c>
       <c r="G93" t="n">
-        <v>6.544000000000005</v>
+        <v>-1364563.039726332</v>
       </c>
       <c r="H93" t="n">
-        <v>6.452500000000006</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4488,42 +4021,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>6.65</v>
+        <v>6.56</v>
       </c>
       <c r="C94" t="n">
-        <v>6.67</v>
+        <v>6.56</v>
       </c>
       <c r="D94" t="n">
-        <v>6.67</v>
+        <v>6.56</v>
       </c>
       <c r="E94" t="n">
-        <v>6.65</v>
+        <v>6.56</v>
       </c>
       <c r="F94" t="n">
-        <v>198133</v>
+        <v>1667.881</v>
       </c>
       <c r="G94" t="n">
-        <v>6.554666666666671</v>
+        <v>-1364563.039726332</v>
       </c>
       <c r="H94" t="n">
-        <v>6.460166666666674</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4532,42 +4062,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>6.67</v>
+        <v>6.52</v>
       </c>
       <c r="C95" t="n">
-        <v>6.67</v>
+        <v>6.58</v>
       </c>
       <c r="D95" t="n">
-        <v>6.67</v>
+        <v>6.59</v>
       </c>
       <c r="E95" t="n">
-        <v>6.67</v>
+        <v>6.52</v>
       </c>
       <c r="F95" t="n">
-        <v>38506</v>
+        <v>5098</v>
       </c>
       <c r="G95" t="n">
-        <v>6.564666666666671</v>
+        <v>-1359465.039726332</v>
       </c>
       <c r="H95" t="n">
-        <v>6.468000000000007</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N95" t="n">
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4576,42 +4103,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>6.7</v>
+        <v>6.57</v>
       </c>
       <c r="C96" t="n">
-        <v>7.12</v>
+        <v>6.53</v>
       </c>
       <c r="D96" t="n">
-        <v>7.12</v>
+        <v>6.57</v>
       </c>
       <c r="E96" t="n">
-        <v>6.62</v>
+        <v>6.53</v>
       </c>
       <c r="F96" t="n">
-        <v>146624.0596</v>
+        <v>31</v>
       </c>
       <c r="G96" t="n">
-        <v>6.604000000000005</v>
+        <v>-1359496.039726332</v>
       </c>
       <c r="H96" t="n">
-        <v>6.48383333333334</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N96" t="n">
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4620,42 +4144,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>7.08</v>
+        <v>6.52</v>
       </c>
       <c r="C97" t="n">
-        <v>7.07</v>
+        <v>6.52</v>
       </c>
       <c r="D97" t="n">
-        <v>7.08</v>
+        <v>6.52</v>
       </c>
       <c r="E97" t="n">
-        <v>7.07</v>
+        <v>6.52</v>
       </c>
       <c r="F97" t="n">
-        <v>20</v>
+        <v>5912</v>
       </c>
       <c r="G97" t="n">
-        <v>6.641333333333338</v>
+        <v>-1365408.039726332</v>
       </c>
       <c r="H97" t="n">
-        <v>6.499333333333341</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N97" t="n">
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4664,42 +4185,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>6.65</v>
+        <v>6.52</v>
       </c>
       <c r="C98" t="n">
-        <v>7.1</v>
+        <v>6.52</v>
       </c>
       <c r="D98" t="n">
-        <v>7.1</v>
+        <v>6.52</v>
       </c>
       <c r="E98" t="n">
-        <v>6.65</v>
+        <v>6.51</v>
       </c>
       <c r="F98" t="n">
-        <v>1422.975</v>
+        <v>170660</v>
       </c>
       <c r="G98" t="n">
-        <v>6.676000000000005</v>
+        <v>-1365408.039726332</v>
       </c>
       <c r="H98" t="n">
-        <v>6.513333333333341</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N98" t="n">
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4708,42 +4226,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>6.65</v>
+        <v>6.52</v>
       </c>
       <c r="C99" t="n">
-        <v>6.59</v>
+        <v>6.52</v>
       </c>
       <c r="D99" t="n">
-        <v>6.65</v>
+        <v>6.52</v>
       </c>
       <c r="E99" t="n">
-        <v>6.59</v>
+        <v>6.52</v>
       </c>
       <c r="F99" t="n">
-        <v>62827</v>
+        <v>15128.0736</v>
       </c>
       <c r="G99" t="n">
-        <v>6.676666666666672</v>
+        <v>-1365408.039726332</v>
       </c>
       <c r="H99" t="n">
-        <v>6.519166666666674</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N99" t="n">
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4752,42 +4267,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>7.06</v>
+        <v>6.51</v>
       </c>
       <c r="C100" t="n">
-        <v>7.06</v>
+        <v>6.51</v>
       </c>
       <c r="D100" t="n">
-        <v>7.06</v>
+        <v>6.51</v>
       </c>
       <c r="E100" t="n">
-        <v>7.06</v>
+        <v>6.51</v>
       </c>
       <c r="F100" t="n">
-        <v>10</v>
+        <v>209.475</v>
       </c>
       <c r="G100" t="n">
-        <v>6.713333333333338</v>
+        <v>-1365617.514726332</v>
       </c>
       <c r="H100" t="n">
-        <v>6.533000000000007</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N100" t="n">
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4796,43 +4308,40 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>6.72</v>
+        <v>6.52</v>
       </c>
       <c r="C101" t="n">
-        <v>6.72</v>
+        <v>6.52</v>
       </c>
       <c r="D101" t="n">
-        <v>6.72</v>
+        <v>6.52</v>
       </c>
       <c r="E101" t="n">
-        <v>6.72</v>
+        <v>6.52</v>
       </c>
       <c r="F101" t="n">
-        <v>69999.99980000001</v>
+        <v>8417.276</v>
       </c>
       <c r="G101" t="n">
-        <v>6.731333333333338</v>
+        <v>-1357200.238726332</v>
       </c>
       <c r="H101" t="n">
-        <v>6.542000000000007</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>1</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N101" t="n">
-        <v>1.078870967741935</v>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -4840,36 +4349,39 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>6.99</v>
+        <v>6.51</v>
       </c>
       <c r="C102" t="n">
-        <v>6.99</v>
+        <v>6.51</v>
       </c>
       <c r="D102" t="n">
-        <v>6.99</v>
+        <v>6.51</v>
       </c>
       <c r="E102" t="n">
-        <v>6.99</v>
+        <v>6.51</v>
       </c>
       <c r="F102" t="n">
-        <v>10</v>
+        <v>26645.8828</v>
       </c>
       <c r="G102" t="n">
-        <v>6.759333333333339</v>
+        <v>-1383846.121526332</v>
       </c>
       <c r="H102" t="n">
-        <v>6.555500000000007</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>1</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4878,36 +4390,39 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>6.99</v>
+        <v>6.52</v>
       </c>
       <c r="C103" t="n">
-        <v>6.99</v>
+        <v>6.52</v>
       </c>
       <c r="D103" t="n">
-        <v>6.99</v>
+        <v>6.52</v>
       </c>
       <c r="E103" t="n">
-        <v>6.99</v>
+        <v>6.52</v>
       </c>
       <c r="F103" t="n">
-        <v>10934.0486</v>
+        <v>36056.7111</v>
       </c>
       <c r="G103" t="n">
-        <v>6.786666666666672</v>
+        <v>-1347789.410426332</v>
       </c>
       <c r="H103" t="n">
-        <v>6.569000000000007</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>1</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4916,36 +4431,1216 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="C104" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="D104" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="E104" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="F104" t="n">
+        <v>65068.4223</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-1412857.832726332</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="C105" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="D105" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="E105" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="F105" t="n">
+        <v>27879</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-1412857.832726332</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="C106" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="D106" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="E106" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="F106" t="n">
+        <v>77799.01179999999</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-1412857.832726332</v>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="K106" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="C107" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="D107" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="E107" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="F107" t="n">
+        <v>26168.0547</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-1386689.778026332</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="C108" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="D108" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="E108" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="F108" t="n">
+        <v>31</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-1386720.778026332</v>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="K108" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="C109" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="D109" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="E109" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="F109" t="n">
+        <v>48839.7957</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-1337880.982326332</v>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="K109" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="C110" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="D110" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="E110" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="F110" t="n">
+        <v>270230.7799</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-1067650.202426333</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="C111" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="D111" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="E111" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="F111" t="n">
+        <v>38050.549</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-1105700.751426333</v>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K111" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="C112" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="D112" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="E112" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="F112" t="n">
+        <v>3051</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-1102649.751426333</v>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="K112" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="C113" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="D113" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="E113" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="F113" t="n">
+        <v>179</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-1102649.751426333</v>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="K113" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="C114" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="D114" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="E114" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="F114" t="n">
+        <v>21414.3595</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-1124064.110926333</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="C115" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="D115" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="E115" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="F115" t="n">
+        <v>2561</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-1126625.110926333</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="C116" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="D116" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="E116" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="F116" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-1106625.110926333</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="K116" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="C117" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="D117" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="E117" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="F117" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-1104625.110926333</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="K117" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="C118" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="D118" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="E118" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="F118" t="n">
+        <v>86471.5275</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-1191096.638426333</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="K118" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="C119" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="D119" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="E119" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="F119" t="n">
+        <v>88994.93859999999</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-1280091.577026333</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="K119" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="C120" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="D120" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E120" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="F120" t="n">
+        <v>418140.4434</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-861951.1336263327</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="K120" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="C121" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="D121" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="E121" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="F121" t="n">
+        <v>27634</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-834317.1336263327</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="K121" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="C122" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="D122" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="E122" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="F122" t="n">
+        <v>59775</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-894092.1336263327</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="C123" t="n">
         <v>6.67</v>
       </c>
-      <c r="C104" t="n">
+      <c r="D123" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="E123" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="F123" t="n">
+        <v>198133</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-695959.1336263327</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="C124" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="D124" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="E124" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="F124" t="n">
+        <v>38506</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-695959.1336263327</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C125" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="D125" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="E125" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="F125" t="n">
+        <v>146624.0596</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-549335.0740263327</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="C126" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="D126" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="E126" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="F126" t="n">
+        <v>20</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-549355.0740263327</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="C127" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="D127" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="E127" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1422.975</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-547932.0990263327</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1.143867313915858</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="C128" t="n">
         <v>6.59</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D128" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="E128" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="F128" t="n">
+        <v>62827</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-610759.0990263327</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>7.06</v>
+      </c>
+      <c r="C129" t="n">
+        <v>7.06</v>
+      </c>
+      <c r="D129" t="n">
+        <v>7.06</v>
+      </c>
+      <c r="E129" t="n">
+        <v>7.06</v>
+      </c>
+      <c r="F129" t="n">
+        <v>10</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-610749.0990263327</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="C130" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="D130" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="E130" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="F130" t="n">
+        <v>69999.99980000001</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-680749.0988263327</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="C131" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="D131" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="E131" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="F131" t="n">
+        <v>10</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-680739.0988263327</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="C132" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="D132" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="E132" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="F132" t="n">
+        <v>10934.0486</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-680739.0988263327</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="C133" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="D133" t="n">
         <v>6.68</v>
       </c>
-      <c r="E104" t="n">
+      <c r="E133" t="n">
         <v>6.59</v>
       </c>
-      <c r="F104" t="n">
+      <c r="F133" t="n">
         <v>303947.7578</v>
       </c>
-      <c r="G104" t="n">
-        <v>6.788000000000006</v>
-      </c>
-      <c r="H104" t="n">
-        <v>6.576000000000007</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="n">
-        <v>1</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="G133" t="n">
+        <v>-984686.8566263327</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-29 BackTest IOST.xlsx
+++ b/BackTest/2019-10-29 BackTest IOST.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M133"/>
+  <dimension ref="A1:N133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -448,7 +453,7 @@
         <v>3679</v>
       </c>
       <c r="G2" t="n">
-        <v>-1470766.686261815</v>
+        <v>6.375999999999992</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -483,7 +489,7 @@
         <v>500</v>
       </c>
       <c r="G3" t="n">
-        <v>-1471266.686261815</v>
+        <v>6.376499999999992</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,7 +525,7 @@
         <v>1952</v>
       </c>
       <c r="G4" t="n">
-        <v>-1473218.686261815</v>
+        <v>6.376999999999992</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -553,7 +561,7 @@
         <v>3585</v>
       </c>
       <c r="G5" t="n">
-        <v>-1473218.686261815</v>
+        <v>6.373999999999991</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -588,7 +597,7 @@
         <v>16838.5</v>
       </c>
       <c r="G6" t="n">
-        <v>-1490057.186261815</v>
+        <v>6.371499999999991</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -623,7 +633,7 @@
         <v>12004</v>
       </c>
       <c r="G7" t="n">
-        <v>-1502061.186261815</v>
+        <v>6.366999999999992</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -658,7 +669,7 @@
         <v>6046.7569</v>
       </c>
       <c r="G8" t="n">
-        <v>-1496014.429361816</v>
+        <v>6.362999999999992</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -693,7 +705,7 @@
         <v>400</v>
       </c>
       <c r="G9" t="n">
-        <v>-1495614.429361816</v>
+        <v>6.359499999999992</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -728,7 +741,7 @@
         <v>63281.492</v>
       </c>
       <c r="G10" t="n">
-        <v>-1495614.429361816</v>
+        <v>6.355999999999993</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -763,7 +777,7 @@
         <v>74984</v>
       </c>
       <c r="G11" t="n">
-        <v>-1420630.429361816</v>
+        <v>6.352999999999993</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -798,7 +813,7 @@
         <v>8159.1827</v>
       </c>
       <c r="G12" t="n">
-        <v>-1412471.246661816</v>
+        <v>6.350999999999993</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -833,7 +849,7 @@
         <v>265.3789</v>
       </c>
       <c r="G13" t="n">
-        <v>-1412471.246661816</v>
+        <v>6.350499999999993</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -868,7 +885,7 @@
         <v>25624.8701</v>
       </c>
       <c r="G14" t="n">
-        <v>-1386846.376561816</v>
+        <v>6.342999999999993</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -903,7 +921,7 @@
         <v>71935.5996</v>
       </c>
       <c r="G15" t="n">
-        <v>-1386846.376561816</v>
+        <v>6.336999999999993</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -938,7 +957,7 @@
         <v>100</v>
       </c>
       <c r="G16" t="n">
-        <v>-1386846.376561816</v>
+        <v>6.330999999999992</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -973,7 +993,7 @@
         <v>15584.6211</v>
       </c>
       <c r="G17" t="n">
-        <v>-1402430.997661816</v>
+        <v>6.324499999999992</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1008,7 +1029,7 @@
         <v>156664.5312</v>
       </c>
       <c r="G18" t="n">
-        <v>-1559095.528861816</v>
+        <v>6.314999999999992</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1043,7 +1065,7 @@
         <v>79280.43829999999</v>
       </c>
       <c r="G19" t="n">
-        <v>-1638375.967161816</v>
+        <v>6.303999999999993</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1078,7 +1101,7 @@
         <v>109001.9999</v>
       </c>
       <c r="G20" t="n">
-        <v>-1747377.967061816</v>
+        <v>6.288499999999994</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1113,7 +1137,7 @@
         <v>39664.3124</v>
       </c>
       <c r="G21" t="n">
-        <v>-1747377.967061816</v>
+        <v>6.272499999999994</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1148,7 +1173,7 @@
         <v>3984</v>
       </c>
       <c r="G22" t="n">
-        <v>-1743393.967061816</v>
+        <v>6.258499999999994</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1183,7 +1209,7 @@
         <v>70797.7717</v>
       </c>
       <c r="G23" t="n">
-        <v>-1672596.195361816</v>
+        <v>6.247499999999993</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1218,7 +1245,7 @@
         <v>8263.2556</v>
       </c>
       <c r="G24" t="n">
-        <v>-1672596.195361816</v>
+        <v>6.236499999999994</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1253,7 +1281,7 @@
         <v>8923</v>
       </c>
       <c r="G25" t="n">
-        <v>-1681519.195361816</v>
+        <v>6.230499999999994</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1288,7 +1317,7 @@
         <v>31895.996</v>
       </c>
       <c r="G26" t="n">
-        <v>-1649623.199361816</v>
+        <v>6.225499999999994</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1323,7 +1353,7 @@
         <v>52517</v>
       </c>
       <c r="G27" t="n">
-        <v>-1649623.199361816</v>
+        <v>6.221999999999994</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,6 +1367,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1358,7 +1389,7 @@
         <v>34777.8866</v>
       </c>
       <c r="G28" t="n">
-        <v>-1684401.085961816</v>
+        <v>6.218499999999994</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,6 +1403,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1393,7 +1425,7 @@
         <v>50185</v>
       </c>
       <c r="G29" t="n">
-        <v>-1684401.085961816</v>
+        <v>6.212499999999993</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,6 +1439,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1428,7 +1461,7 @@
         <v>4324</v>
       </c>
       <c r="G30" t="n">
-        <v>-1688725.085961816</v>
+        <v>6.204499999999994</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,6 +1475,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1463,7 +1497,7 @@
         <v>25418.9246</v>
       </c>
       <c r="G31" t="n">
-        <v>-1714144.010561816</v>
+        <v>6.195999999999994</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,6 +1511,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1498,7 +1533,7 @@
         <v>128107.5107</v>
       </c>
       <c r="G32" t="n">
-        <v>-1714144.010561816</v>
+        <v>6.184499999999994</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,6 +1547,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1533,7 +1569,7 @@
         <v>50023.5241</v>
       </c>
       <c r="G33" t="n">
-        <v>-1664120.486461816</v>
+        <v>6.172999999999993</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,6 +1583,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1568,7 +1605,7 @@
         <v>129658.9789</v>
       </c>
       <c r="G34" t="n">
-        <v>-1664120.486461816</v>
+        <v>6.162999999999993</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,6 +1619,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1603,7 +1641,7 @@
         <v>55569.3796</v>
       </c>
       <c r="G35" t="n">
-        <v>-1608551.106861816</v>
+        <v>6.152999999999993</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,6 +1655,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1638,7 +1677,7 @@
         <v>100</v>
       </c>
       <c r="G36" t="n">
-        <v>-1608651.106861816</v>
+        <v>6.140999999999993</v>
       </c>
       <c r="H36" t="n">
         <v>1</v>
@@ -1656,6 +1695,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1677,7 +1717,7 @@
         <v>3000</v>
       </c>
       <c r="G37" t="n">
-        <v>-1605651.106861816</v>
+        <v>6.132999999999994</v>
       </c>
       <c r="H37" t="n">
         <v>1</v>
@@ -1699,6 +1739,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1720,7 +1761,7 @@
         <v>47326.472</v>
       </c>
       <c r="G38" t="n">
-        <v>-1605651.106861816</v>
+        <v>6.128499999999994</v>
       </c>
       <c r="H38" t="n">
         <v>1</v>
@@ -1742,6 +1783,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1763,7 +1805,7 @@
         <v>2000</v>
       </c>
       <c r="G39" t="n">
-        <v>-1603651.106861816</v>
+        <v>6.127499999999992</v>
       </c>
       <c r="H39" t="n">
         <v>1</v>
@@ -1785,6 +1827,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1806,7 +1849,7 @@
         <v>7145.53</v>
       </c>
       <c r="G40" t="n">
-        <v>-1603651.106861816</v>
+        <v>6.131499999999993</v>
       </c>
       <c r="H40" t="n">
         <v>1</v>
@@ -1828,6 +1871,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1849,7 +1893,7 @@
         <v>50</v>
       </c>
       <c r="G41" t="n">
-        <v>-1603651.106861816</v>
+        <v>6.135999999999993</v>
       </c>
       <c r="H41" t="n">
         <v>1</v>
@@ -1871,6 +1915,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1892,7 +1937,7 @@
         <v>410.241935483871</v>
       </c>
       <c r="G42" t="n">
-        <v>-1603240.864926332</v>
+        <v>6.138999999999993</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1912,6 +1957,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1933,7 +1979,7 @@
         <v>5000</v>
       </c>
       <c r="G43" t="n">
-        <v>-1608240.864926332</v>
+        <v>6.139499999999993</v>
       </c>
       <c r="H43" t="n">
         <v>1</v>
@@ -1955,6 +2001,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1976,7 +2023,7 @@
         <v>18000</v>
       </c>
       <c r="G44" t="n">
-        <v>-1608240.864926332</v>
+        <v>6.139999999999992</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1996,6 +2043,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2017,7 +2065,7 @@
         <v>10000</v>
       </c>
       <c r="G45" t="n">
-        <v>-1618240.864926332</v>
+        <v>6.140999999999993</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2037,6 +2085,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2058,7 +2107,7 @@
         <v>19971.0962</v>
       </c>
       <c r="G46" t="n">
-        <v>-1618240.864926332</v>
+        <v>6.141499999999992</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2078,6 +2127,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2099,7 +2149,7 @@
         <v>205000</v>
       </c>
       <c r="G47" t="n">
-        <v>-1413240.864926332</v>
+        <v>6.138499999999992</v>
       </c>
       <c r="H47" t="n">
         <v>1</v>
@@ -2121,6 +2171,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2142,7 +2193,7 @@
         <v>15000</v>
       </c>
       <c r="G48" t="n">
-        <v>-1413240.864926332</v>
+        <v>6.138999999999991</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2162,6 +2213,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2183,7 +2235,7 @@
         <v>150802.0385</v>
       </c>
       <c r="G49" t="n">
-        <v>-1413240.864926332</v>
+        <v>6.13899999999999</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2203,6 +2255,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2224,7 +2277,7 @@
         <v>61556.0344</v>
       </c>
       <c r="G50" t="n">
-        <v>-1413240.864926332</v>
+        <v>6.140999999999991</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2244,6 +2297,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2265,7 +2319,7 @@
         <v>104470.6926</v>
       </c>
       <c r="G51" t="n">
-        <v>-1308770.172326332</v>
+        <v>6.145499999999991</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2285,6 +2339,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2306,7 +2361,7 @@
         <v>7159.2295</v>
       </c>
       <c r="G52" t="n">
-        <v>-1315929.401826332</v>
+        <v>6.153999999999991</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2326,6 +2381,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2347,7 +2403,7 @@
         <v>60710.502</v>
       </c>
       <c r="G53" t="n">
-        <v>-1315929.401826332</v>
+        <v>6.16249999999999</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2367,6 +2423,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2388,7 +2445,7 @@
         <v>10895.2304</v>
       </c>
       <c r="G54" t="n">
-        <v>-1326824.632226332</v>
+        <v>6.16549999999999</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2408,6 +2465,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2429,7 +2487,7 @@
         <v>61.3162</v>
       </c>
       <c r="G55" t="n">
-        <v>-1326763.316026332</v>
+        <v>6.17199999999999</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2449,6 +2507,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2470,7 +2529,7 @@
         <v>14610.1919</v>
       </c>
       <c r="G56" t="n">
-        <v>-1312153.124126332</v>
+        <v>6.18049999999999</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2490,6 +2549,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2511,7 +2571,7 @@
         <v>32967.9032</v>
       </c>
       <c r="G57" t="n">
-        <v>-1345121.027326332</v>
+        <v>6.183999999999989</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2531,6 +2591,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2552,7 +2613,7 @@
         <v>72588.35159999999</v>
       </c>
       <c r="G58" t="n">
-        <v>-1272532.675726332</v>
+        <v>6.187999999999989</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2572,6 +2633,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2593,7 +2655,7 @@
         <v>4915.7624</v>
       </c>
       <c r="G59" t="n">
-        <v>-1277448.438126332</v>
+        <v>6.189499999999988</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2613,6 +2675,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2634,7 +2697,7 @@
         <v>14694.7034</v>
       </c>
       <c r="G60" t="n">
-        <v>-1277448.438126332</v>
+        <v>6.190999999999988</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2654,6 +2717,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2675,7 +2739,7 @@
         <v>6558.3004</v>
       </c>
       <c r="G61" t="n">
-        <v>-1277448.438126332</v>
+        <v>6.192499999999988</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2695,6 +2759,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2716,7 +2781,7 @@
         <v>3018.231</v>
       </c>
       <c r="G62" t="n">
-        <v>-1277448.438126332</v>
+        <v>6.193499999999989</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2736,6 +2801,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2757,7 +2823,7 @@
         <v>12972.5429</v>
       </c>
       <c r="G63" t="n">
-        <v>-1277448.438126332</v>
+        <v>6.194499999999989</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2777,6 +2843,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2798,7 +2865,7 @@
         <v>101027.9512</v>
       </c>
       <c r="G64" t="n">
-        <v>-1378476.389326332</v>
+        <v>6.19549999999999</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2818,6 +2885,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2839,7 +2907,7 @@
         <v>77000</v>
       </c>
       <c r="G65" t="n">
-        <v>-1455476.389326332</v>
+        <v>6.19549999999999</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2859,6 +2927,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2880,7 +2949,7 @@
         <v>273.9344</v>
       </c>
       <c r="G66" t="n">
-        <v>-1455750.323726332</v>
+        <v>6.192999999999989</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2900,6 +2969,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2921,7 +2991,7 @@
         <v>8206.6669</v>
       </c>
       <c r="G67" t="n">
-        <v>-1447543.656826332</v>
+        <v>6.198499999999989</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2941,6 +3011,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2962,7 +3033,7 @@
         <v>17699</v>
       </c>
       <c r="G68" t="n">
-        <v>-1465242.656826332</v>
+        <v>6.197499999999988</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2982,6 +3053,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3003,7 +3075,7 @@
         <v>1718</v>
       </c>
       <c r="G69" t="n">
-        <v>-1466960.656826332</v>
+        <v>6.198999999999987</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3023,6 +3095,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3044,7 +3117,7 @@
         <v>481.7741</v>
       </c>
       <c r="G70" t="n">
-        <v>-1467442.430926332</v>
+        <v>6.200999999999987</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3064,6 +3137,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3085,7 +3159,7 @@
         <v>100</v>
       </c>
       <c r="G71" t="n">
-        <v>-1467442.430926332</v>
+        <v>6.200499999999987</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3105,6 +3179,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3126,7 +3201,7 @@
         <v>15000</v>
       </c>
       <c r="G72" t="n">
-        <v>-1467442.430926332</v>
+        <v>6.197999999999987</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3146,6 +3221,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3167,7 +3243,7 @@
         <v>29019.5705</v>
       </c>
       <c r="G73" t="n">
-        <v>-1496462.001426332</v>
+        <v>6.194999999999987</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3187,6 +3263,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3208,7 +3285,7 @@
         <v>10269.5705</v>
       </c>
       <c r="G74" t="n">
-        <v>-1496462.001426332</v>
+        <v>6.195499999999987</v>
       </c>
       <c r="H74" t="n">
         <v>1</v>
@@ -3230,6 +3307,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3251,7 +3329,7 @@
         <v>5036.7817</v>
       </c>
       <c r="G75" t="n">
-        <v>-1491425.219726332</v>
+        <v>6.193499999999987</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3271,6 +3349,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3292,7 +3371,7 @@
         <v>64400.4485</v>
       </c>
       <c r="G76" t="n">
-        <v>-1427024.771226332</v>
+        <v>6.191499999999987</v>
       </c>
       <c r="H76" t="n">
         <v>1</v>
@@ -3314,6 +3393,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3335,7 +3415,7 @@
         <v>5085.7509</v>
       </c>
       <c r="G77" t="n">
-        <v>-1427024.771226332</v>
+        <v>6.193499999999987</v>
       </c>
       <c r="H77" t="n">
         <v>1</v>
@@ -3357,6 +3437,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3378,7 +3459,7 @@
         <v>203498.3926</v>
       </c>
       <c r="G78" t="n">
-        <v>-1223526.378626332</v>
+        <v>6.196999999999987</v>
       </c>
       <c r="H78" t="n">
         <v>1</v>
@@ -3400,6 +3481,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3421,7 +3503,7 @@
         <v>4665</v>
       </c>
       <c r="G79" t="n">
-        <v>-1223526.378626332</v>
+        <v>6.208499999999987</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3441,6 +3523,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3462,7 +3545,7 @@
         <v>26978</v>
       </c>
       <c r="G80" t="n">
-        <v>-1223526.378626332</v>
+        <v>6.223499999999988</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3482,6 +3565,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3503,7 +3587,7 @@
         <v>50</v>
       </c>
       <c r="G81" t="n">
-        <v>-1223576.378626332</v>
+        <v>6.234499999999988</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3523,6 +3607,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3544,7 +3629,7 @@
         <v>4082.0252</v>
       </c>
       <c r="G82" t="n">
-        <v>-1219494.353426332</v>
+        <v>6.248999999999989</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3564,6 +3649,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3585,7 +3671,7 @@
         <v>2667.227</v>
       </c>
       <c r="G83" t="n">
-        <v>-1216827.126426332</v>
+        <v>6.26349999999999</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3605,6 +3691,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3626,7 +3713,7 @@
         <v>23998.999</v>
       </c>
       <c r="G84" t="n">
-        <v>-1240826.125426332</v>
+        <v>6.27999999999999</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3646,6 +3733,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3667,7 +3755,7 @@
         <v>49096.8859</v>
       </c>
       <c r="G85" t="n">
-        <v>-1240826.125426332</v>
+        <v>6.29799999999999</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3687,6 +3775,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3708,7 +3797,7 @@
         <v>134185.446</v>
       </c>
       <c r="G86" t="n">
-        <v>-1106640.679426332</v>
+        <v>6.31799999999999</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3728,6 +3817,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3749,7 +3839,7 @@
         <v>175908.3603</v>
       </c>
       <c r="G87" t="n">
-        <v>-1282549.039726332</v>
+        <v>6.33249999999999</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3769,6 +3859,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3790,7 +3881,7 @@
         <v>3570</v>
       </c>
       <c r="G88" t="n">
-        <v>-1278979.039726332</v>
+        <v>6.35099999999999</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3810,6 +3901,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3831,7 +3923,7 @@
         <v>1957</v>
       </c>
       <c r="G89" t="n">
-        <v>-1278979.039726332</v>
+        <v>6.369999999999989</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3851,6 +3943,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3872,7 +3965,7 @@
         <v>6209</v>
       </c>
       <c r="G90" t="n">
-        <v>-1278979.039726332</v>
+        <v>6.388499999999989</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3892,6 +3985,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3913,7 +4007,7 @@
         <v>43824.9081</v>
       </c>
       <c r="G91" t="n">
-        <v>-1235154.131626332</v>
+        <v>6.406999999999989</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3933,6 +4027,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3954,7 +4049,7 @@
         <v>1777</v>
       </c>
       <c r="G92" t="n">
-        <v>-1235154.131626332</v>
+        <v>6.42749999999999</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3974,6 +4069,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3995,7 +4091,7 @@
         <v>129408.9081</v>
       </c>
       <c r="G93" t="n">
-        <v>-1364563.039726332</v>
+        <v>6.44699999999999</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4015,6 +4111,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4036,7 +4133,7 @@
         <v>1667.881</v>
       </c>
       <c r="G94" t="n">
-        <v>-1364563.039726332</v>
+        <v>6.466499999999991</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4056,6 +4153,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4077,7 +4175,7 @@
         <v>5098</v>
       </c>
       <c r="G95" t="n">
-        <v>-1359465.039726332</v>
+        <v>6.482999999999992</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4097,6 +4195,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4118,7 +4217,7 @@
         <v>31</v>
       </c>
       <c r="G96" t="n">
-        <v>-1359496.039726332</v>
+        <v>6.501999999999991</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4138,6 +4237,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4159,7 +4259,7 @@
         <v>5912</v>
       </c>
       <c r="G97" t="n">
-        <v>-1365408.039726332</v>
+        <v>6.515999999999991</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4179,6 +4279,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4200,7 +4301,7 @@
         <v>170660</v>
       </c>
       <c r="G98" t="n">
-        <v>-1365408.039726332</v>
+        <v>6.527499999999992</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4220,6 +4321,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4241,7 +4343,7 @@
         <v>15128.0736</v>
       </c>
       <c r="G99" t="n">
-        <v>-1365408.039726332</v>
+        <v>6.531499999999992</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4261,6 +4363,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4282,7 +4385,7 @@
         <v>209.475</v>
       </c>
       <c r="G100" t="n">
-        <v>-1365617.514726332</v>
+        <v>6.531499999999992</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4302,6 +4405,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4323,7 +4427,7 @@
         <v>8417.276</v>
       </c>
       <c r="G101" t="n">
-        <v>-1357200.238726332</v>
+        <v>6.535999999999992</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4343,6 +4447,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4364,7 +4469,7 @@
         <v>26645.8828</v>
       </c>
       <c r="G102" t="n">
-        <v>-1383846.121526332</v>
+        <v>6.536499999999992</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4384,6 +4489,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4405,7 +4511,7 @@
         <v>36056.7111</v>
       </c>
       <c r="G103" t="n">
-        <v>-1347789.410426332</v>
+        <v>6.537499999999993</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4425,6 +4531,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4446,7 +4553,7 @@
         <v>65068.4223</v>
       </c>
       <c r="G104" t="n">
-        <v>-1412857.832726332</v>
+        <v>6.535999999999992</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4466,6 +4573,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4487,7 +4595,7 @@
         <v>27879</v>
       </c>
       <c r="G105" t="n">
-        <v>-1412857.832726332</v>
+        <v>6.534499999999992</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4507,6 +4615,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4528,7 +4637,7 @@
         <v>77799.01179999999</v>
       </c>
       <c r="G106" t="n">
-        <v>-1412857.832726332</v>
+        <v>6.532999999999992</v>
       </c>
       <c r="H106" t="n">
         <v>1</v>
@@ -4550,6 +4659,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4571,7 +4681,7 @@
         <v>26168.0547</v>
       </c>
       <c r="G107" t="n">
-        <v>-1386689.778026332</v>
+        <v>6.532999999999992</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4591,6 +4701,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4612,7 +4723,7 @@
         <v>31</v>
       </c>
       <c r="G108" t="n">
-        <v>-1386720.778026332</v>
+        <v>6.531499999999992</v>
       </c>
       <c r="H108" t="n">
         <v>1</v>
@@ -4634,6 +4745,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4655,7 +4767,7 @@
         <v>48839.7957</v>
       </c>
       <c r="G109" t="n">
-        <v>-1337880.982326332</v>
+        <v>6.529999999999992</v>
       </c>
       <c r="H109" t="n">
         <v>1</v>
@@ -4677,6 +4789,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4698,7 +4811,7 @@
         <v>270230.7799</v>
       </c>
       <c r="G110" t="n">
-        <v>-1067650.202426333</v>
+        <v>6.528999999999992</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4718,6 +4831,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4739,7 +4853,7 @@
         <v>38050.549</v>
       </c>
       <c r="G111" t="n">
-        <v>-1105700.751426333</v>
+        <v>6.528499999999991</v>
       </c>
       <c r="H111" t="n">
         <v>1</v>
@@ -4761,6 +4875,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4782,7 +4897,7 @@
         <v>3051</v>
       </c>
       <c r="G112" t="n">
-        <v>-1102649.751426333</v>
+        <v>6.527999999999992</v>
       </c>
       <c r="H112" t="n">
         <v>1</v>
@@ -4804,6 +4919,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4825,7 +4941,7 @@
         <v>179</v>
       </c>
       <c r="G113" t="n">
-        <v>-1102649.751426333</v>
+        <v>6.528999999999992</v>
       </c>
       <c r="H113" t="n">
         <v>1</v>
@@ -4847,6 +4963,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4868,7 +4985,7 @@
         <v>21414.3595</v>
       </c>
       <c r="G114" t="n">
-        <v>-1124064.110926333</v>
+        <v>6.526499999999992</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4888,6 +5005,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4909,7 +5027,7 @@
         <v>2561</v>
       </c>
       <c r="G115" t="n">
-        <v>-1126625.110926333</v>
+        <v>6.523499999999991</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4929,6 +5047,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4950,7 +5069,7 @@
         <v>20000</v>
       </c>
       <c r="G116" t="n">
-        <v>-1106625.110926333</v>
+        <v>6.523499999999991</v>
       </c>
       <c r="H116" t="n">
         <v>1</v>
@@ -4972,6 +5091,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4993,7 +5113,7 @@
         <v>2000</v>
       </c>
       <c r="G117" t="n">
-        <v>-1104625.110926333</v>
+        <v>6.526499999999992</v>
       </c>
       <c r="H117" t="n">
         <v>1</v>
@@ -5015,6 +5135,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5036,7 +5157,7 @@
         <v>86471.5275</v>
       </c>
       <c r="G118" t="n">
-        <v>-1191096.638426333</v>
+        <v>6.529999999999991</v>
       </c>
       <c r="H118" t="n">
         <v>1</v>
@@ -5058,6 +5179,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5079,7 +5201,7 @@
         <v>88994.93859999999</v>
       </c>
       <c r="G119" t="n">
-        <v>-1280091.577026333</v>
+        <v>6.529999999999991</v>
       </c>
       <c r="H119" t="n">
         <v>1</v>
@@ -5101,6 +5223,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5122,7 +5245,7 @@
         <v>418140.4434</v>
       </c>
       <c r="G120" t="n">
-        <v>-861951.1336263327</v>
+        <v>6.533499999999992</v>
       </c>
       <c r="H120" t="n">
         <v>1</v>
@@ -5144,6 +5267,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5165,7 +5289,7 @@
         <v>27634</v>
       </c>
       <c r="G121" t="n">
-        <v>-834317.1336263327</v>
+        <v>6.536499999999992</v>
       </c>
       <c r="H121" t="n">
         <v>1</v>
@@ -5187,6 +5311,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5208,7 +5333,7 @@
         <v>59775</v>
       </c>
       <c r="G122" t="n">
-        <v>-894092.1336263327</v>
+        <v>6.541999999999993</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5228,6 +5353,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5249,7 +5375,7 @@
         <v>198133</v>
       </c>
       <c r="G123" t="n">
-        <v>-695959.1336263327</v>
+        <v>6.548499999999993</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5269,6 +5395,7 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5290,7 +5417,7 @@
         <v>38506</v>
       </c>
       <c r="G124" t="n">
-        <v>-695959.1336263327</v>
+        <v>6.556499999999993</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5310,6 +5437,7 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5331,7 +5459,7 @@
         <v>146624.0596</v>
       </c>
       <c r="G125" t="n">
-        <v>-549335.0740263327</v>
+        <v>6.565999999999993</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5351,6 +5479,7 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5372,7 +5501,7 @@
         <v>20</v>
       </c>
       <c r="G126" t="n">
-        <v>-549355.0740263327</v>
+        <v>6.594499999999994</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5392,6 +5521,7 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5413,7 +5543,7 @@
         <v>1422.975</v>
       </c>
       <c r="G127" t="n">
-        <v>-547932.0990263327</v>
+        <v>6.600999999999994</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5432,6 +5562,9 @@
       </c>
       <c r="M127" t="n">
         <v>1.143867313915858</v>
+      </c>
+      <c r="N127" t="n">
+        <v>1.057755775577558</v>
       </c>
     </row>
     <row r="128">
@@ -5454,13 +5587,13 @@
         <v>62827</v>
       </c>
       <c r="G128" t="n">
-        <v>-610759.0990263327</v>
+        <v>6.607999999999994</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
@@ -5468,6 +5601,7 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5489,7 +5623,7 @@
         <v>10</v>
       </c>
       <c r="G129" t="n">
-        <v>-610749.0990263327</v>
+        <v>6.634999999999994</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5503,6 +5637,7 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5524,7 +5659,7 @@
         <v>69999.99980000001</v>
       </c>
       <c r="G130" t="n">
-        <v>-680749.0988263327</v>
+        <v>6.644499999999994</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5538,6 +5673,7 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5559,13 +5695,13 @@
         <v>10</v>
       </c>
       <c r="G131" t="n">
-        <v>-680739.0988263327</v>
+        <v>6.666999999999994</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
@@ -5573,6 +5709,7 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5594,7 +5731,7 @@
         <v>10934.0486</v>
       </c>
       <c r="G132" t="n">
-        <v>-680739.0988263327</v>
+        <v>6.687499999999995</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5608,6 +5745,7 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5629,7 +5767,7 @@
         <v>303947.7578</v>
       </c>
       <c r="G133" t="n">
-        <v>-984686.8566263327</v>
+        <v>6.691999999999993</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5643,6 +5781,7 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-29 BackTest IOST.xlsx
+++ b/BackTest/2019-10-29 BackTest IOST.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N133"/>
+  <dimension ref="A1:N162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6.41</v>
+        <v>6.52</v>
       </c>
       <c r="C2" t="n">
-        <v>6.41</v>
+        <v>6.52</v>
       </c>
       <c r="D2" t="n">
-        <v>6.41</v>
+        <v>6.52</v>
       </c>
       <c r="E2" t="n">
-        <v>6.41</v>
+        <v>6.52</v>
       </c>
       <c r="F2" t="n">
-        <v>3679</v>
+        <v>72533.76210000001</v>
       </c>
       <c r="G2" t="n">
-        <v>6.375999999999992</v>
+        <v>-845363.4607618152</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.4</v>
+        <v>6.51</v>
       </c>
       <c r="C3" t="n">
-        <v>6.4</v>
+        <v>6.51</v>
       </c>
       <c r="D3" t="n">
-        <v>6.4</v>
+        <v>6.51</v>
       </c>
       <c r="E3" t="n">
-        <v>6.4</v>
+        <v>6.51</v>
       </c>
       <c r="F3" t="n">
-        <v>500</v>
+        <v>9102.6304</v>
       </c>
       <c r="G3" t="n">
-        <v>6.376499999999992</v>
+        <v>-854466.0911618152</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6.4</v>
+        <v>6.51</v>
       </c>
       <c r="C4" t="n">
-        <v>6.28</v>
+        <v>6.51</v>
       </c>
       <c r="D4" t="n">
-        <v>6.4</v>
+        <v>6.51</v>
       </c>
       <c r="E4" t="n">
-        <v>6.28</v>
+        <v>6.51</v>
       </c>
       <c r="F4" t="n">
-        <v>1952</v>
+        <v>31163.8041</v>
       </c>
       <c r="G4" t="n">
-        <v>6.376999999999992</v>
+        <v>-854466.0911618152</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.28</v>
+        <v>6.45</v>
       </c>
       <c r="C5" t="n">
-        <v>6.28</v>
+        <v>6.4</v>
       </c>
       <c r="D5" t="n">
-        <v>6.28</v>
+        <v>6.45</v>
       </c>
       <c r="E5" t="n">
-        <v>6.28</v>
+        <v>6.4</v>
       </c>
       <c r="F5" t="n">
-        <v>3585</v>
+        <v>74265.1499</v>
       </c>
       <c r="G5" t="n">
-        <v>6.373999999999991</v>
+        <v>-928731.2410618152</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6.28</v>
+        <v>6.44</v>
       </c>
       <c r="C6" t="n">
-        <v>6.25</v>
+        <v>6.44</v>
       </c>
       <c r="D6" t="n">
-        <v>6.28</v>
+        <v>6.44</v>
       </c>
       <c r="E6" t="n">
-        <v>6.25</v>
+        <v>6.44</v>
       </c>
       <c r="F6" t="n">
-        <v>16838.5</v>
+        <v>500</v>
       </c>
       <c r="G6" t="n">
-        <v>6.371499999999991</v>
+        <v>-928231.2410618152</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6.25</v>
+        <v>6.46</v>
       </c>
       <c r="C7" t="n">
-        <v>6.21</v>
+        <v>6.46</v>
       </c>
       <c r="D7" t="n">
-        <v>6.25</v>
+        <v>6.46</v>
       </c>
       <c r="E7" t="n">
-        <v>6.21</v>
+        <v>6.46</v>
       </c>
       <c r="F7" t="n">
-        <v>12004</v>
+        <v>300</v>
       </c>
       <c r="G7" t="n">
-        <v>6.366999999999992</v>
+        <v>-927931.2410618152</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6.25</v>
+        <v>6.41</v>
       </c>
       <c r="C8" t="n">
-        <v>6.25</v>
+        <v>6.4</v>
       </c>
       <c r="D8" t="n">
-        <v>6.25</v>
+        <v>6.41</v>
       </c>
       <c r="E8" t="n">
-        <v>6.25</v>
+        <v>6.4</v>
       </c>
       <c r="F8" t="n">
-        <v>6046.7569</v>
+        <v>74200</v>
       </c>
       <c r="G8" t="n">
-        <v>6.362999999999992</v>
+        <v>-1002131.241061815</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6.26</v>
+        <v>6.45</v>
       </c>
       <c r="C9" t="n">
-        <v>6.26</v>
+        <v>6.45</v>
       </c>
       <c r="D9" t="n">
-        <v>6.26</v>
+        <v>6.45</v>
       </c>
       <c r="E9" t="n">
-        <v>6.26</v>
+        <v>6.45</v>
       </c>
       <c r="F9" t="n">
-        <v>400</v>
+        <v>4828.7971</v>
       </c>
       <c r="G9" t="n">
-        <v>6.359499999999992</v>
+        <v>-997302.4439618152</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6.26</v>
+        <v>6.43</v>
       </c>
       <c r="C10" t="n">
-        <v>6.26</v>
+        <v>6.43</v>
       </c>
       <c r="D10" t="n">
-        <v>6.26</v>
+        <v>6.43</v>
       </c>
       <c r="E10" t="n">
-        <v>6.26</v>
+        <v>6.43</v>
       </c>
       <c r="F10" t="n">
-        <v>63281.492</v>
+        <v>75000</v>
       </c>
       <c r="G10" t="n">
-        <v>6.355999999999993</v>
+        <v>-1072302.443961815</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6.27</v>
+        <v>6.4</v>
       </c>
       <c r="C11" t="n">
-        <v>6.27</v>
+        <v>6.4</v>
       </c>
       <c r="D11" t="n">
-        <v>6.27</v>
+        <v>6.4</v>
       </c>
       <c r="E11" t="n">
-        <v>6.27</v>
+        <v>6.4</v>
       </c>
       <c r="F11" t="n">
-        <v>74984</v>
+        <v>74925.1136</v>
       </c>
       <c r="G11" t="n">
-        <v>6.352999999999993</v>
+        <v>-1147227.557561815</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6.29</v>
+        <v>6.39</v>
       </c>
       <c r="C12" t="n">
-        <v>6.29</v>
+        <v>6.39</v>
       </c>
       <c r="D12" t="n">
-        <v>6.29</v>
+        <v>6.39</v>
       </c>
       <c r="E12" t="n">
-        <v>6.29</v>
+        <v>6.39</v>
       </c>
       <c r="F12" t="n">
-        <v>8159.1827</v>
+        <v>89137.14169999999</v>
       </c>
       <c r="G12" t="n">
-        <v>6.350999999999993</v>
+        <v>-1236364.699261815</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6.29</v>
+        <v>6.39</v>
       </c>
       <c r="C13" t="n">
-        <v>6.29</v>
+        <v>6.38</v>
       </c>
       <c r="D13" t="n">
-        <v>6.29</v>
+        <v>6.39</v>
       </c>
       <c r="E13" t="n">
-        <v>6.29</v>
+        <v>6.38</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3789</v>
+        <v>40195.1414</v>
       </c>
       <c r="G13" t="n">
-        <v>6.350499999999993</v>
+        <v>-1276559.840661815</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6.3</v>
+        <v>6.34</v>
       </c>
       <c r="C14" t="n">
-        <v>6.3</v>
+        <v>6.34</v>
       </c>
       <c r="D14" t="n">
-        <v>6.3</v>
+        <v>6.34</v>
       </c>
       <c r="E14" t="n">
-        <v>6.3</v>
+        <v>6.34</v>
       </c>
       <c r="F14" t="n">
-        <v>25624.8701</v>
+        <v>19380</v>
       </c>
       <c r="G14" t="n">
-        <v>6.342999999999993</v>
+        <v>-1295939.840661815</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6.3</v>
+        <v>6.33</v>
       </c>
       <c r="C15" t="n">
-        <v>6.3</v>
+        <v>6.33</v>
       </c>
       <c r="D15" t="n">
-        <v>6.3</v>
+        <v>6.33</v>
       </c>
       <c r="E15" t="n">
-        <v>6.3</v>
+        <v>6.33</v>
       </c>
       <c r="F15" t="n">
-        <v>71935.5996</v>
+        <v>143907.8456</v>
       </c>
       <c r="G15" t="n">
-        <v>6.336999999999993</v>
+        <v>-1439847.686261815</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6.3</v>
+        <v>6.34</v>
       </c>
       <c r="C16" t="n">
-        <v>6.3</v>
+        <v>6.33</v>
       </c>
       <c r="D16" t="n">
-        <v>6.3</v>
+        <v>6.34</v>
       </c>
       <c r="E16" t="n">
-        <v>6.3</v>
+        <v>6.33</v>
       </c>
       <c r="F16" t="n">
-        <v>100</v>
+        <v>39748.1716</v>
       </c>
       <c r="G16" t="n">
-        <v>6.330999999999992</v>
+        <v>-1439847.686261815</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6.29</v>
+        <v>6.33</v>
       </c>
       <c r="C17" t="n">
-        <v>6.29</v>
+        <v>6.33</v>
       </c>
       <c r="D17" t="n">
-        <v>6.29</v>
+        <v>6.33</v>
       </c>
       <c r="E17" t="n">
-        <v>6.29</v>
+        <v>6.33</v>
       </c>
       <c r="F17" t="n">
-        <v>15584.6211</v>
+        <v>18522.4698</v>
       </c>
       <c r="G17" t="n">
-        <v>6.324499999999992</v>
+        <v>-1439847.686261815</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6.23</v>
+        <v>6.33</v>
       </c>
       <c r="C18" t="n">
-        <v>6.2</v>
+        <v>6.33</v>
       </c>
       <c r="D18" t="n">
-        <v>6.23</v>
+        <v>6.33</v>
       </c>
       <c r="E18" t="n">
-        <v>6.2</v>
+        <v>6.33</v>
       </c>
       <c r="F18" t="n">
-        <v>156664.5312</v>
+        <v>9819.2942</v>
       </c>
       <c r="G18" t="n">
-        <v>6.314999999999992</v>
+        <v>-1439847.686261815</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6.2</v>
+        <v>6.33</v>
       </c>
       <c r="C19" t="n">
-        <v>6.15</v>
+        <v>6.33</v>
       </c>
       <c r="D19" t="n">
-        <v>6.2</v>
+        <v>6.33</v>
       </c>
       <c r="E19" t="n">
-        <v>6.15</v>
+        <v>6.33</v>
       </c>
       <c r="F19" t="n">
-        <v>79280.43829999999</v>
+        <v>14609</v>
       </c>
       <c r="G19" t="n">
-        <v>6.303999999999993</v>
+        <v>-1439847.686261815</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6.1</v>
+        <v>6.33</v>
       </c>
       <c r="C20" t="n">
-        <v>6.08</v>
+        <v>6.33</v>
       </c>
       <c r="D20" t="n">
-        <v>6.1</v>
+        <v>6.33</v>
       </c>
       <c r="E20" t="n">
-        <v>6.08</v>
+        <v>6.33</v>
       </c>
       <c r="F20" t="n">
-        <v>109001.9999</v>
+        <v>119187.0025</v>
       </c>
       <c r="G20" t="n">
-        <v>6.288499999999994</v>
+        <v>-1439847.686261815</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6.09</v>
+        <v>6.33</v>
       </c>
       <c r="C21" t="n">
-        <v>6.08</v>
+        <v>6.3</v>
       </c>
       <c r="D21" t="n">
-        <v>6.09</v>
+        <v>6.33</v>
       </c>
       <c r="E21" t="n">
-        <v>6.08</v>
+        <v>6.3</v>
       </c>
       <c r="F21" t="n">
-        <v>39664.3124</v>
+        <v>27820</v>
       </c>
       <c r="G21" t="n">
-        <v>6.272499999999994</v>
+        <v>-1467667.686261815</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>6.13</v>
+        <v>6.3</v>
       </c>
       <c r="C22" t="n">
-        <v>6.13</v>
+        <v>6.3</v>
       </c>
       <c r="D22" t="n">
-        <v>6.13</v>
+        <v>6.3</v>
       </c>
       <c r="E22" t="n">
-        <v>6.13</v>
+        <v>6.3</v>
       </c>
       <c r="F22" t="n">
-        <v>3984</v>
+        <v>12036</v>
       </c>
       <c r="G22" t="n">
-        <v>6.258499999999994</v>
+        <v>-1467667.686261815</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>6.18</v>
+        <v>6.45</v>
       </c>
       <c r="C23" t="n">
-        <v>6.18</v>
+        <v>6.45</v>
       </c>
       <c r="D23" t="n">
-        <v>6.18</v>
+        <v>6.45</v>
       </c>
       <c r="E23" t="n">
-        <v>6.1</v>
+        <v>6.45</v>
       </c>
       <c r="F23" t="n">
-        <v>70797.7717</v>
+        <v>10</v>
       </c>
       <c r="G23" t="n">
-        <v>6.247499999999993</v>
+        <v>-1467657.686261815</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>6.18</v>
+        <v>6.42</v>
       </c>
       <c r="C24" t="n">
-        <v>6.18</v>
+        <v>6.42</v>
       </c>
       <c r="D24" t="n">
-        <v>6.18</v>
+        <v>6.42</v>
       </c>
       <c r="E24" t="n">
-        <v>6.18</v>
+        <v>6.42</v>
       </c>
       <c r="F24" t="n">
-        <v>8263.2556</v>
+        <v>4089</v>
       </c>
       <c r="G24" t="n">
-        <v>6.236499999999994</v>
+        <v>-1471746.686261815</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>6.16</v>
+        <v>6.42</v>
       </c>
       <c r="C25" t="n">
-        <v>6.16</v>
+        <v>6.42</v>
       </c>
       <c r="D25" t="n">
-        <v>6.16</v>
+        <v>6.42</v>
       </c>
       <c r="E25" t="n">
-        <v>6.16</v>
+        <v>6.42</v>
       </c>
       <c r="F25" t="n">
-        <v>8923</v>
+        <v>4556</v>
       </c>
       <c r="G25" t="n">
-        <v>6.230499999999994</v>
+        <v>-1471746.686261815</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>6.18</v>
+        <v>6.42</v>
       </c>
       <c r="C26" t="n">
-        <v>6.18</v>
+        <v>6.42</v>
       </c>
       <c r="D26" t="n">
-        <v>6.18</v>
+        <v>6.42</v>
       </c>
       <c r="E26" t="n">
-        <v>6.18</v>
+        <v>6.42</v>
       </c>
       <c r="F26" t="n">
-        <v>31895.996</v>
+        <v>722</v>
       </c>
       <c r="G26" t="n">
-        <v>6.225499999999994</v>
+        <v>-1471746.686261815</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>6.18</v>
+        <v>6.42</v>
       </c>
       <c r="C27" t="n">
-        <v>6.18</v>
+        <v>6.42</v>
       </c>
       <c r="D27" t="n">
-        <v>6.18</v>
+        <v>6.42</v>
       </c>
       <c r="E27" t="n">
-        <v>6.18</v>
+        <v>6.42</v>
       </c>
       <c r="F27" t="n">
-        <v>52517</v>
+        <v>18492</v>
       </c>
       <c r="G27" t="n">
-        <v>6.221999999999994</v>
+        <v>-1471746.686261815</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1374,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>6.18</v>
+        <v>6.42</v>
       </c>
       <c r="C28" t="n">
-        <v>6.14</v>
+        <v>6.42</v>
       </c>
       <c r="D28" t="n">
-        <v>6.18</v>
+        <v>6.42</v>
       </c>
       <c r="E28" t="n">
-        <v>6.14</v>
+        <v>6.42</v>
       </c>
       <c r="F28" t="n">
-        <v>34777.8866</v>
+        <v>18868</v>
       </c>
       <c r="G28" t="n">
-        <v>6.218499999999994</v>
+        <v>-1471746.686261815</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>6.14</v>
+        <v>6.41</v>
       </c>
       <c r="C29" t="n">
-        <v>6.14</v>
+        <v>6.27</v>
       </c>
       <c r="D29" t="n">
-        <v>6.14</v>
+        <v>6.41</v>
       </c>
       <c r="E29" t="n">
-        <v>6.14</v>
+        <v>6.27</v>
       </c>
       <c r="F29" t="n">
-        <v>50185</v>
+        <v>20</v>
       </c>
       <c r="G29" t="n">
-        <v>6.212499999999993</v>
+        <v>-1471766.686261815</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>6.1</v>
+        <v>6.41</v>
       </c>
       <c r="C30" t="n">
-        <v>6.1</v>
+        <v>6.41</v>
       </c>
       <c r="D30" t="n">
-        <v>6.1</v>
+        <v>6.41</v>
       </c>
       <c r="E30" t="n">
-        <v>6.1</v>
+        <v>6.41</v>
       </c>
       <c r="F30" t="n">
-        <v>4324</v>
+        <v>1000</v>
       </c>
       <c r="G30" t="n">
-        <v>6.204499999999994</v>
+        <v>-1470766.686261815</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>6.1</v>
+        <v>6.41</v>
       </c>
       <c r="C31" t="n">
-        <v>6.06</v>
+        <v>6.41</v>
       </c>
       <c r="D31" t="n">
-        <v>6.1</v>
+        <v>6.41</v>
       </c>
       <c r="E31" t="n">
-        <v>6.06</v>
+        <v>6.41</v>
       </c>
       <c r="F31" t="n">
-        <v>25418.9246</v>
+        <v>3679</v>
       </c>
       <c r="G31" t="n">
-        <v>6.195999999999994</v>
+        <v>-1470766.686261815</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>6.06</v>
+        <v>6.4</v>
       </c>
       <c r="C32" t="n">
-        <v>6.06</v>
+        <v>6.4</v>
       </c>
       <c r="D32" t="n">
-        <v>6.06</v>
+        <v>6.4</v>
       </c>
       <c r="E32" t="n">
-        <v>6.06</v>
+        <v>6.4</v>
       </c>
       <c r="F32" t="n">
-        <v>128107.5107</v>
+        <v>500</v>
       </c>
       <c r="G32" t="n">
-        <v>6.184499999999994</v>
+        <v>-1471266.686261815</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1554,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>6.06</v>
+        <v>6.4</v>
       </c>
       <c r="C33" t="n">
-        <v>6.1</v>
+        <v>6.28</v>
       </c>
       <c r="D33" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="E33" t="n">
-        <v>6.06</v>
+        <v>6.28</v>
       </c>
       <c r="F33" t="n">
-        <v>50023.5241</v>
+        <v>1952</v>
       </c>
       <c r="G33" t="n">
-        <v>6.172999999999993</v>
+        <v>-1473218.686261815</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1590,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>6.1</v>
+        <v>6.28</v>
       </c>
       <c r="C34" t="n">
-        <v>6.1</v>
+        <v>6.28</v>
       </c>
       <c r="D34" t="n">
-        <v>6.1</v>
+        <v>6.28</v>
       </c>
       <c r="E34" t="n">
-        <v>6.1</v>
+        <v>6.28</v>
       </c>
       <c r="F34" t="n">
-        <v>129658.9789</v>
+        <v>3585</v>
       </c>
       <c r="G34" t="n">
-        <v>6.162999999999993</v>
+        <v>-1473218.686261815</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>6.1</v>
+        <v>6.28</v>
       </c>
       <c r="C35" t="n">
-        <v>6.18</v>
+        <v>6.25</v>
       </c>
       <c r="D35" t="n">
-        <v>6.18</v>
+        <v>6.28</v>
       </c>
       <c r="E35" t="n">
-        <v>6.1</v>
+        <v>6.25</v>
       </c>
       <c r="F35" t="n">
-        <v>55569.3796</v>
+        <v>16838.5</v>
       </c>
       <c r="G35" t="n">
-        <v>6.152999999999993</v>
+        <v>-1490057.186261815</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1662,35 +1662,31 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>6.06</v>
+        <v>6.25</v>
       </c>
       <c r="C36" t="n">
-        <v>6.06</v>
+        <v>6.21</v>
       </c>
       <c r="D36" t="n">
-        <v>6.06</v>
+        <v>6.25</v>
       </c>
       <c r="E36" t="n">
-        <v>6.06</v>
+        <v>6.21</v>
       </c>
       <c r="F36" t="n">
-        <v>100</v>
+        <v>12004</v>
       </c>
       <c r="G36" t="n">
-        <v>6.140999999999993</v>
+        <v>-1502061.186261815</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K36" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
@@ -1702,40 +1698,32 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>6.13</v>
+        <v>6.25</v>
       </c>
       <c r="C37" t="n">
-        <v>6.14</v>
+        <v>6.25</v>
       </c>
       <c r="D37" t="n">
-        <v>6.14</v>
+        <v>6.25</v>
       </c>
       <c r="E37" t="n">
-        <v>6.13</v>
+        <v>6.25</v>
       </c>
       <c r="F37" t="n">
-        <v>3000</v>
+        <v>6046.7569</v>
       </c>
       <c r="G37" t="n">
-        <v>6.132999999999994</v>
+        <v>-1496014.429361816</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K37" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1746,40 +1734,32 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>6.14</v>
+        <v>6.26</v>
       </c>
       <c r="C38" t="n">
-        <v>6.14</v>
+        <v>6.26</v>
       </c>
       <c r="D38" t="n">
-        <v>6.14</v>
+        <v>6.26</v>
       </c>
       <c r="E38" t="n">
-        <v>6.14</v>
+        <v>6.26</v>
       </c>
       <c r="F38" t="n">
-        <v>47326.472</v>
+        <v>400</v>
       </c>
       <c r="G38" t="n">
-        <v>6.128499999999994</v>
+        <v>-1495614.429361816</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="K38" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1790,40 +1770,32 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>6.18</v>
+        <v>6.26</v>
       </c>
       <c r="C39" t="n">
-        <v>6.18</v>
+        <v>6.26</v>
       </c>
       <c r="D39" t="n">
-        <v>6.18</v>
+        <v>6.26</v>
       </c>
       <c r="E39" t="n">
-        <v>6.18</v>
+        <v>6.26</v>
       </c>
       <c r="F39" t="n">
-        <v>2000</v>
+        <v>63281.492</v>
       </c>
       <c r="G39" t="n">
-        <v>6.127499999999992</v>
+        <v>-1495614.429361816</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="K39" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1834,40 +1806,32 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>6.18</v>
+        <v>6.27</v>
       </c>
       <c r="C40" t="n">
-        <v>6.18</v>
+        <v>6.27</v>
       </c>
       <c r="D40" t="n">
-        <v>6.18</v>
+        <v>6.27</v>
       </c>
       <c r="E40" t="n">
-        <v>6.18</v>
+        <v>6.27</v>
       </c>
       <c r="F40" t="n">
-        <v>7145.53</v>
+        <v>74984</v>
       </c>
       <c r="G40" t="n">
-        <v>6.131499999999993</v>
+        <v>-1420630.429361816</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K40" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1878,40 +1842,32 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>6.18</v>
+        <v>6.29</v>
       </c>
       <c r="C41" t="n">
-        <v>6.18</v>
+        <v>6.29</v>
       </c>
       <c r="D41" t="n">
-        <v>6.18</v>
+        <v>6.29</v>
       </c>
       <c r="E41" t="n">
-        <v>6.18</v>
+        <v>6.29</v>
       </c>
       <c r="F41" t="n">
-        <v>50</v>
+        <v>8159.1827</v>
       </c>
       <c r="G41" t="n">
-        <v>6.135999999999993</v>
+        <v>-1412471.246661816</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K41" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1922,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>6.19</v>
+        <v>6.29</v>
       </c>
       <c r="C42" t="n">
-        <v>6.2</v>
+        <v>6.29</v>
       </c>
       <c r="D42" t="n">
-        <v>6.2</v>
+        <v>6.29</v>
       </c>
       <c r="E42" t="n">
-        <v>6.19</v>
+        <v>6.29</v>
       </c>
       <c r="F42" t="n">
-        <v>410.241935483871</v>
+        <v>265.3789</v>
       </c>
       <c r="G42" t="n">
-        <v>6.138999999999993</v>
+        <v>-1412471.246661816</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1946,14 +1902,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1964,40 +1914,32 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>6.19</v>
+        <v>6.3</v>
       </c>
       <c r="C43" t="n">
-        <v>6.19</v>
+        <v>6.3</v>
       </c>
       <c r="D43" t="n">
-        <v>6.19</v>
+        <v>6.3</v>
       </c>
       <c r="E43" t="n">
-        <v>6.19</v>
+        <v>6.3</v>
       </c>
       <c r="F43" t="n">
-        <v>5000</v>
+        <v>25624.8701</v>
       </c>
       <c r="G43" t="n">
-        <v>6.139499999999993</v>
+        <v>-1386846.376561816</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="K43" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2008,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>6.19</v>
+        <v>6.3</v>
       </c>
       <c r="C44" t="n">
-        <v>6.19</v>
+        <v>6.3</v>
       </c>
       <c r="D44" t="n">
-        <v>6.19</v>
+        <v>6.3</v>
       </c>
       <c r="E44" t="n">
-        <v>6.19</v>
+        <v>6.3</v>
       </c>
       <c r="F44" t="n">
-        <v>18000</v>
+        <v>71935.5996</v>
       </c>
       <c r="G44" t="n">
-        <v>6.139999999999992</v>
+        <v>-1386846.376561816</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2032,14 +1974,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2050,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>6.18</v>
+        <v>6.3</v>
       </c>
       <c r="C45" t="n">
-        <v>6.18</v>
+        <v>6.3</v>
       </c>
       <c r="D45" t="n">
-        <v>6.18</v>
+        <v>6.3</v>
       </c>
       <c r="E45" t="n">
-        <v>6.18</v>
+        <v>6.3</v>
       </c>
       <c r="F45" t="n">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="G45" t="n">
-        <v>6.140999999999993</v>
+        <v>-1386846.376561816</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2074,14 +2010,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2092,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>6.19</v>
+        <v>6.29</v>
       </c>
       <c r="C46" t="n">
-        <v>6.18</v>
+        <v>6.29</v>
       </c>
       <c r="D46" t="n">
-        <v>6.19</v>
+        <v>6.29</v>
       </c>
       <c r="E46" t="n">
-        <v>6.18</v>
+        <v>6.29</v>
       </c>
       <c r="F46" t="n">
-        <v>19971.0962</v>
+        <v>15584.6211</v>
       </c>
       <c r="G46" t="n">
-        <v>6.141499999999992</v>
+        <v>-1402430.997661816</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2116,14 +2046,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2134,40 +2058,32 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>6.12</v>
+        <v>6.23</v>
       </c>
       <c r="C47" t="n">
-        <v>6.19</v>
+        <v>6.2</v>
       </c>
       <c r="D47" t="n">
-        <v>6.19</v>
+        <v>6.23</v>
       </c>
       <c r="E47" t="n">
-        <v>6.12</v>
+        <v>6.2</v>
       </c>
       <c r="F47" t="n">
-        <v>205000</v>
+        <v>156664.5312</v>
       </c>
       <c r="G47" t="n">
-        <v>6.138499999999992</v>
+        <v>-1559095.528861816</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K47" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2178,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>6.19</v>
+        <v>6.2</v>
       </c>
       <c r="C48" t="n">
-        <v>6.19</v>
+        <v>6.15</v>
       </c>
       <c r="D48" t="n">
-        <v>6.19</v>
+        <v>6.2</v>
       </c>
       <c r="E48" t="n">
-        <v>6.19</v>
+        <v>6.15</v>
       </c>
       <c r="F48" t="n">
-        <v>15000</v>
+        <v>79280.43829999999</v>
       </c>
       <c r="G48" t="n">
-        <v>6.138999999999991</v>
+        <v>-1638375.967161816</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2202,14 +2118,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2220,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>6.14</v>
+        <v>6.1</v>
       </c>
       <c r="C49" t="n">
-        <v>6.19</v>
+        <v>6.08</v>
       </c>
       <c r="D49" t="n">
-        <v>6.19</v>
+        <v>6.1</v>
       </c>
       <c r="E49" t="n">
-        <v>6.13</v>
+        <v>6.08</v>
       </c>
       <c r="F49" t="n">
-        <v>150802.0385</v>
+        <v>109001.9999</v>
       </c>
       <c r="G49" t="n">
-        <v>6.13899999999999</v>
+        <v>-1747377.967061816</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2244,14 +2154,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2262,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>6.14</v>
+        <v>6.09</v>
       </c>
       <c r="C50" t="n">
-        <v>6.19</v>
+        <v>6.08</v>
       </c>
       <c r="D50" t="n">
-        <v>6.19</v>
+        <v>6.09</v>
       </c>
       <c r="E50" t="n">
-        <v>6.14</v>
+        <v>6.08</v>
       </c>
       <c r="F50" t="n">
-        <v>61556.0344</v>
+        <v>39664.3124</v>
       </c>
       <c r="G50" t="n">
-        <v>6.140999999999991</v>
+        <v>-1747377.967061816</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2286,14 +2190,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2304,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>6.19</v>
+        <v>6.13</v>
       </c>
       <c r="C51" t="n">
-        <v>6.5</v>
+        <v>6.13</v>
       </c>
       <c r="D51" t="n">
-        <v>6.5</v>
+        <v>6.13</v>
       </c>
       <c r="E51" t="n">
-        <v>6.19</v>
+        <v>6.13</v>
       </c>
       <c r="F51" t="n">
-        <v>104470.6926</v>
+        <v>3984</v>
       </c>
       <c r="G51" t="n">
-        <v>6.145499999999991</v>
+        <v>-1743393.967061816</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2328,14 +2226,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2346,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>6.23</v>
+        <v>6.18</v>
       </c>
       <c r="C52" t="n">
-        <v>6.23</v>
+        <v>6.18</v>
       </c>
       <c r="D52" t="n">
-        <v>6.23</v>
+        <v>6.18</v>
       </c>
       <c r="E52" t="n">
-        <v>6.23</v>
+        <v>6.1</v>
       </c>
       <c r="F52" t="n">
-        <v>7159.2295</v>
+        <v>70797.7717</v>
       </c>
       <c r="G52" t="n">
-        <v>6.153999999999991</v>
+        <v>-1672596.195361816</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2370,14 +2262,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2388,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>6.23</v>
+        <v>6.18</v>
       </c>
       <c r="C53" t="n">
-        <v>6.23</v>
+        <v>6.18</v>
       </c>
       <c r="D53" t="n">
-        <v>6.23</v>
+        <v>6.18</v>
       </c>
       <c r="E53" t="n">
-        <v>6.23</v>
+        <v>6.18</v>
       </c>
       <c r="F53" t="n">
-        <v>60710.502</v>
+        <v>8263.2556</v>
       </c>
       <c r="G53" t="n">
-        <v>6.16249999999999</v>
+        <v>-1672596.195361816</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2412,14 +2298,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2442,10 +2322,10 @@
         <v>6.16</v>
       </c>
       <c r="F54" t="n">
-        <v>10895.2304</v>
+        <v>8923</v>
       </c>
       <c r="G54" t="n">
-        <v>6.16549999999999</v>
+        <v>-1681519.195361816</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2454,14 +2334,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2472,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>6.23</v>
+        <v>6.18</v>
       </c>
       <c r="C55" t="n">
-        <v>6.23</v>
+        <v>6.18</v>
       </c>
       <c r="D55" t="n">
-        <v>6.23</v>
+        <v>6.18</v>
       </c>
       <c r="E55" t="n">
-        <v>6.23</v>
+        <v>6.18</v>
       </c>
       <c r="F55" t="n">
-        <v>61.3162</v>
+        <v>31895.996</v>
       </c>
       <c r="G55" t="n">
-        <v>6.17199999999999</v>
+        <v>-1649623.199361816</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2496,14 +2370,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2514,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>6.23</v>
+        <v>6.18</v>
       </c>
       <c r="C56" t="n">
-        <v>6.29</v>
+        <v>6.18</v>
       </c>
       <c r="D56" t="n">
-        <v>6.49</v>
+        <v>6.18</v>
       </c>
       <c r="E56" t="n">
-        <v>6.19</v>
+        <v>6.18</v>
       </c>
       <c r="F56" t="n">
-        <v>14610.1919</v>
+        <v>52517</v>
       </c>
       <c r="G56" t="n">
-        <v>6.18049999999999</v>
+        <v>-1649623.199361816</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2538,14 +2406,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2556,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>6.2</v>
+        <v>6.18</v>
       </c>
       <c r="C57" t="n">
-        <v>6.2</v>
+        <v>6.14</v>
       </c>
       <c r="D57" t="n">
-        <v>6.2</v>
+        <v>6.18</v>
       </c>
       <c r="E57" t="n">
-        <v>6.2</v>
+        <v>6.14</v>
       </c>
       <c r="F57" t="n">
-        <v>32967.9032</v>
+        <v>34777.8866</v>
       </c>
       <c r="G57" t="n">
-        <v>6.183999999999989</v>
+        <v>-1684401.085961816</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2580,14 +2442,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2598,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>6.22</v>
+        <v>6.14</v>
       </c>
       <c r="C58" t="n">
-        <v>6.24</v>
+        <v>6.14</v>
       </c>
       <c r="D58" t="n">
-        <v>6.24</v>
+        <v>6.14</v>
       </c>
       <c r="E58" t="n">
-        <v>6.22</v>
+        <v>6.14</v>
       </c>
       <c r="F58" t="n">
-        <v>72588.35159999999</v>
+        <v>50185</v>
       </c>
       <c r="G58" t="n">
-        <v>6.187999999999989</v>
+        <v>-1684401.085961816</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2622,14 +2478,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2640,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>6.21</v>
+        <v>6.1</v>
       </c>
       <c r="C59" t="n">
-        <v>6.21</v>
+        <v>6.1</v>
       </c>
       <c r="D59" t="n">
-        <v>6.21</v>
+        <v>6.1</v>
       </c>
       <c r="E59" t="n">
-        <v>6.21</v>
+        <v>6.1</v>
       </c>
       <c r="F59" t="n">
-        <v>4915.7624</v>
+        <v>4324</v>
       </c>
       <c r="G59" t="n">
-        <v>6.189499999999988</v>
+        <v>-1688725.085961816</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2664,14 +2514,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2682,36 +2526,36 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>6.21</v>
+        <v>6.1</v>
       </c>
       <c r="C60" t="n">
-        <v>6.21</v>
+        <v>6.06</v>
       </c>
       <c r="D60" t="n">
-        <v>6.21</v>
+        <v>6.1</v>
       </c>
       <c r="E60" t="n">
-        <v>6.21</v>
+        <v>6.06</v>
       </c>
       <c r="F60" t="n">
-        <v>14694.7034</v>
+        <v>25418.9246</v>
       </c>
       <c r="G60" t="n">
-        <v>6.190999999999988</v>
+        <v>-1714144.010561816</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J60" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M60" t="n">
@@ -2724,33 +2568,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>6.21</v>
+        <v>6.06</v>
       </c>
       <c r="C61" t="n">
-        <v>6.21</v>
+        <v>6.06</v>
       </c>
       <c r="D61" t="n">
-        <v>6.21</v>
+        <v>6.06</v>
       </c>
       <c r="E61" t="n">
-        <v>6.21</v>
+        <v>6.06</v>
       </c>
       <c r="F61" t="n">
-        <v>6558.3004</v>
+        <v>128107.5107</v>
       </c>
       <c r="G61" t="n">
-        <v>6.192499999999988</v>
+        <v>-1714144.010561816</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J61" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2766,33 +2610,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>6.21</v>
+        <v>6.06</v>
       </c>
       <c r="C62" t="n">
-        <v>6.21</v>
+        <v>6.1</v>
       </c>
       <c r="D62" t="n">
-        <v>6.21</v>
+        <v>6.1</v>
       </c>
       <c r="E62" t="n">
-        <v>6.21</v>
+        <v>6.06</v>
       </c>
       <c r="F62" t="n">
-        <v>3018.231</v>
+        <v>50023.5241</v>
       </c>
       <c r="G62" t="n">
-        <v>6.193499999999989</v>
+        <v>-1664120.486461816</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J62" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2808,33 +2652,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>6.21</v>
+        <v>6.1</v>
       </c>
       <c r="C63" t="n">
-        <v>6.21</v>
+        <v>6.1</v>
       </c>
       <c r="D63" t="n">
-        <v>6.21</v>
+        <v>6.1</v>
       </c>
       <c r="E63" t="n">
-        <v>6.21</v>
+        <v>6.1</v>
       </c>
       <c r="F63" t="n">
-        <v>12972.5429</v>
+        <v>129658.9789</v>
       </c>
       <c r="G63" t="n">
-        <v>6.194499999999989</v>
+        <v>-1664120.486461816</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J63" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2850,33 +2694,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>6.21</v>
+        <v>6.1</v>
       </c>
       <c r="C64" t="n">
-        <v>6.2</v>
+        <v>6.18</v>
       </c>
       <c r="D64" t="n">
-        <v>6.21</v>
+        <v>6.18</v>
       </c>
       <c r="E64" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="F64" t="n">
-        <v>101027.9512</v>
+        <v>55569.3796</v>
       </c>
       <c r="G64" t="n">
-        <v>6.19549999999999</v>
+        <v>-1608551.106861816</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J64" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2892,33 +2736,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="C65" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="D65" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="E65" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="F65" t="n">
+        <v>100</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-1608651.106861816</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
         <v>6.18</v>
       </c>
-      <c r="C65" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="D65" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="E65" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="F65" t="n">
-        <v>77000</v>
-      </c>
-      <c r="G65" t="n">
-        <v>6.19549999999999</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2934,7 +2778,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>6.14</v>
+        <v>6.13</v>
       </c>
       <c r="C66" t="n">
         <v>6.14</v>
@@ -2943,24 +2787,24 @@
         <v>6.14</v>
       </c>
       <c r="E66" t="n">
-        <v>6.14</v>
+        <v>6.13</v>
       </c>
       <c r="F66" t="n">
-        <v>273.9344</v>
+        <v>3000</v>
       </c>
       <c r="G66" t="n">
-        <v>6.192999999999989</v>
+        <v>-1605651.106861816</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J66" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2976,33 +2820,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>6.23</v>
+        <v>6.14</v>
       </c>
       <c r="C67" t="n">
-        <v>6.26</v>
+        <v>6.14</v>
       </c>
       <c r="D67" t="n">
-        <v>6.26</v>
+        <v>6.14</v>
       </c>
       <c r="E67" t="n">
-        <v>6.23</v>
+        <v>6.14</v>
       </c>
       <c r="F67" t="n">
-        <v>8206.6669</v>
+        <v>47326.472</v>
       </c>
       <c r="G67" t="n">
-        <v>6.198499999999989</v>
+        <v>-1605651.106861816</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J67" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3018,33 +2862,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>6.17</v>
+        <v>6.18</v>
       </c>
       <c r="C68" t="n">
-        <v>6.24</v>
+        <v>6.18</v>
       </c>
       <c r="D68" t="n">
-        <v>6.24</v>
+        <v>6.18</v>
       </c>
       <c r="E68" t="n">
-        <v>6.17</v>
+        <v>6.18</v>
       </c>
       <c r="F68" t="n">
-        <v>17699</v>
+        <v>2000</v>
       </c>
       <c r="G68" t="n">
-        <v>6.197499999999988</v>
+        <v>-1603651.106861816</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J68" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3060,33 +2904,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>6.17</v>
+        <v>6.18</v>
       </c>
       <c r="C69" t="n">
-        <v>6.23</v>
+        <v>6.18</v>
       </c>
       <c r="D69" t="n">
-        <v>6.23</v>
+        <v>6.18</v>
       </c>
       <c r="E69" t="n">
-        <v>6.17</v>
+        <v>6.18</v>
       </c>
       <c r="F69" t="n">
-        <v>1718</v>
+        <v>7145.53</v>
       </c>
       <c r="G69" t="n">
-        <v>6.198999999999987</v>
+        <v>-1603651.106861816</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
+      <c r="J69" t="n">
         <v>6.18</v>
       </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3114,21 +2958,21 @@
         <v>6.18</v>
       </c>
       <c r="F70" t="n">
-        <v>481.7741</v>
+        <v>50</v>
       </c>
       <c r="G70" t="n">
-        <v>6.200999999999987</v>
+        <v>-1603651.106861816</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
+      <c r="J70" t="n">
         <v>6.18</v>
       </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3144,33 +2988,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="C71" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="D71" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="E71" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="F71" t="n">
+        <v>410.241935483871</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-1603240.864926332</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
         <v>6.18</v>
       </c>
-      <c r="C71" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="D71" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="E71" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="F71" t="n">
-        <v>100</v>
-      </c>
-      <c r="G71" t="n">
-        <v>6.200499999999987</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3186,33 +3030,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>6.18</v>
+        <v>6.19</v>
       </c>
       <c r="C72" t="n">
-        <v>6.18</v>
+        <v>6.19</v>
       </c>
       <c r="D72" t="n">
-        <v>6.18</v>
+        <v>6.19</v>
       </c>
       <c r="E72" t="n">
-        <v>6.18</v>
+        <v>6.19</v>
       </c>
       <c r="F72" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="G72" t="n">
-        <v>6.197999999999987</v>
+        <v>-1608240.864926332</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J72" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3228,33 +3072,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>6.17</v>
+        <v>6.19</v>
       </c>
       <c r="C73" t="n">
-        <v>6.17</v>
+        <v>6.19</v>
       </c>
       <c r="D73" t="n">
-        <v>6.18</v>
+        <v>6.19</v>
       </c>
       <c r="E73" t="n">
-        <v>6.17</v>
+        <v>6.19</v>
       </c>
       <c r="F73" t="n">
-        <v>29019.5705</v>
+        <v>18000</v>
       </c>
       <c r="G73" t="n">
-        <v>6.194999999999987</v>
+        <v>-1608240.864926332</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J73" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3270,35 +3114,31 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>6.17</v>
+        <v>6.18</v>
       </c>
       <c r="C74" t="n">
-        <v>6.17</v>
+        <v>6.18</v>
       </c>
       <c r="D74" t="n">
-        <v>6.17</v>
+        <v>6.18</v>
       </c>
       <c r="E74" t="n">
-        <v>6.17</v>
+        <v>6.18</v>
       </c>
       <c r="F74" t="n">
-        <v>10269.5705</v>
+        <v>10000</v>
       </c>
       <c r="G74" t="n">
-        <v>6.195499999999987</v>
+        <v>-1618240.864926332</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="K74" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3317,30 +3157,30 @@
         <v>6.19</v>
       </c>
       <c r="C75" t="n">
-        <v>6.19</v>
+        <v>6.18</v>
       </c>
       <c r="D75" t="n">
         <v>6.19</v>
       </c>
       <c r="E75" t="n">
-        <v>6.19</v>
+        <v>6.18</v>
       </c>
       <c r="F75" t="n">
-        <v>5036.7817</v>
+        <v>19971.0962</v>
       </c>
       <c r="G75" t="n">
-        <v>6.193499999999987</v>
+        <v>-1618240.864926332</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
+      <c r="J75" t="n">
         <v>6.18</v>
       </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3356,22 +3196,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="C76" t="n">
         <v>6.19</v>
       </c>
-      <c r="C76" t="n">
-        <v>6.29</v>
-      </c>
       <c r="D76" t="n">
-        <v>6.29</v>
+        <v>6.19</v>
       </c>
       <c r="E76" t="n">
-        <v>6.19</v>
+        <v>6.12</v>
       </c>
       <c r="F76" t="n">
-        <v>64400.4485</v>
+        <v>205000</v>
       </c>
       <c r="G76" t="n">
-        <v>6.191499999999987</v>
+        <v>-1413240.864926332</v>
       </c>
       <c r="H76" t="n">
         <v>1</v>
@@ -3380,11 +3220,9 @@
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>6.19</v>
-      </c>
-      <c r="K76" t="n">
         <v>6.18</v>
       </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3400,35 +3238,31 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>6.24</v>
+        <v>6.19</v>
       </c>
       <c r="C77" t="n">
-        <v>6.29</v>
+        <v>6.19</v>
       </c>
       <c r="D77" t="n">
-        <v>6.29</v>
+        <v>6.19</v>
       </c>
       <c r="E77" t="n">
-        <v>6.24</v>
+        <v>6.19</v>
       </c>
       <c r="F77" t="n">
-        <v>5085.7509</v>
+        <v>15000</v>
       </c>
       <c r="G77" t="n">
-        <v>6.193499999999987</v>
+        <v>-1413240.864926332</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="K77" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3444,35 +3278,31 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>6.29</v>
+        <v>6.14</v>
       </c>
       <c r="C78" t="n">
-        <v>6.5</v>
+        <v>6.19</v>
       </c>
       <c r="D78" t="n">
-        <v>6.5</v>
+        <v>6.19</v>
       </c>
       <c r="E78" t="n">
-        <v>6.29</v>
+        <v>6.13</v>
       </c>
       <c r="F78" t="n">
-        <v>203498.3926</v>
+        <v>150802.0385</v>
       </c>
       <c r="G78" t="n">
-        <v>6.196999999999987</v>
+        <v>-1413240.864926332</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="K78" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3488,22 +3318,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>6.44</v>
+        <v>6.14</v>
       </c>
       <c r="C79" t="n">
-        <v>6.5</v>
+        <v>6.19</v>
       </c>
       <c r="D79" t="n">
-        <v>6.5</v>
+        <v>6.19</v>
       </c>
       <c r="E79" t="n">
-        <v>6.44</v>
+        <v>6.14</v>
       </c>
       <c r="F79" t="n">
-        <v>4665</v>
+        <v>61556.0344</v>
       </c>
       <c r="G79" t="n">
-        <v>6.208499999999987</v>
+        <v>-1413240.864926332</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3512,9 +3342,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3530,22 +3358,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>6.51</v>
+        <v>6.19</v>
       </c>
       <c r="C80" t="n">
         <v>6.5</v>
       </c>
       <c r="D80" t="n">
-        <v>6.51</v>
+        <v>6.5</v>
       </c>
       <c r="E80" t="n">
-        <v>6.5</v>
+        <v>6.19</v>
       </c>
       <c r="F80" t="n">
-        <v>26978</v>
+        <v>104470.6926</v>
       </c>
       <c r="G80" t="n">
-        <v>6.223499999999988</v>
+        <v>-1308770.172326332</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3554,9 +3382,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3572,22 +3398,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>6.43</v>
+        <v>6.23</v>
       </c>
       <c r="C81" t="n">
-        <v>6.43</v>
+        <v>6.23</v>
       </c>
       <c r="D81" t="n">
-        <v>6.43</v>
+        <v>6.23</v>
       </c>
       <c r="E81" t="n">
-        <v>6.43</v>
+        <v>6.23</v>
       </c>
       <c r="F81" t="n">
-        <v>50</v>
+        <v>7159.2295</v>
       </c>
       <c r="G81" t="n">
-        <v>6.234499999999988</v>
+        <v>-1315929.401826332</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3596,9 +3422,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3614,22 +3438,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>6.5</v>
+        <v>6.23</v>
       </c>
       <c r="C82" t="n">
-        <v>6.5</v>
+        <v>6.23</v>
       </c>
       <c r="D82" t="n">
-        <v>6.5</v>
+        <v>6.23</v>
       </c>
       <c r="E82" t="n">
-        <v>6.5</v>
+        <v>6.23</v>
       </c>
       <c r="F82" t="n">
-        <v>4082.0252</v>
+        <v>60710.502</v>
       </c>
       <c r="G82" t="n">
-        <v>6.248999999999989</v>
+        <v>-1315929.401826332</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3638,9 +3462,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3656,22 +3478,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>6.5</v>
+        <v>6.16</v>
       </c>
       <c r="C83" t="n">
-        <v>6.55</v>
+        <v>6.16</v>
       </c>
       <c r="D83" t="n">
-        <v>6.55</v>
+        <v>6.16</v>
       </c>
       <c r="E83" t="n">
-        <v>6.5</v>
+        <v>6.16</v>
       </c>
       <c r="F83" t="n">
-        <v>2667.227</v>
+        <v>10895.2304</v>
       </c>
       <c r="G83" t="n">
-        <v>6.26349999999999</v>
+        <v>-1326824.632226332</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3680,9 +3502,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3698,22 +3518,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>6.54</v>
+        <v>6.23</v>
       </c>
       <c r="C84" t="n">
-        <v>6.54</v>
+        <v>6.23</v>
       </c>
       <c r="D84" t="n">
-        <v>6.54</v>
+        <v>6.23</v>
       </c>
       <c r="E84" t="n">
-        <v>6.54</v>
+        <v>6.23</v>
       </c>
       <c r="F84" t="n">
-        <v>23998.999</v>
+        <v>61.3162</v>
       </c>
       <c r="G84" t="n">
-        <v>6.27999999999999</v>
+        <v>-1326763.316026332</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3722,9 +3542,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3740,22 +3558,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>6.54</v>
+        <v>6.23</v>
       </c>
       <c r="C85" t="n">
-        <v>6.54</v>
+        <v>6.29</v>
       </c>
       <c r="D85" t="n">
-        <v>6.54</v>
+        <v>6.49</v>
       </c>
       <c r="E85" t="n">
-        <v>6.54</v>
+        <v>6.19</v>
       </c>
       <c r="F85" t="n">
-        <v>49096.8859</v>
+        <v>14610.1919</v>
       </c>
       <c r="G85" t="n">
-        <v>6.29799999999999</v>
+        <v>-1312153.124126332</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3764,9 +3582,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3782,22 +3598,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>6.54</v>
+        <v>6.2</v>
       </c>
       <c r="C86" t="n">
-        <v>6.55</v>
+        <v>6.2</v>
       </c>
       <c r="D86" t="n">
-        <v>6.55</v>
+        <v>6.2</v>
       </c>
       <c r="E86" t="n">
-        <v>6.54</v>
+        <v>6.2</v>
       </c>
       <c r="F86" t="n">
-        <v>134185.446</v>
+        <v>32967.9032</v>
       </c>
       <c r="G86" t="n">
-        <v>6.31799999999999</v>
+        <v>-1345121.027326332</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3806,9 +3622,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3824,22 +3638,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>6.52</v>
+        <v>6.22</v>
       </c>
       <c r="C87" t="n">
-        <v>6.52</v>
+        <v>6.24</v>
       </c>
       <c r="D87" t="n">
-        <v>6.52</v>
+        <v>6.24</v>
       </c>
       <c r="E87" t="n">
-        <v>6.52</v>
+        <v>6.22</v>
       </c>
       <c r="F87" t="n">
-        <v>175908.3603</v>
+        <v>72588.35159999999</v>
       </c>
       <c r="G87" t="n">
-        <v>6.33249999999999</v>
+        <v>-1272532.675726332</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3848,9 +3662,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3866,22 +3678,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>6.54</v>
+        <v>6.21</v>
       </c>
       <c r="C88" t="n">
-        <v>6.55</v>
+        <v>6.21</v>
       </c>
       <c r="D88" t="n">
-        <v>6.55</v>
+        <v>6.21</v>
       </c>
       <c r="E88" t="n">
-        <v>6.54</v>
+        <v>6.21</v>
       </c>
       <c r="F88" t="n">
-        <v>3570</v>
+        <v>4915.7624</v>
       </c>
       <c r="G88" t="n">
-        <v>6.35099999999999</v>
+        <v>-1277448.438126332</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3890,9 +3702,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3908,22 +3718,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>6.55</v>
+        <v>6.21</v>
       </c>
       <c r="C89" t="n">
-        <v>6.55</v>
+        <v>6.21</v>
       </c>
       <c r="D89" t="n">
-        <v>6.55</v>
+        <v>6.21</v>
       </c>
       <c r="E89" t="n">
-        <v>6.55</v>
+        <v>6.21</v>
       </c>
       <c r="F89" t="n">
-        <v>1957</v>
+        <v>14694.7034</v>
       </c>
       <c r="G89" t="n">
-        <v>6.369999999999989</v>
+        <v>-1277448.438126332</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3932,9 +3742,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3950,22 +3758,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>6.55</v>
+        <v>6.21</v>
       </c>
       <c r="C90" t="n">
-        <v>6.55</v>
+        <v>6.21</v>
       </c>
       <c r="D90" t="n">
-        <v>6.55</v>
+        <v>6.21</v>
       </c>
       <c r="E90" t="n">
-        <v>6.55</v>
+        <v>6.21</v>
       </c>
       <c r="F90" t="n">
-        <v>6209</v>
+        <v>6558.3004</v>
       </c>
       <c r="G90" t="n">
-        <v>6.388499999999989</v>
+        <v>-1277448.438126332</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3974,9 +3782,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3992,22 +3798,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>6.55</v>
+        <v>6.21</v>
       </c>
       <c r="C91" t="n">
-        <v>6.59</v>
+        <v>6.21</v>
       </c>
       <c r="D91" t="n">
-        <v>6.59</v>
+        <v>6.21</v>
       </c>
       <c r="E91" t="n">
-        <v>6.55</v>
+        <v>6.21</v>
       </c>
       <c r="F91" t="n">
-        <v>43824.9081</v>
+        <v>3018.231</v>
       </c>
       <c r="G91" t="n">
-        <v>6.406999999999989</v>
+        <v>-1277448.438126332</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4016,9 +3822,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4034,22 +3838,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>6.59</v>
+        <v>6.21</v>
       </c>
       <c r="C92" t="n">
-        <v>6.59</v>
+        <v>6.21</v>
       </c>
       <c r="D92" t="n">
-        <v>6.59</v>
+        <v>6.21</v>
       </c>
       <c r="E92" t="n">
-        <v>6.59</v>
+        <v>6.21</v>
       </c>
       <c r="F92" t="n">
-        <v>1777</v>
+        <v>12972.5429</v>
       </c>
       <c r="G92" t="n">
-        <v>6.42749999999999</v>
+        <v>-1277448.438126332</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4058,9 +3862,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4076,22 +3878,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>6.56</v>
+        <v>6.21</v>
       </c>
       <c r="C93" t="n">
-        <v>6.56</v>
+        <v>6.2</v>
       </c>
       <c r="D93" t="n">
-        <v>6.56</v>
+        <v>6.21</v>
       </c>
       <c r="E93" t="n">
-        <v>6.56</v>
+        <v>6.2</v>
       </c>
       <c r="F93" t="n">
-        <v>129408.9081</v>
+        <v>101027.9512</v>
       </c>
       <c r="G93" t="n">
-        <v>6.44699999999999</v>
+        <v>-1378476.389326332</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4100,9 +3902,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4118,22 +3918,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>6.56</v>
+        <v>6.18</v>
       </c>
       <c r="C94" t="n">
-        <v>6.56</v>
+        <v>6.17</v>
       </c>
       <c r="D94" t="n">
-        <v>6.56</v>
+        <v>6.18</v>
       </c>
       <c r="E94" t="n">
-        <v>6.56</v>
+        <v>6.17</v>
       </c>
       <c r="F94" t="n">
-        <v>1667.881</v>
+        <v>77000</v>
       </c>
       <c r="G94" t="n">
-        <v>6.466499999999991</v>
+        <v>-1455476.389326332</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4142,9 +3942,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4160,22 +3958,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>6.52</v>
+        <v>6.14</v>
       </c>
       <c r="C95" t="n">
-        <v>6.58</v>
+        <v>6.14</v>
       </c>
       <c r="D95" t="n">
-        <v>6.59</v>
+        <v>6.14</v>
       </c>
       <c r="E95" t="n">
-        <v>6.52</v>
+        <v>6.14</v>
       </c>
       <c r="F95" t="n">
-        <v>5098</v>
+        <v>273.9344</v>
       </c>
       <c r="G95" t="n">
-        <v>6.482999999999992</v>
+        <v>-1455750.323726332</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4184,9 +3982,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4202,22 +3998,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>6.57</v>
+        <v>6.23</v>
       </c>
       <c r="C96" t="n">
-        <v>6.53</v>
+        <v>6.26</v>
       </c>
       <c r="D96" t="n">
-        <v>6.57</v>
+        <v>6.26</v>
       </c>
       <c r="E96" t="n">
-        <v>6.53</v>
+        <v>6.23</v>
       </c>
       <c r="F96" t="n">
-        <v>31</v>
+        <v>8206.6669</v>
       </c>
       <c r="G96" t="n">
-        <v>6.501999999999991</v>
+        <v>-1447543.656826332</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4226,9 +4022,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4244,22 +4038,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>6.52</v>
+        <v>6.17</v>
       </c>
       <c r="C97" t="n">
-        <v>6.52</v>
+        <v>6.24</v>
       </c>
       <c r="D97" t="n">
-        <v>6.52</v>
+        <v>6.24</v>
       </c>
       <c r="E97" t="n">
-        <v>6.52</v>
+        <v>6.17</v>
       </c>
       <c r="F97" t="n">
-        <v>5912</v>
+        <v>17699</v>
       </c>
       <c r="G97" t="n">
-        <v>6.515999999999991</v>
+        <v>-1465242.656826332</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4268,9 +4062,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4286,22 +4078,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>6.52</v>
+        <v>6.17</v>
       </c>
       <c r="C98" t="n">
-        <v>6.52</v>
+        <v>6.23</v>
       </c>
       <c r="D98" t="n">
-        <v>6.52</v>
+        <v>6.23</v>
       </c>
       <c r="E98" t="n">
-        <v>6.51</v>
+        <v>6.17</v>
       </c>
       <c r="F98" t="n">
-        <v>170660</v>
+        <v>1718</v>
       </c>
       <c r="G98" t="n">
-        <v>6.527499999999992</v>
+        <v>-1466960.656826332</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4310,9 +4102,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4328,33 +4118,33 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>6.52</v>
+        <v>6.18</v>
       </c>
       <c r="C99" t="n">
-        <v>6.52</v>
+        <v>6.18</v>
       </c>
       <c r="D99" t="n">
-        <v>6.52</v>
+        <v>6.18</v>
       </c>
       <c r="E99" t="n">
-        <v>6.52</v>
+        <v>6.18</v>
       </c>
       <c r="F99" t="n">
-        <v>15128.0736</v>
+        <v>481.7741</v>
       </c>
       <c r="G99" t="n">
-        <v>6.531499999999992</v>
+        <v>-1467442.430926332</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J99" t="n">
+        <v>6.23</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4370,33 +4160,33 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>6.51</v>
+        <v>6.18</v>
       </c>
       <c r="C100" t="n">
-        <v>6.51</v>
+        <v>6.18</v>
       </c>
       <c r="D100" t="n">
-        <v>6.51</v>
+        <v>6.18</v>
       </c>
       <c r="E100" t="n">
-        <v>6.51</v>
+        <v>6.18</v>
       </c>
       <c r="F100" t="n">
-        <v>209.475</v>
+        <v>100</v>
       </c>
       <c r="G100" t="n">
-        <v>6.531499999999992</v>
+        <v>-1467442.430926332</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
+      <c r="J100" t="n">
         <v>6.18</v>
       </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4412,33 +4202,33 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>6.52</v>
+        <v>6.18</v>
       </c>
       <c r="C101" t="n">
-        <v>6.52</v>
+        <v>6.18</v>
       </c>
       <c r="D101" t="n">
-        <v>6.52</v>
+        <v>6.18</v>
       </c>
       <c r="E101" t="n">
-        <v>6.52</v>
+        <v>6.18</v>
       </c>
       <c r="F101" t="n">
-        <v>8417.276</v>
+        <v>15000</v>
       </c>
       <c r="G101" t="n">
-        <v>6.535999999999992</v>
+        <v>-1467442.430926332</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
+      <c r="J101" t="n">
         <v>6.18</v>
       </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4454,33 +4244,33 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>6.51</v>
+        <v>6.17</v>
       </c>
       <c r="C102" t="n">
-        <v>6.51</v>
+        <v>6.17</v>
       </c>
       <c r="D102" t="n">
-        <v>6.51</v>
+        <v>6.18</v>
       </c>
       <c r="E102" t="n">
-        <v>6.51</v>
+        <v>6.17</v>
       </c>
       <c r="F102" t="n">
-        <v>26645.8828</v>
+        <v>29019.5705</v>
       </c>
       <c r="G102" t="n">
-        <v>6.536499999999992</v>
+        <v>-1496462.001426332</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
+      <c r="J102" t="n">
         <v>6.18</v>
       </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4496,33 +4286,33 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>6.52</v>
+        <v>6.17</v>
       </c>
       <c r="C103" t="n">
-        <v>6.52</v>
+        <v>6.17</v>
       </c>
       <c r="D103" t="n">
-        <v>6.52</v>
+        <v>6.17</v>
       </c>
       <c r="E103" t="n">
-        <v>6.52</v>
+        <v>6.17</v>
       </c>
       <c r="F103" t="n">
-        <v>36056.7111</v>
+        <v>10269.5705</v>
       </c>
       <c r="G103" t="n">
-        <v>6.537499999999993</v>
+        <v>-1496462.001426332</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J103" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4538,33 +4328,33 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>6.51</v>
+        <v>6.19</v>
       </c>
       <c r="C104" t="n">
-        <v>6.51</v>
+        <v>6.19</v>
       </c>
       <c r="D104" t="n">
-        <v>6.51</v>
+        <v>6.19</v>
       </c>
       <c r="E104" t="n">
-        <v>6.51</v>
+        <v>6.19</v>
       </c>
       <c r="F104" t="n">
-        <v>65068.4223</v>
+        <v>5036.7817</v>
       </c>
       <c r="G104" t="n">
-        <v>6.535999999999992</v>
+        <v>-1491425.219726332</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J104" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4580,33 +4370,33 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>6.51</v>
+        <v>6.19</v>
       </c>
       <c r="C105" t="n">
-        <v>6.51</v>
+        <v>6.29</v>
       </c>
       <c r="D105" t="n">
-        <v>6.51</v>
+        <v>6.29</v>
       </c>
       <c r="E105" t="n">
-        <v>6.51</v>
+        <v>6.19</v>
       </c>
       <c r="F105" t="n">
-        <v>27879</v>
+        <v>64400.4485</v>
       </c>
       <c r="G105" t="n">
-        <v>6.534499999999992</v>
+        <v>-1427024.771226332</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J105" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4622,22 +4412,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>6.51</v>
+        <v>6.24</v>
       </c>
       <c r="C106" t="n">
-        <v>6.51</v>
+        <v>6.29</v>
       </c>
       <c r="D106" t="n">
-        <v>6.51</v>
+        <v>6.29</v>
       </c>
       <c r="E106" t="n">
-        <v>6.51</v>
+        <v>6.24</v>
       </c>
       <c r="F106" t="n">
-        <v>77799.01179999999</v>
+        <v>5085.7509</v>
       </c>
       <c r="G106" t="n">
-        <v>6.532999999999992</v>
+        <v>-1427024.771226332</v>
       </c>
       <c r="H106" t="n">
         <v>1</v>
@@ -4646,11 +4436,9 @@
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>6.51</v>
-      </c>
-      <c r="K106" t="n">
-        <v>6.18</v>
-      </c>
+        <v>6.29</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4666,33 +4454,33 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>6.52</v>
+        <v>6.29</v>
       </c>
       <c r="C107" t="n">
-        <v>6.55</v>
+        <v>6.5</v>
       </c>
       <c r="D107" t="n">
-        <v>6.55</v>
+        <v>6.5</v>
       </c>
       <c r="E107" t="n">
-        <v>6.52</v>
+        <v>6.29</v>
       </c>
       <c r="F107" t="n">
-        <v>26168.0547</v>
+        <v>203498.3926</v>
       </c>
       <c r="G107" t="n">
-        <v>6.532999999999992</v>
+        <v>-1223526.378626332</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J107" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4708,35 +4496,31 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>6.51</v>
+        <v>6.44</v>
       </c>
       <c r="C108" t="n">
-        <v>6.51</v>
+        <v>6.5</v>
       </c>
       <c r="D108" t="n">
-        <v>6.51</v>
+        <v>6.5</v>
       </c>
       <c r="E108" t="n">
-        <v>6.51</v>
+        <v>6.44</v>
       </c>
       <c r="F108" t="n">
-        <v>31</v>
+        <v>4665</v>
       </c>
       <c r="G108" t="n">
-        <v>6.531499999999992</v>
+        <v>-1223526.378626332</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>6.55</v>
-      </c>
-      <c r="K108" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4752,35 +4536,31 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>6.52</v>
+        <v>6.51</v>
       </c>
       <c r="C109" t="n">
-        <v>6.52</v>
+        <v>6.5</v>
       </c>
       <c r="D109" t="n">
-        <v>6.52</v>
+        <v>6.51</v>
       </c>
       <c r="E109" t="n">
-        <v>6.52</v>
+        <v>6.5</v>
       </c>
       <c r="F109" t="n">
-        <v>48839.7957</v>
+        <v>26978</v>
       </c>
       <c r="G109" t="n">
-        <v>6.529999999999992</v>
+        <v>-1223526.378626332</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>6.51</v>
-      </c>
-      <c r="K109" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4796,22 +4576,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>6.53</v>
+        <v>6.43</v>
       </c>
       <c r="C110" t="n">
-        <v>6.53</v>
+        <v>6.43</v>
       </c>
       <c r="D110" t="n">
-        <v>6.53</v>
+        <v>6.43</v>
       </c>
       <c r="E110" t="n">
-        <v>6.53</v>
+        <v>6.43</v>
       </c>
       <c r="F110" t="n">
-        <v>270230.7799</v>
+        <v>50</v>
       </c>
       <c r="G110" t="n">
-        <v>6.528999999999992</v>
+        <v>-1223576.378626332</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4820,9 +4600,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4838,35 +4616,31 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>6.54</v>
+        <v>6.5</v>
       </c>
       <c r="C111" t="n">
-        <v>6.51</v>
+        <v>6.5</v>
       </c>
       <c r="D111" t="n">
-        <v>6.58</v>
+        <v>6.5</v>
       </c>
       <c r="E111" t="n">
-        <v>6.51</v>
+        <v>6.5</v>
       </c>
       <c r="F111" t="n">
-        <v>38050.549</v>
+        <v>4082.0252</v>
       </c>
       <c r="G111" t="n">
-        <v>6.528499999999991</v>
+        <v>-1219494.353426332</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K111" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4882,35 +4656,31 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>6.58</v>
+        <v>6.5</v>
       </c>
       <c r="C112" t="n">
-        <v>6.58</v>
+        <v>6.55</v>
       </c>
       <c r="D112" t="n">
-        <v>6.58</v>
+        <v>6.55</v>
       </c>
       <c r="E112" t="n">
-        <v>6.58</v>
+        <v>6.5</v>
       </c>
       <c r="F112" t="n">
-        <v>3051</v>
+        <v>2667.227</v>
       </c>
       <c r="G112" t="n">
-        <v>6.527999999999992</v>
+        <v>-1216827.126426332</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>6.51</v>
-      </c>
-      <c r="K112" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4926,35 +4696,31 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>6.58</v>
+        <v>6.54</v>
       </c>
       <c r="C113" t="n">
-        <v>6.58</v>
+        <v>6.54</v>
       </c>
       <c r="D113" t="n">
-        <v>6.58</v>
+        <v>6.54</v>
       </c>
       <c r="E113" t="n">
-        <v>6.58</v>
+        <v>6.54</v>
       </c>
       <c r="F113" t="n">
-        <v>179</v>
+        <v>23998.999</v>
       </c>
       <c r="G113" t="n">
-        <v>6.528999999999992</v>
+        <v>-1240826.125426332</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="K113" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4970,22 +4736,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>6.51</v>
+        <v>6.54</v>
       </c>
       <c r="C114" t="n">
-        <v>6.51</v>
+        <v>6.54</v>
       </c>
       <c r="D114" t="n">
-        <v>6.51</v>
+        <v>6.54</v>
       </c>
       <c r="E114" t="n">
-        <v>6.51</v>
+        <v>6.54</v>
       </c>
       <c r="F114" t="n">
-        <v>21414.3595</v>
+        <v>49096.8859</v>
       </c>
       <c r="G114" t="n">
-        <v>6.526499999999992</v>
+        <v>-1240826.125426332</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4994,9 +4760,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5012,22 +4776,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>6.46</v>
+        <v>6.54</v>
       </c>
       <c r="C115" t="n">
-        <v>6.45</v>
+        <v>6.55</v>
       </c>
       <c r="D115" t="n">
-        <v>6.46</v>
+        <v>6.55</v>
       </c>
       <c r="E115" t="n">
-        <v>6.45</v>
+        <v>6.54</v>
       </c>
       <c r="F115" t="n">
-        <v>2561</v>
+        <v>134185.446</v>
       </c>
       <c r="G115" t="n">
-        <v>6.523499999999991</v>
+        <v>-1106640.679426332</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -5036,9 +4800,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5054,35 +4816,31 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>6.57</v>
+        <v>6.52</v>
       </c>
       <c r="C116" t="n">
-        <v>6.57</v>
+        <v>6.52</v>
       </c>
       <c r="D116" t="n">
-        <v>6.57</v>
+        <v>6.52</v>
       </c>
       <c r="E116" t="n">
-        <v>6.57</v>
+        <v>6.52</v>
       </c>
       <c r="F116" t="n">
-        <v>20000</v>
+        <v>175908.3603</v>
       </c>
       <c r="G116" t="n">
-        <v>6.523499999999991</v>
+        <v>-1282549.039726332</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>6.45</v>
-      </c>
-      <c r="K116" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5098,35 +4856,31 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>6.58</v>
+        <v>6.54</v>
       </c>
       <c r="C117" t="n">
-        <v>6.58</v>
+        <v>6.55</v>
       </c>
       <c r="D117" t="n">
-        <v>6.58</v>
+        <v>6.55</v>
       </c>
       <c r="E117" t="n">
-        <v>6.58</v>
+        <v>6.54</v>
       </c>
       <c r="F117" t="n">
-        <v>2000</v>
+        <v>3570</v>
       </c>
       <c r="G117" t="n">
-        <v>6.526499999999992</v>
+        <v>-1278979.039726332</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>6.57</v>
-      </c>
-      <c r="K117" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5142,35 +4896,31 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>6.59</v>
+        <v>6.55</v>
       </c>
       <c r="C118" t="n">
-        <v>6.57</v>
+        <v>6.55</v>
       </c>
       <c r="D118" t="n">
-        <v>6.59</v>
+        <v>6.55</v>
       </c>
       <c r="E118" t="n">
-        <v>6.57</v>
+        <v>6.55</v>
       </c>
       <c r="F118" t="n">
-        <v>86471.5275</v>
+        <v>1957</v>
       </c>
       <c r="G118" t="n">
-        <v>6.529999999999991</v>
+        <v>-1278979.039726332</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="K118" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5186,35 +4936,31 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>6.52</v>
+        <v>6.55</v>
       </c>
       <c r="C119" t="n">
-        <v>6.52</v>
+        <v>6.55</v>
       </c>
       <c r="D119" t="n">
-        <v>6.52</v>
+        <v>6.55</v>
       </c>
       <c r="E119" t="n">
-        <v>6.52</v>
+        <v>6.55</v>
       </c>
       <c r="F119" t="n">
-        <v>88994.93859999999</v>
+        <v>6209</v>
       </c>
       <c r="G119" t="n">
-        <v>6.529999999999991</v>
+        <v>-1278979.039726332</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>6.57</v>
-      </c>
-      <c r="K119" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5230,35 +4976,31 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>6.58</v>
+        <v>6.55</v>
       </c>
       <c r="C120" t="n">
-        <v>6.58</v>
+        <v>6.59</v>
       </c>
       <c r="D120" t="n">
-        <v>6.6</v>
+        <v>6.59</v>
       </c>
       <c r="E120" t="n">
-        <v>6.58</v>
+        <v>6.55</v>
       </c>
       <c r="F120" t="n">
-        <v>418140.4434</v>
+        <v>43824.9081</v>
       </c>
       <c r="G120" t="n">
-        <v>6.533499999999992</v>
+        <v>-1235154.131626332</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>6.52</v>
-      </c>
-      <c r="K120" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5274,35 +5016,31 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>6.58</v>
+        <v>6.59</v>
       </c>
       <c r="C121" t="n">
-        <v>6.62</v>
+        <v>6.59</v>
       </c>
       <c r="D121" t="n">
-        <v>6.62</v>
+        <v>6.59</v>
       </c>
       <c r="E121" t="n">
-        <v>6.58</v>
+        <v>6.59</v>
       </c>
       <c r="F121" t="n">
-        <v>27634</v>
+        <v>1777</v>
       </c>
       <c r="G121" t="n">
-        <v>6.536499999999992</v>
+        <v>-1235154.131626332</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="K121" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5318,22 +5056,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>6.62</v>
+        <v>6.56</v>
       </c>
       <c r="C122" t="n">
-        <v>6.53</v>
+        <v>6.56</v>
       </c>
       <c r="D122" t="n">
-        <v>6.62</v>
+        <v>6.56</v>
       </c>
       <c r="E122" t="n">
-        <v>6.53</v>
+        <v>6.56</v>
       </c>
       <c r="F122" t="n">
-        <v>59775</v>
+        <v>129408.9081</v>
       </c>
       <c r="G122" t="n">
-        <v>6.541999999999993</v>
+        <v>-1364563.039726332</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5342,9 +5080,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5360,22 +5096,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>6.65</v>
+        <v>6.56</v>
       </c>
       <c r="C123" t="n">
-        <v>6.67</v>
+        <v>6.56</v>
       </c>
       <c r="D123" t="n">
-        <v>6.67</v>
+        <v>6.56</v>
       </c>
       <c r="E123" t="n">
-        <v>6.65</v>
+        <v>6.56</v>
       </c>
       <c r="F123" t="n">
-        <v>198133</v>
+        <v>1667.881</v>
       </c>
       <c r="G123" t="n">
-        <v>6.548499999999993</v>
+        <v>-1364563.039726332</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5384,9 +5120,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5402,22 +5136,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>6.67</v>
+        <v>6.52</v>
       </c>
       <c r="C124" t="n">
-        <v>6.67</v>
+        <v>6.58</v>
       </c>
       <c r="D124" t="n">
-        <v>6.67</v>
+        <v>6.59</v>
       </c>
       <c r="E124" t="n">
-        <v>6.67</v>
+        <v>6.52</v>
       </c>
       <c r="F124" t="n">
-        <v>38506</v>
+        <v>5098</v>
       </c>
       <c r="G124" t="n">
-        <v>6.556499999999993</v>
+        <v>-1359465.039726332</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5426,9 +5160,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5444,22 +5176,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>6.7</v>
+        <v>6.57</v>
       </c>
       <c r="C125" t="n">
-        <v>7.12</v>
+        <v>6.53</v>
       </c>
       <c r="D125" t="n">
-        <v>7.12</v>
+        <v>6.57</v>
       </c>
       <c r="E125" t="n">
-        <v>6.62</v>
+        <v>6.53</v>
       </c>
       <c r="F125" t="n">
-        <v>146624.0596</v>
+        <v>31</v>
       </c>
       <c r="G125" t="n">
-        <v>6.565999999999993</v>
+        <v>-1359496.039726332</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5468,9 +5200,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5486,22 +5216,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>7.08</v>
+        <v>6.52</v>
       </c>
       <c r="C126" t="n">
-        <v>7.07</v>
+        <v>6.52</v>
       </c>
       <c r="D126" t="n">
-        <v>7.08</v>
+        <v>6.52</v>
       </c>
       <c r="E126" t="n">
-        <v>7.07</v>
+        <v>6.52</v>
       </c>
       <c r="F126" t="n">
-        <v>20</v>
+        <v>5912</v>
       </c>
       <c r="G126" t="n">
-        <v>6.594499999999994</v>
+        <v>-1365408.039726332</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5510,9 +5240,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5528,76 +5256,76 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>6.65</v>
+        <v>6.52</v>
       </c>
       <c r="C127" t="n">
-        <v>7.1</v>
+        <v>6.52</v>
       </c>
       <c r="D127" t="n">
-        <v>7.1</v>
+        <v>6.52</v>
       </c>
       <c r="E127" t="n">
-        <v>6.65</v>
+        <v>6.51</v>
       </c>
       <c r="F127" t="n">
-        <v>1422.975</v>
+        <v>170660</v>
       </c>
       <c r="G127" t="n">
-        <v>6.600999999999994</v>
+        <v>-1365408.039726332</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M127" t="n">
-        <v>1.143867313915858</v>
-      </c>
-      <c r="N127" t="n">
-        <v>1.057755775577558</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>6.65</v>
+        <v>6.52</v>
       </c>
       <c r="C128" t="n">
-        <v>6.59</v>
+        <v>6.52</v>
       </c>
       <c r="D128" t="n">
-        <v>6.65</v>
+        <v>6.52</v>
       </c>
       <c r="E128" t="n">
-        <v>6.59</v>
+        <v>6.52</v>
       </c>
       <c r="F128" t="n">
-        <v>62827</v>
+        <v>15128.0736</v>
       </c>
       <c r="G128" t="n">
-        <v>6.607999999999994</v>
+        <v>-1365408.039726332</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5608,22 +5336,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>7.06</v>
+        <v>6.51</v>
       </c>
       <c r="C129" t="n">
-        <v>7.06</v>
+        <v>6.51</v>
       </c>
       <c r="D129" t="n">
-        <v>7.06</v>
+        <v>6.51</v>
       </c>
       <c r="E129" t="n">
-        <v>7.06</v>
+        <v>6.51</v>
       </c>
       <c r="F129" t="n">
-        <v>10</v>
+        <v>209.475</v>
       </c>
       <c r="G129" t="n">
-        <v>6.634999999999994</v>
+        <v>-1365617.514726332</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5633,7 +5361,11 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5644,32 +5376,36 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>6.72</v>
+        <v>6.52</v>
       </c>
       <c r="C130" t="n">
-        <v>6.72</v>
+        <v>6.52</v>
       </c>
       <c r="D130" t="n">
-        <v>6.72</v>
+        <v>6.52</v>
       </c>
       <c r="E130" t="n">
-        <v>6.72</v>
+        <v>6.52</v>
       </c>
       <c r="F130" t="n">
-        <v>69999.99980000001</v>
+        <v>8417.276</v>
       </c>
       <c r="G130" t="n">
-        <v>6.644499999999994</v>
+        <v>-1357200.238726332</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5680,32 +5416,36 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>6.99</v>
+        <v>6.51</v>
       </c>
       <c r="C131" t="n">
-        <v>6.99</v>
+        <v>6.51</v>
       </c>
       <c r="D131" t="n">
-        <v>6.99</v>
+        <v>6.51</v>
       </c>
       <c r="E131" t="n">
-        <v>6.99</v>
+        <v>6.51</v>
       </c>
       <c r="F131" t="n">
-        <v>10</v>
+        <v>26645.8828</v>
       </c>
       <c r="G131" t="n">
-        <v>6.666999999999994</v>
+        <v>-1383846.121526332</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5716,32 +5456,36 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>6.99</v>
+        <v>6.52</v>
       </c>
       <c r="C132" t="n">
-        <v>6.99</v>
+        <v>6.52</v>
       </c>
       <c r="D132" t="n">
-        <v>6.99</v>
+        <v>6.52</v>
       </c>
       <c r="E132" t="n">
-        <v>6.99</v>
+        <v>6.52</v>
       </c>
       <c r="F132" t="n">
-        <v>10934.0486</v>
+        <v>36056.7111</v>
       </c>
       <c r="G132" t="n">
-        <v>6.687499999999995</v>
+        <v>-1347789.410426332</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5752,36 +5496,1174 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>6.67</v>
+        <v>6.51</v>
       </c>
       <c r="C133" t="n">
-        <v>6.59</v>
+        <v>6.51</v>
       </c>
       <c r="D133" t="n">
-        <v>6.68</v>
+        <v>6.51</v>
       </c>
       <c r="E133" t="n">
-        <v>6.59</v>
+        <v>6.51</v>
       </c>
       <c r="F133" t="n">
-        <v>303947.7578</v>
+        <v>65068.4223</v>
       </c>
       <c r="G133" t="n">
-        <v>6.691999999999993</v>
+        <v>-1412857.832726332</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
       <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="C134" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="D134" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="E134" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="F134" t="n">
+        <v>27879</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-1412857.832726332</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="C135" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="D135" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="E135" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="F135" t="n">
+        <v>77799.01179999999</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-1412857.832726332</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="C136" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="D136" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="E136" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="F136" t="n">
+        <v>26168.0547</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-1386689.778026332</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="C137" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="D137" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="E137" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="F137" t="n">
+        <v>31</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-1386720.778026332</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="C138" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="D138" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="E138" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="F138" t="n">
+        <v>48839.7957</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-1337880.982326332</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="C139" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="D139" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="E139" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="F139" t="n">
+        <v>270230.7799</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-1067650.202426333</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="C140" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="D140" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="E140" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="F140" t="n">
+        <v>38050.549</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-1105700.751426333</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="C141" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="D141" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="E141" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="F141" t="n">
+        <v>3051</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-1102649.751426333</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="C142" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="D142" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="E142" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="F142" t="n">
+        <v>179</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-1102649.751426333</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="C143" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="D143" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="E143" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="F143" t="n">
+        <v>21414.3595</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-1124064.110926333</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="C144" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="D144" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="E144" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="F144" t="n">
+        <v>2561</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-1126625.110926333</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="C145" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="D145" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="E145" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="F145" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-1106625.110926333</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="C146" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="D146" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="E146" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="F146" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-1104625.110926333</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="C147" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="D147" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="E147" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="F147" t="n">
+        <v>86471.5275</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-1191096.638426333</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="C148" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="D148" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="E148" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="F148" t="n">
+        <v>88994.93859999999</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-1280091.577026333</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="C149" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="D149" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E149" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="F149" t="n">
+        <v>418140.4434</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-861951.1336263327</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="C150" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="D150" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="E150" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="F150" t="n">
+        <v>27634</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-834317.1336263327</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="C151" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="D151" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="E151" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="F151" t="n">
+        <v>59775</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-894092.1336263327</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="C152" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="D152" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="E152" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="F152" t="n">
+        <v>198133</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-695959.1336263327</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="C153" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="D153" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="E153" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="F153" t="n">
+        <v>38506</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-695959.1336263327</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C154" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="D154" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="E154" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="F154" t="n">
+        <v>146624.0596</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-549335.0740263327</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="C155" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="D155" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="E155" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="F155" t="n">
+        <v>20</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-549355.0740263327</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="C156" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="D156" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="E156" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1422.975</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-547932.0990263327</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="C157" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="D157" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="E157" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="F157" t="n">
+        <v>62827</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-610759.0990263327</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>7.06</v>
+      </c>
+      <c r="C158" t="n">
+        <v>7.06</v>
+      </c>
+      <c r="D158" t="n">
+        <v>7.06</v>
+      </c>
+      <c r="E158" t="n">
+        <v>7.06</v>
+      </c>
+      <c r="F158" t="n">
+        <v>10</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-610749.0990263327</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="C159" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="D159" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="E159" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="F159" t="n">
+        <v>69999.99980000001</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-680749.0988263327</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>1</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="C160" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="D160" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="E160" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="F160" t="n">
+        <v>10</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-680739.0988263327</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="C161" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="D161" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="E161" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="F161" t="n">
+        <v>10934.0486</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-680739.0988263327</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="C162" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="D162" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="E162" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="F162" t="n">
+        <v>303947.7578</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-984686.8566263327</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>1</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-29 BackTest IOST.xlsx
+++ b/BackTest/2019-10-29 BackTest IOST.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N162"/>
+  <dimension ref="A1:M162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1428,18 +1342,15 @@
         <v>-1471766.686261815</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,18 +1375,15 @@
         <v>-1470766.686261815</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1441,15 @@
         <v>-1471266.686261815</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1608,18 +1507,15 @@
         <v>-1473218.686261815</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1644,18 +1540,15 @@
         <v>-1490057.186261815</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1752,18 +1639,15 @@
         <v>-1495614.429361816</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1788,18 +1672,15 @@
         <v>-1495614.429361816</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1824,18 +1705,15 @@
         <v>-1420630.429361816</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1896,18 +1771,15 @@
         <v>-1412471.246661816</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2148,18 +2002,15 @@
         <v>-1747377.967061816</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2184,18 +2035,15 @@
         <v>-1747377.967061816</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2220,18 +2068,15 @@
         <v>-1743393.967061816</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2256,18 +2101,15 @@
         <v>-1672596.195361816</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2292,18 +2134,15 @@
         <v>-1672596.195361816</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2328,18 +2167,15 @@
         <v>-1681519.195361816</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2400,18 +2233,15 @@
         <v>-1649623.199361816</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2508,18 +2332,15 @@
         <v>-1688725.085961816</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2544,24 +2365,15 @@
         <v>-1714144.010561816</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>6.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2586,24 +2398,19 @@
         <v>-1714144.010561816</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>6.06</v>
       </c>
       <c r="J61" t="n">
         <v>6.06</v>
       </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2628,24 +2435,23 @@
         <v>-1664120.486461816</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>6.06</v>
       </c>
       <c r="J62" t="n">
         <v>6.06</v>
       </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2670,24 +2476,23 @@
         <v>-1664120.486461816</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>6.1</v>
       </c>
       <c r="J63" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+        <v>6.06</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2712,24 +2517,23 @@
         <v>-1608551.106861816</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>6.1</v>
       </c>
       <c r="J64" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+        <v>6.06</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2754,24 +2558,23 @@
         <v>-1608651.106861816</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>6.18</v>
       </c>
       <c r="J65" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+        <v>6.06</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2796,24 +2599,23 @@
         <v>-1605651.106861816</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>6.06</v>
       </c>
       <c r="J66" t="n">
         <v>6.06</v>
       </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2838,24 +2640,23 @@
         <v>-1605651.106861816</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>6.14</v>
       </c>
       <c r="J67" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+        <v>6.06</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2880,24 +2681,23 @@
         <v>-1603651.106861816</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>6.14</v>
       </c>
       <c r="J68" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+        <v>6.06</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2922,24 +2722,21 @@
         <v>-1603651.106861816</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+        <v>6.06</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2964,24 +2761,21 @@
         <v>-1603651.106861816</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+        <v>6.06</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3006,24 +2800,21 @@
         <v>-1603240.864926332</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+        <v>6.06</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3048,24 +2839,23 @@
         <v>-1608240.864926332</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="J72" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+        <v>6.06</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3090,24 +2880,23 @@
         <v>-1608240.864926332</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>6.19</v>
       </c>
       <c r="J73" t="n">
-        <v>6.19</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+        <v>6.06</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3132,22 +2921,23 @@
         <v>-1618240.864926332</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+        <v>6.19</v>
+      </c>
+      <c r="J74" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3172,24 +2962,23 @@
         <v>-1618240.864926332</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>6.18</v>
       </c>
       <c r="J75" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+        <v>6.06</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3214,24 +3003,23 @@
         <v>-1413240.864926332</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>6.18</v>
       </c>
       <c r="J76" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+        <v>6.06</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3258,20 +3046,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3298,20 +3085,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3338,20 +3124,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3378,20 +3163,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3418,20 +3202,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3458,20 +3241,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3498,20 +3280,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3538,20 +3319,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3578,20 +3358,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3618,20 +3397,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3658,20 +3436,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3698,20 +3475,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3738,20 +3514,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3778,20 +3553,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3818,20 +3592,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3858,20 +3631,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3898,20 +3670,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3938,20 +3709,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3978,20 +3748,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4018,20 +3787,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4058,20 +3826,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4098,20 +3865,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4136,24 +3902,21 @@
         <v>-1467442.430926332</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>6.23</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+        <v>6.06</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4178,24 +3941,21 @@
         <v>-1467442.430926332</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+        <v>6.06</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4220,24 +3980,21 @@
         <v>-1467442.430926332</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+        <v>6.06</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4262,24 +4019,21 @@
         <v>-1496462.001426332</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+        <v>6.06</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4304,24 +4058,21 @@
         <v>-1496462.001426332</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+        <v>6.06</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4346,24 +4097,21 @@
         <v>-1491425.219726332</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+        <v>6.06</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4388,24 +4136,23 @@
         <v>-1427024.771226332</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>6.19</v>
       </c>
       <c r="J105" t="n">
-        <v>6.19</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+        <v>6.06</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4430,24 +4177,23 @@
         <v>-1427024.771226332</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>6.29</v>
       </c>
       <c r="J106" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+        <v>6.06</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4472,24 +4218,21 @@
         <v>-1223526.378626332</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+        <v>6.06</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4516,20 +4259,19 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4556,20 +4298,19 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4596,20 +4337,19 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4636,20 +4376,19 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4676,20 +4415,19 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4716,20 +4454,19 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4756,20 +4493,19 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4796,20 +4532,19 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4836,20 +4571,19 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4876,20 +4610,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4916,20 +4649,19 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4956,20 +4688,19 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4996,20 +4727,19 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5036,20 +4766,19 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5076,20 +4805,19 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5116,20 +4844,19 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5156,20 +4883,19 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5196,20 +4922,19 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5236,20 +4961,19 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5276,20 +5000,19 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5314,22 +5037,21 @@
         <v>-1365408.039726332</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5356,20 +5078,19 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5396,20 +5117,19 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5436,20 +5156,19 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5476,20 +5195,19 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5516,20 +5234,19 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5554,22 +5271,21 @@
         <v>-1412857.832726332</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5594,22 +5310,21 @@
         <v>-1412857.832726332</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5634,22 +5349,21 @@
         <v>-1386689.778026332</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5674,22 +5388,21 @@
         <v>-1386720.778026332</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5714,22 +5427,21 @@
         <v>-1337880.982326332</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5754,22 +5466,21 @@
         <v>-1067650.202426333</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5794,22 +5505,21 @@
         <v>-1105700.751426333</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5834,22 +5544,21 @@
         <v>-1102649.751426333</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5874,22 +5583,21 @@
         <v>-1102649.751426333</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5914,22 +5622,21 @@
         <v>-1124064.110926333</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5954,22 +5661,21 @@
         <v>-1126625.110926333</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5994,22 +5700,21 @@
         <v>-1106625.110926333</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6036,20 +5741,19 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6076,20 +5780,19 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6116,20 +5819,19 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6156,20 +5858,19 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6196,20 +5897,19 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6236,20 +5936,19 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6276,20 +5975,19 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6316,20 +6014,19 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6356,20 +6053,19 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6396,20 +6092,19 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6436,18 +6131,19 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>1</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
       </c>
       <c r="M156" t="inlineStr"/>
-      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6472,18 +6168,23 @@
         <v>-610759.0990263327</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>1</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1.082458745874588</v>
+      </c>
       <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+        <v>1.075907590759076</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6508,18 +6209,15 @@
         <v>-610749.0990263327</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6544,18 +6242,15 @@
         <v>-680749.0988263327</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6580,18 +6275,15 @@
         <v>-680739.0988263327</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6616,18 +6308,15 @@
         <v>-680739.0988263327</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6652,20 +6341,17 @@
         <v>-984686.8566263327</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest IOST.xlsx
+++ b/BackTest/2019-10-29 BackTest IOST.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1342,7 +1342,7 @@
         <v>-1471766.686261815</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-1470766.686261815</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-1471266.686261815</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-1473218.686261815</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-1490057.186261815</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-1495614.429361816</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-1495614.429361816</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-1420630.429361816</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-1412471.246661816</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-1747377.967061816</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-1747377.967061816</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-1743393.967061816</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-1672596.195361816</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2136,8 +2136,12 @@
       <c r="H53" t="n">
         <v>1</v>
       </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J53" t="n">
+        <v>6.18</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
@@ -2169,9 +2173,17 @@
       <c r="H54" t="n">
         <v>1</v>
       </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J54" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2200,11 +2212,19 @@
         <v>-1649623.199361816</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="J55" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2235,8 +2255,12 @@
       <c r="H56" t="n">
         <v>1</v>
       </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J56" t="n">
+        <v>6.18</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
@@ -2266,11 +2290,19 @@
         <v>-1684401.085961816</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J57" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2299,11 +2331,19 @@
         <v>-1684401.085961816</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="J58" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2334,9 +2374,17 @@
       <c r="H59" t="n">
         <v>1</v>
       </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="J59" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2365,11 +2413,19 @@
         <v>-1714144.010561816</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2398,15 +2454,19 @@
         <v>-1714144.010561816</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>6.06</v>
       </c>
       <c r="J61" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
+        <v>6.18</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2435,17 +2495,17 @@
         <v>-1664120.486461816</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>6.06</v>
       </c>
       <c r="J62" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L62" t="n">
@@ -2476,13 +2536,13 @@
         <v>-1664120.486461816</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>6.1</v>
       </c>
       <c r="J63" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2517,13 +2577,13 @@
         <v>-1608551.106861816</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>6.1</v>
       </c>
       <c r="J64" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2558,13 +2618,13 @@
         <v>-1608651.106861816</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>6.18</v>
       </c>
       <c r="J65" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2599,13 +2659,13 @@
         <v>-1605651.106861816</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>6.06</v>
       </c>
       <c r="J66" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2640,13 +2700,13 @@
         <v>-1605651.106861816</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>6.14</v>
       </c>
       <c r="J67" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2681,13 +2741,13 @@
         <v>-1603651.106861816</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>6.14</v>
       </c>
       <c r="J68" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -2722,11 +2782,13 @@
         <v>-1603651.106861816</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>6.18</v>
+      </c>
       <c r="J69" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -2761,11 +2823,13 @@
         <v>-1603651.106861816</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>6.18</v>
+      </c>
       <c r="J70" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -2800,11 +2864,13 @@
         <v>-1603240.864926332</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>6.18</v>
+      </c>
       <c r="J71" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -2839,13 +2905,13 @@
         <v>-1608240.864926332</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>6.2</v>
       </c>
       <c r="J72" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -2880,13 +2946,13 @@
         <v>-1608240.864926332</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>6.19</v>
       </c>
       <c r="J73" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -2921,13 +2987,13 @@
         <v>-1618240.864926332</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>6.19</v>
       </c>
       <c r="J74" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -2962,13 +3028,13 @@
         <v>-1618240.864926332</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>6.18</v>
       </c>
       <c r="J75" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3003,13 +3069,13 @@
         <v>-1413240.864926332</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>6.18</v>
       </c>
       <c r="J76" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3048,7 +3114,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3087,7 +3153,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3126,7 +3192,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3165,7 +3231,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3204,7 +3270,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3243,7 +3309,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3282,7 +3348,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3321,7 +3387,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3360,7 +3426,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3399,7 +3465,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3438,7 +3504,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3477,7 +3543,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3516,7 +3582,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3555,7 +3621,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3594,7 +3660,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3629,11 +3695,13 @@
         <v>-1277448.438126332</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>6.21</v>
+      </c>
       <c r="J92" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3668,11 +3736,13 @@
         <v>-1378476.389326332</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>6.21</v>
+      </c>
       <c r="J93" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3707,11 +3777,13 @@
         <v>-1455476.389326332</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>6.2</v>
+      </c>
       <c r="J94" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3750,7 +3822,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3789,7 +3861,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3828,7 +3900,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -3867,7 +3939,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -3906,7 +3978,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -3945,7 +4017,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -3984,7 +4056,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4023,7 +4095,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4062,7 +4134,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4097,11 +4169,13 @@
         <v>-1491425.219726332</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>6.17</v>
+      </c>
       <c r="J104" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4136,13 +4210,13 @@
         <v>-1427024.771226332</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>6.19</v>
       </c>
       <c r="J105" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4177,13 +4251,13 @@
         <v>-1427024.771226332</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>6.29</v>
       </c>
       <c r="J106" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4222,7 +4296,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4261,7 +4335,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4300,7 +4374,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4339,7 +4413,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4378,7 +4452,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4417,7 +4491,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4456,7 +4530,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4495,7 +4569,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4534,7 +4608,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4573,7 +4647,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4612,7 +4686,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4651,7 +4725,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4690,7 +4764,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4729,7 +4803,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4768,7 +4842,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4807,7 +4881,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4846,7 +4920,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -4885,7 +4959,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -4924,7 +4998,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -4963,7 +5037,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5002,7 +5076,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5037,11 +5111,11 @@
         <v>-1365408.039726332</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5080,7 +5154,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5119,7 +5193,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5158,7 +5232,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5197,7 +5271,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5236,7 +5310,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5271,11 +5345,11 @@
         <v>-1412857.832726332</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5310,11 +5384,11 @@
         <v>-1412857.832726332</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5349,11 +5423,11 @@
         <v>-1386689.778026332</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5388,11 +5462,11 @@
         <v>-1386720.778026332</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5427,11 +5501,11 @@
         <v>-1337880.982326332</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5466,11 +5540,11 @@
         <v>-1067650.202426333</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5505,11 +5579,11 @@
         <v>-1105700.751426333</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5544,11 +5618,11 @@
         <v>-1102649.751426333</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5583,11 +5657,11 @@
         <v>-1102649.751426333</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5622,11 +5696,11 @@
         <v>-1124064.110926333</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5661,11 +5735,11 @@
         <v>-1126625.110926333</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5700,11 +5774,11 @@
         <v>-1106625.110926333</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5743,7 +5817,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5782,7 +5856,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5821,7 +5895,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5860,7 +5934,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5899,7 +5973,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5938,7 +6012,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -5977,7 +6051,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -6016,7 +6090,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6055,7 +6129,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6094,7 +6168,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6133,7 +6207,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6168,23 +6242,21 @@
         <v>-610759.0990263327</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L157" t="n">
-        <v>1.082458745874588</v>
-      </c>
-      <c r="M157" t="n">
-        <v>1.075907590759076</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6209,11 +6281,17 @@
         <v>-610749.0990263327</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6242,15 +6320,23 @@
         <v>-680749.0988263327</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>1.082378640776699</v>
+      </c>
+      <c r="M159" t="n">
+        <v>1.072368421052631</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6275,7 +6361,7 @@
         <v>-680739.0988263327</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6308,7 +6394,7 @@
         <v>-680739.0988263327</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6341,7 +6427,7 @@
         <v>-984686.8566263327</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6352,6 +6438,6 @@
       <c r="M162" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest IOST.xlsx
+++ b/BackTest/2019-10-29 BackTest IOST.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2134,14 +2134,10 @@
         <v>-1672596.195361816</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="J53" t="n">
-        <v>6.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
@@ -2171,19 +2167,11 @@
         <v>-1681519.195361816</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="J54" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2212,19 +2200,11 @@
         <v>-1649623.199361816</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="J55" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2253,14 +2233,10 @@
         <v>-1649623.199361816</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="J56" t="n">
-        <v>6.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
@@ -2290,19 +2266,11 @@
         <v>-1684401.085961816</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="J57" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2331,19 +2299,11 @@
         <v>-1684401.085961816</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="J58" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2372,19 +2332,11 @@
         <v>-1688725.085961816</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="J59" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2413,19 +2365,11 @@
         <v>-1714144.010561816</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="J60" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2454,19 +2398,11 @@
         <v>-1714144.010561816</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="J61" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2500,12 +2436,10 @@
       <c r="I62" t="n">
         <v>6.06</v>
       </c>
-      <c r="J62" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L62" t="n">
@@ -2541,9 +2475,7 @@
       <c r="I63" t="n">
         <v>6.1</v>
       </c>
-      <c r="J63" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2582,9 +2514,7 @@
       <c r="I64" t="n">
         <v>6.1</v>
       </c>
-      <c r="J64" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2623,9 +2553,7 @@
       <c r="I65" t="n">
         <v>6.18</v>
       </c>
-      <c r="J65" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2664,9 +2592,7 @@
       <c r="I66" t="n">
         <v>6.06</v>
       </c>
-      <c r="J66" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2705,9 +2631,7 @@
       <c r="I67" t="n">
         <v>6.14</v>
       </c>
-      <c r="J67" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2746,9 +2670,7 @@
       <c r="I68" t="n">
         <v>6.14</v>
       </c>
-      <c r="J68" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2782,14 +2704,10 @@
         <v>-1603651.106861816</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="J69" t="n">
-        <v>6.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2828,9 +2746,7 @@
       <c r="I70" t="n">
         <v>6.18</v>
       </c>
-      <c r="J70" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2864,14 +2780,10 @@
         <v>-1603240.864926332</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="J71" t="n">
-        <v>6.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2910,9 +2822,7 @@
       <c r="I72" t="n">
         <v>6.2</v>
       </c>
-      <c r="J72" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2946,14 +2856,10 @@
         <v>-1608240.864926332</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>6.19</v>
-      </c>
-      <c r="J73" t="n">
-        <v>6.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2992,9 +2898,7 @@
       <c r="I74" t="n">
         <v>6.19</v>
       </c>
-      <c r="J74" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3033,9 +2937,7 @@
       <c r="I75" t="n">
         <v>6.18</v>
       </c>
-      <c r="J75" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3074,9 +2976,7 @@
       <c r="I76" t="n">
         <v>6.18</v>
       </c>
-      <c r="J76" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3113,9 +3013,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3152,9 +3050,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3191,9 +3087,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3230,9 +3124,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3269,9 +3161,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3308,9 +3198,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3347,9 +3235,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3386,9 +3272,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3425,9 +3309,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3464,9 +3346,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3503,9 +3383,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3542,9 +3420,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3581,9 +3457,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3620,9 +3494,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3659,9 +3531,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3695,14 +3565,10 @@
         <v>-1277448.438126332</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="J92" t="n">
-        <v>6.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3736,14 +3602,10 @@
         <v>-1378476.389326332</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="J93" t="n">
-        <v>6.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3777,14 +3639,10 @@
         <v>-1455476.389326332</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>6.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3821,9 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3860,9 +3716,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3899,9 +3753,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3938,9 +3790,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3977,9 +3827,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4016,9 +3864,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4055,9 +3901,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4094,9 +3938,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4133,9 +3975,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4169,14 +4009,10 @@
         <v>-1491425.219726332</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="J104" t="n">
-        <v>6.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4210,14 +4046,10 @@
         <v>-1427024.771226332</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>6.19</v>
-      </c>
-      <c r="J105" t="n">
-        <v>6.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4251,14 +4083,10 @@
         <v>-1427024.771226332</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="J106" t="n">
-        <v>6.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4295,9 +4123,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4334,9 +4160,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4373,9 +4197,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4412,9 +4234,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4451,9 +4271,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4490,9 +4308,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4526,20 +4342,16 @@
         <v>-1240826.125426332</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
@@ -4568,14 +4380,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4604,17 +4410,11 @@
         <v>-1106640.679426332</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4643,17 +4443,11 @@
         <v>-1282549.039726332</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4682,17 +4476,11 @@
         <v>-1278979.039726332</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4721,17 +4509,11 @@
         <v>-1278979.039726332</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4760,17 +4542,11 @@
         <v>-1278979.039726332</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4799,17 +4575,11 @@
         <v>-1235154.131626332</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4841,14 +4611,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4880,14 +4644,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4919,14 +4677,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4958,14 +4710,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4997,14 +4743,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5036,14 +4776,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5075,14 +4809,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5114,14 +4842,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5153,14 +4875,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5192,14 +4908,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5231,14 +4941,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5270,14 +4974,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5309,14 +5007,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5348,14 +5040,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5387,14 +5073,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5426,14 +5106,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5465,14 +5139,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5504,14 +5172,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5540,17 +5202,11 @@
         <v>-1067650.202426333</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5579,17 +5235,11 @@
         <v>-1105700.751426333</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5618,17 +5268,11 @@
         <v>-1102649.751426333</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5657,17 +5301,11 @@
         <v>-1102649.751426333</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5696,17 +5334,11 @@
         <v>-1124064.110926333</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5735,17 +5367,11 @@
         <v>-1126625.110926333</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5774,17 +5400,11 @@
         <v>-1106625.110926333</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5813,17 +5433,11 @@
         <v>-1104625.110926333</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5852,17 +5466,11 @@
         <v>-1191096.638426333</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5891,17 +5499,11 @@
         <v>-1280091.577026333</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5930,17 +5532,11 @@
         <v>-861951.1336263327</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5969,17 +5565,11 @@
         <v>-834317.1336263327</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6008,17 +5598,11 @@
         <v>-894092.1336263327</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6047,17 +5631,11 @@
         <v>-695959.1336263327</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6086,17 +5664,11 @@
         <v>-695959.1336263327</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6125,17 +5697,11 @@
         <v>-549335.0740263327</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6167,14 +5733,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6206,14 +5766,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6245,14 +5799,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6284,14 +5832,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6320,23 +5862,15 @@
         <v>-680749.0988263327</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
-        <v>1.082378640776699</v>
-      </c>
-      <c r="M159" t="n">
-        <v>1.072368421052631</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6361,7 +5895,7 @@
         <v>-680739.0988263327</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6394,7 +5928,7 @@
         <v>-680739.0988263327</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6427,7 +5961,7 @@
         <v>-984686.8566263327</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6438,6 +5972,6 @@
       <c r="M162" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest IOST.xlsx
+++ b/BackTest/2019-10-29 BackTest IOST.xlsx
@@ -2398,10 +2398,14 @@
         <v>-1714144.010561816</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="J61" t="n">
+        <v>6.06</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
@@ -2436,7 +2440,9 @@
       <c r="I62" t="n">
         <v>6.06</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>6.06</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -2475,7 +2481,9 @@
       <c r="I63" t="n">
         <v>6.1</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>6.06</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2514,7 +2522,9 @@
       <c r="I64" t="n">
         <v>6.1</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>6.06</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2548,12 +2558,12 @@
         <v>-1608651.106861816</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>6.06</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2592,7 +2602,9 @@
       <c r="I66" t="n">
         <v>6.06</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>6.06</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2631,7 +2643,9 @@
       <c r="I67" t="n">
         <v>6.14</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>6.06</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2670,7 +2684,9 @@
       <c r="I68" t="n">
         <v>6.14</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>6.06</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2704,10 +2720,14 @@
         <v>-1603651.106861816</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J69" t="n">
+        <v>6.06</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2746,7 +2766,9 @@
       <c r="I70" t="n">
         <v>6.18</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>6.06</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2780,10 +2802,14 @@
         <v>-1603240.864926332</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J71" t="n">
+        <v>6.06</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2822,7 +2848,9 @@
       <c r="I72" t="n">
         <v>6.2</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>6.06</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2856,10 +2884,14 @@
         <v>-1608240.864926332</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="J73" t="n">
+        <v>6.06</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2898,7 +2930,9 @@
       <c r="I74" t="n">
         <v>6.19</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>6.06</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2937,7 +2971,9 @@
       <c r="I75" t="n">
         <v>6.18</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>6.06</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2976,7 +3012,9 @@
       <c r="I76" t="n">
         <v>6.18</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>6.06</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3013,7 +3051,9 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>6.06</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3050,7 +3090,9 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>6.06</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3087,7 +3129,9 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>6.06</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3124,7 +3168,9 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>6.06</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3161,7 +3207,9 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>6.06</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3198,7 +3246,9 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>6.06</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3235,7 +3285,9 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>6.06</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3272,7 +3324,9 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>6.06</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3309,7 +3363,9 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>6.06</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3346,7 +3402,9 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>6.06</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3383,7 +3441,9 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>6.06</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3420,7 +3480,9 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>6.06</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3457,7 +3519,9 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>6.06</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3494,7 +3558,9 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>6.06</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3531,7 +3597,9 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>6.06</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3568,7 +3636,9 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>6.06</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3605,7 +3675,9 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>6.06</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3642,7 +3714,9 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>6.06</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3679,7 +3753,9 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>6.06</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3716,7 +3792,9 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>6.06</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3753,7 +3831,9 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>6.06</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3790,7 +3870,9 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>6.06</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3827,7 +3909,9 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>6.06</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3864,7 +3948,9 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>6.06</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3901,7 +3987,9 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>6.06</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3935,10 +4023,14 @@
         <v>-1496462.001426332</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J102" t="n">
+        <v>6.06</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3972,10 +4064,14 @@
         <v>-1496462.001426332</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="J103" t="n">
+        <v>6.06</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4009,10 +4105,14 @@
         <v>-1491425.219726332</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="J104" t="n">
+        <v>6.06</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4046,10 +4146,14 @@
         <v>-1427024.771226332</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="J105" t="n">
+        <v>6.06</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4083,10 +4187,14 @@
         <v>-1427024.771226332</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="J106" t="n">
+        <v>6.06</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4120,10 +4228,14 @@
         <v>-1223526.378626332</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="J107" t="n">
+        <v>6.06</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4160,7 +4272,9 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>6.06</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4197,7 +4311,9 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>6.06</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4234,7 +4350,9 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>6.06</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4271,7 +4389,9 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>6.06</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4308,7 +4428,9 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>6.06</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4342,16 +4464,20 @@
         <v>-1240826.125426332</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>6.06</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L113" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
       <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
@@ -4380,8 +4506,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4410,11 +4542,17 @@
         <v>-1106640.679426332</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4443,11 +4581,17 @@
         <v>-1282549.039726332</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4476,11 +4620,17 @@
         <v>-1278979.039726332</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4509,11 +4659,17 @@
         <v>-1278979.039726332</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4542,11 +4698,17 @@
         <v>-1278979.039726332</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4575,11 +4737,17 @@
         <v>-1235154.131626332</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4611,8 +4779,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4644,8 +4818,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4677,8 +4857,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4710,8 +4896,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4743,8 +4935,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4776,8 +4974,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4809,8 +5013,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4842,8 +5052,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4875,8 +5091,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4908,8 +5130,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4941,8 +5169,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4974,8 +5208,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5007,8 +5247,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5040,8 +5286,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5073,8 +5325,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5106,8 +5364,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5139,8 +5403,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5172,8 +5442,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5202,11 +5478,17 @@
         <v>-1067650.202426333</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5235,11 +5517,17 @@
         <v>-1105700.751426333</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5268,11 +5556,17 @@
         <v>-1102649.751426333</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5301,11 +5595,17 @@
         <v>-1102649.751426333</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5334,11 +5634,17 @@
         <v>-1124064.110926333</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5367,11 +5673,17 @@
         <v>-1126625.110926333</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5400,11 +5712,17 @@
         <v>-1106625.110926333</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5433,11 +5751,17 @@
         <v>-1104625.110926333</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5466,11 +5790,17 @@
         <v>-1191096.638426333</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5499,11 +5829,17 @@
         <v>-1280091.577026333</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5532,11 +5868,17 @@
         <v>-861951.1336263327</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5565,11 +5907,17 @@
         <v>-834317.1336263327</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5598,11 +5946,17 @@
         <v>-894092.1336263327</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5631,11 +5985,17 @@
         <v>-695959.1336263327</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5664,11 +6024,17 @@
         <v>-695959.1336263327</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5697,11 +6063,17 @@
         <v>-549335.0740263327</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5730,15 +6102,23 @@
         <v>-549355.0740263327</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>1.161666666666667</v>
+      </c>
+      <c r="M155" t="n">
+        <v>1.075907590759076</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5763,7 +6143,7 @@
         <v>-547932.0990263327</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5796,7 +6176,7 @@
         <v>-610759.0990263327</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5862,7 +6242,7 @@
         <v>-680749.0988263327</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5895,7 +6275,7 @@
         <v>-680739.0988263327</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5928,7 +6308,7 @@
         <v>-680739.0988263327</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5961,7 +6341,7 @@
         <v>-984686.8566263327</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>

--- a/BackTest/2019-10-29 BackTest IOST.xlsx
+++ b/BackTest/2019-10-29 BackTest IOST.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M162"/>
+  <dimension ref="A1:L162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>72533.76210000001</v>
       </c>
       <c r="G2" t="n">
-        <v>-845363.4607618152</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>9102.6304</v>
       </c>
       <c r="G3" t="n">
-        <v>-854466.0911618152</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>31163.8041</v>
       </c>
       <c r="G4" t="n">
-        <v>-854466.0911618152</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>74265.1499</v>
       </c>
       <c r="G5" t="n">
-        <v>-928731.2410618152</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>500</v>
       </c>
       <c r="G6" t="n">
-        <v>-928231.2410618152</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>300</v>
       </c>
       <c r="G7" t="n">
-        <v>-927931.2410618152</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>74200</v>
       </c>
       <c r="G8" t="n">
-        <v>-1002131.241061815</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>4828.7971</v>
       </c>
       <c r="G9" t="n">
-        <v>-997302.4439618152</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>75000</v>
       </c>
       <c r="G10" t="n">
-        <v>-1072302.443961815</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>74925.1136</v>
       </c>
       <c r="G11" t="n">
-        <v>-1147227.557561815</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>89137.14169999999</v>
       </c>
       <c r="G12" t="n">
-        <v>-1236364.699261815</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>40195.1414</v>
       </c>
       <c r="G13" t="n">
-        <v>-1276559.840661815</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>19380</v>
       </c>
       <c r="G14" t="n">
-        <v>-1295939.840661815</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>143907.8456</v>
       </c>
       <c r="G15" t="n">
-        <v>-1439847.686261815</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>39748.1716</v>
       </c>
       <c r="G16" t="n">
-        <v>-1439847.686261815</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>18522.4698</v>
       </c>
       <c r="G17" t="n">
-        <v>-1439847.686261815</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>9819.2942</v>
       </c>
       <c r="G18" t="n">
-        <v>-1439847.686261815</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>14609</v>
       </c>
       <c r="G19" t="n">
-        <v>-1439847.686261815</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>119187.0025</v>
       </c>
       <c r="G20" t="n">
-        <v>-1439847.686261815</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>27820</v>
       </c>
       <c r="G21" t="n">
-        <v>-1467667.686261815</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>12036</v>
       </c>
       <c r="G22" t="n">
-        <v>-1467667.686261815</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>10</v>
       </c>
       <c r="G23" t="n">
-        <v>-1467657.686261815</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>4089</v>
       </c>
       <c r="G24" t="n">
-        <v>-1471746.686261815</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>4556</v>
       </c>
       <c r="G25" t="n">
-        <v>-1471746.686261815</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>722</v>
       </c>
       <c r="G26" t="n">
-        <v>-1471746.686261815</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>18492</v>
       </c>
       <c r="G27" t="n">
-        <v>-1471746.686261815</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>18868</v>
       </c>
       <c r="G28" t="n">
-        <v>-1471746.686261815</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>20</v>
       </c>
       <c r="G29" t="n">
-        <v>-1471766.686261815</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>1000</v>
       </c>
       <c r="G30" t="n">
-        <v>-1470766.686261815</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>3679</v>
       </c>
       <c r="G31" t="n">
-        <v>-1470766.686261815</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>500</v>
       </c>
       <c r="G32" t="n">
-        <v>-1471266.686261815</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>1952</v>
       </c>
       <c r="G33" t="n">
-        <v>-1473218.686261815</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>3585</v>
       </c>
       <c r="G34" t="n">
-        <v>-1473218.686261815</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>16838.5</v>
       </c>
       <c r="G35" t="n">
-        <v>-1490057.186261815</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>12004</v>
       </c>
       <c r="G36" t="n">
-        <v>-1502061.186261815</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>6046.7569</v>
       </c>
       <c r="G37" t="n">
-        <v>-1496014.429361816</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>400</v>
       </c>
       <c r="G38" t="n">
-        <v>-1495614.429361816</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>63281.492</v>
       </c>
       <c r="G39" t="n">
-        <v>-1495614.429361816</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>74984</v>
       </c>
       <c r="G40" t="n">
-        <v>-1420630.429361816</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>8159.1827</v>
       </c>
       <c r="G41" t="n">
-        <v>-1412471.246661816</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>265.3789</v>
       </c>
       <c r="G42" t="n">
-        <v>-1412471.246661816</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>25624.8701</v>
       </c>
       <c r="G43" t="n">
-        <v>-1386846.376561816</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>71935.5996</v>
       </c>
       <c r="G44" t="n">
-        <v>-1386846.376561816</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>100</v>
       </c>
       <c r="G45" t="n">
-        <v>-1386846.376561816</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>15584.6211</v>
       </c>
       <c r="G46" t="n">
-        <v>-1402430.997661816</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>156664.5312</v>
       </c>
       <c r="G47" t="n">
-        <v>-1559095.528861816</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>79280.43829999999</v>
       </c>
       <c r="G48" t="n">
-        <v>-1638375.967161816</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>109001.9999</v>
       </c>
       <c r="G49" t="n">
-        <v>-1747377.967061816</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>39664.3124</v>
       </c>
       <c r="G50" t="n">
-        <v>-1747377.967061816</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>3984</v>
       </c>
       <c r="G51" t="n">
-        <v>-1743393.967061816</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>70797.7717</v>
       </c>
       <c r="G52" t="n">
-        <v>-1672596.195361816</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>8263.2556</v>
       </c>
       <c r="G53" t="n">
-        <v>-1672596.195361816</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>8923</v>
       </c>
       <c r="G54" t="n">
-        <v>-1681519.195361816</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>31895.996</v>
       </c>
       <c r="G55" t="n">
-        <v>-1649623.199361816</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>52517</v>
       </c>
       <c r="G56" t="n">
-        <v>-1649623.199361816</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>34777.8866</v>
       </c>
       <c r="G57" t="n">
-        <v>-1684401.085961816</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>50185</v>
       </c>
       <c r="G58" t="n">
-        <v>-1684401.085961816</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>4324</v>
       </c>
       <c r="G59" t="n">
-        <v>-1688725.085961816</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>25418.9246</v>
       </c>
       <c r="G60" t="n">
-        <v>-1714144.010561816</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,22 +2213,15 @@
         <v>128107.5107</v>
       </c>
       <c r="G61" t="n">
-        <v>-1714144.010561816</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="J61" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2432,26 +2243,15 @@
         <v>50023.5241</v>
       </c>
       <c r="G62" t="n">
-        <v>-1664120.486461816</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="J62" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2473,26 +2273,15 @@
         <v>129658.9789</v>
       </c>
       <c r="G63" t="n">
-        <v>-1664120.486461816</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="J63" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2514,26 +2303,15 @@
         <v>55569.3796</v>
       </c>
       <c r="G64" t="n">
-        <v>-1608551.106861816</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="J64" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2555,24 +2333,19 @@
         <v>100</v>
       </c>
       <c r="G65" t="n">
-        <v>-1608651.106861816</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>6.18</v>
+      </c>
+      <c r="I65" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2594,26 +2367,23 @@
         <v>3000</v>
       </c>
       <c r="G66" t="n">
-        <v>-1605651.106861816</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>6.06</v>
       </c>
       <c r="I66" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="J66" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>6.18</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2635,26 +2405,23 @@
         <v>47326.472</v>
       </c>
       <c r="G67" t="n">
-        <v>-1605651.106861816</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>6.14</v>
       </c>
       <c r="I67" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="J67" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>6.18</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2676,26 +2443,23 @@
         <v>2000</v>
       </c>
       <c r="G68" t="n">
-        <v>-1603651.106861816</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>6.14</v>
       </c>
       <c r="I68" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="J68" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>6.18</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2717,26 +2481,23 @@
         <v>7145.53</v>
       </c>
       <c r="G69" t="n">
-        <v>-1603651.106861816</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>6.18</v>
       </c>
       <c r="I69" t="n">
         <v>6.18</v>
       </c>
-      <c r="J69" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2758,26 +2519,23 @@
         <v>50</v>
       </c>
       <c r="G70" t="n">
-        <v>-1603651.106861816</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>6.18</v>
       </c>
       <c r="I70" t="n">
         <v>6.18</v>
       </c>
-      <c r="J70" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2799,26 +2557,21 @@
         <v>410.241935483871</v>
       </c>
       <c r="G71" t="n">
-        <v>-1603240.864926332</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="n">
         <v>6.18</v>
       </c>
-      <c r="J71" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2840,26 +2593,21 @@
         <v>5000</v>
       </c>
       <c r="G72" t="n">
-        <v>-1608240.864926332</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="J72" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>6.18</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2881,26 +2629,21 @@
         <v>18000</v>
       </c>
       <c r="G73" t="n">
-        <v>-1608240.864926332</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="n">
-        <v>6.19</v>
-      </c>
-      <c r="J73" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>6.18</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2922,26 +2665,21 @@
         <v>10000</v>
       </c>
       <c r="G74" t="n">
-        <v>-1618240.864926332</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="n">
-        <v>6.19</v>
-      </c>
-      <c r="J74" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>6.18</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2963,26 +2701,21 @@
         <v>19971.0962</v>
       </c>
       <c r="G75" t="n">
-        <v>-1618240.864926332</v>
-      </c>
-      <c r="H75" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="n">
         <v>6.18</v>
       </c>
-      <c r="J75" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3004,26 +2737,21 @@
         <v>205000</v>
       </c>
       <c r="G76" t="n">
-        <v>-1413240.864926332</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="n">
         <v>6.18</v>
       </c>
-      <c r="J76" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3045,24 +2773,21 @@
         <v>15000</v>
       </c>
       <c r="G77" t="n">
-        <v>-1413240.864926332</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3084,24 +2809,21 @@
         <v>150802.0385</v>
       </c>
       <c r="G78" t="n">
-        <v>-1413240.864926332</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3123,24 +2845,21 @@
         <v>61556.0344</v>
       </c>
       <c r="G79" t="n">
-        <v>-1413240.864926332</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3162,24 +2881,21 @@
         <v>104470.6926</v>
       </c>
       <c r="G80" t="n">
-        <v>-1308770.172326332</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3201,24 +2917,21 @@
         <v>7159.2295</v>
       </c>
       <c r="G81" t="n">
-        <v>-1315929.401826332</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3240,24 +2953,21 @@
         <v>60710.502</v>
       </c>
       <c r="G82" t="n">
-        <v>-1315929.401826332</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3279,24 +2989,21 @@
         <v>10895.2304</v>
       </c>
       <c r="G83" t="n">
-        <v>-1326824.632226332</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3318,24 +3025,21 @@
         <v>61.3162</v>
       </c>
       <c r="G84" t="n">
-        <v>-1326763.316026332</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3357,24 +3061,21 @@
         <v>14610.1919</v>
       </c>
       <c r="G85" t="n">
-        <v>-1312153.124126332</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3396,24 +3097,21 @@
         <v>32967.9032</v>
       </c>
       <c r="G86" t="n">
-        <v>-1345121.027326332</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3435,24 +3133,21 @@
         <v>72588.35159999999</v>
       </c>
       <c r="G87" t="n">
-        <v>-1272532.675726332</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3474,24 +3169,21 @@
         <v>4915.7624</v>
       </c>
       <c r="G88" t="n">
-        <v>-1277448.438126332</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3513,24 +3205,21 @@
         <v>14694.7034</v>
       </c>
       <c r="G89" t="n">
-        <v>-1277448.438126332</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3552,24 +3241,21 @@
         <v>6558.3004</v>
       </c>
       <c r="G90" t="n">
-        <v>-1277448.438126332</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3591,24 +3277,21 @@
         <v>3018.231</v>
       </c>
       <c r="G91" t="n">
-        <v>-1277448.438126332</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3630,24 +3313,21 @@
         <v>12972.5429</v>
       </c>
       <c r="G92" t="n">
-        <v>-1277448.438126332</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3669,24 +3349,21 @@
         <v>101027.9512</v>
       </c>
       <c r="G93" t="n">
-        <v>-1378476.389326332</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3708,24 +3385,21 @@
         <v>77000</v>
       </c>
       <c r="G94" t="n">
-        <v>-1455476.389326332</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3747,24 +3421,21 @@
         <v>273.9344</v>
       </c>
       <c r="G95" t="n">
-        <v>-1455750.323726332</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3786,24 +3457,21 @@
         <v>8206.6669</v>
       </c>
       <c r="G96" t="n">
-        <v>-1447543.656826332</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3825,24 +3493,21 @@
         <v>17699</v>
       </c>
       <c r="G97" t="n">
-        <v>-1465242.656826332</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3864,24 +3529,21 @@
         <v>1718</v>
       </c>
       <c r="G98" t="n">
-        <v>-1466960.656826332</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3903,24 +3565,21 @@
         <v>481.7741</v>
       </c>
       <c r="G99" t="n">
-        <v>-1467442.430926332</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3942,24 +3601,21 @@
         <v>100</v>
       </c>
       <c r="G100" t="n">
-        <v>-1467442.430926332</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3981,24 +3637,21 @@
         <v>15000</v>
       </c>
       <c r="G101" t="n">
-        <v>-1467442.430926332</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4020,26 +3673,21 @@
         <v>29019.5705</v>
       </c>
       <c r="G102" t="n">
-        <v>-1496462.001426332</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="n">
         <v>6.18</v>
       </c>
-      <c r="J102" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4061,26 +3709,21 @@
         <v>10269.5705</v>
       </c>
       <c r="G103" t="n">
-        <v>-1496462.001426332</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="J103" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>6.18</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4102,26 +3745,21 @@
         <v>5036.7817</v>
       </c>
       <c r="G104" t="n">
-        <v>-1491425.219726332</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="J104" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>6.18</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4143,26 +3781,21 @@
         <v>64400.4485</v>
       </c>
       <c r="G105" t="n">
-        <v>-1427024.771226332</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="n">
-        <v>6.19</v>
-      </c>
-      <c r="J105" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>6.18</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4184,26 +3817,21 @@
         <v>5085.7509</v>
       </c>
       <c r="G106" t="n">
-        <v>-1427024.771226332</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="J106" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>6.18</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4225,26 +3853,21 @@
         <v>203498.3926</v>
       </c>
       <c r="G107" t="n">
-        <v>-1223526.378626332</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="J107" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>6.18</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4266,24 +3889,21 @@
         <v>4665</v>
       </c>
       <c r="G108" t="n">
-        <v>-1223526.378626332</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4305,24 +3925,21 @@
         <v>26978</v>
       </c>
       <c r="G109" t="n">
-        <v>-1223526.378626332</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4344,24 +3961,21 @@
         <v>50</v>
       </c>
       <c r="G110" t="n">
-        <v>-1223576.378626332</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4383,24 +3997,21 @@
         <v>4082.0252</v>
       </c>
       <c r="G111" t="n">
-        <v>-1219494.353426332</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4422,24 +4033,21 @@
         <v>2667.227</v>
       </c>
       <c r="G112" t="n">
-        <v>-1216827.126426332</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4461,24 +4069,21 @@
         <v>23998.999</v>
       </c>
       <c r="G113" t="n">
-        <v>-1240826.125426332</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4500,24 +4105,21 @@
         <v>49096.8859</v>
       </c>
       <c r="G114" t="n">
-        <v>-1240826.125426332</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4539,24 +4141,21 @@
         <v>134185.446</v>
       </c>
       <c r="G115" t="n">
-        <v>-1106640.679426332</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4578,24 +4177,21 @@
         <v>175908.3603</v>
       </c>
       <c r="G116" t="n">
-        <v>-1282549.039726332</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4617,24 +4213,21 @@
         <v>3570</v>
       </c>
       <c r="G117" t="n">
-        <v>-1278979.039726332</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4656,24 +4249,21 @@
         <v>1957</v>
       </c>
       <c r="G118" t="n">
-        <v>-1278979.039726332</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4695,24 +4285,21 @@
         <v>6209</v>
       </c>
       <c r="G119" t="n">
-        <v>-1278979.039726332</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4734,24 +4321,21 @@
         <v>43824.9081</v>
       </c>
       <c r="G120" t="n">
-        <v>-1235154.131626332</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4773,24 +4357,21 @@
         <v>1777</v>
       </c>
       <c r="G121" t="n">
-        <v>-1235154.131626332</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4812,24 +4393,21 @@
         <v>129408.9081</v>
       </c>
       <c r="G122" t="n">
-        <v>-1364563.039726332</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4851,24 +4429,21 @@
         <v>1667.881</v>
       </c>
       <c r="G123" t="n">
-        <v>-1364563.039726332</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4890,24 +4465,21 @@
         <v>5098</v>
       </c>
       <c r="G124" t="n">
-        <v>-1359465.039726332</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4929,24 +4501,21 @@
         <v>31</v>
       </c>
       <c r="G125" t="n">
-        <v>-1359496.039726332</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4968,24 +4537,21 @@
         <v>5912</v>
       </c>
       <c r="G126" t="n">
-        <v>-1365408.039726332</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5007,24 +4573,21 @@
         <v>170660</v>
       </c>
       <c r="G127" t="n">
-        <v>-1365408.039726332</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5046,24 +4609,21 @@
         <v>15128.0736</v>
       </c>
       <c r="G128" t="n">
-        <v>-1365408.039726332</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5085,24 +4645,21 @@
         <v>209.475</v>
       </c>
       <c r="G129" t="n">
-        <v>-1365617.514726332</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5124,24 +4681,21 @@
         <v>8417.276</v>
       </c>
       <c r="G130" t="n">
-        <v>-1357200.238726332</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5163,24 +4717,21 @@
         <v>26645.8828</v>
       </c>
       <c r="G131" t="n">
-        <v>-1383846.121526332</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5202,24 +4753,21 @@
         <v>36056.7111</v>
       </c>
       <c r="G132" t="n">
-        <v>-1347789.410426332</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5241,24 +4789,21 @@
         <v>65068.4223</v>
       </c>
       <c r="G133" t="n">
-        <v>-1412857.832726332</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5280,24 +4825,21 @@
         <v>27879</v>
       </c>
       <c r="G134" t="n">
-        <v>-1412857.832726332</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5319,24 +4861,21 @@
         <v>77799.01179999999</v>
       </c>
       <c r="G135" t="n">
-        <v>-1412857.832726332</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5358,24 +4897,21 @@
         <v>26168.0547</v>
       </c>
       <c r="G136" t="n">
-        <v>-1386689.778026332</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5397,24 +4933,21 @@
         <v>31</v>
       </c>
       <c r="G137" t="n">
-        <v>-1386720.778026332</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5436,24 +4969,21 @@
         <v>48839.7957</v>
       </c>
       <c r="G138" t="n">
-        <v>-1337880.982326332</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5475,24 +5005,21 @@
         <v>270230.7799</v>
       </c>
       <c r="G139" t="n">
-        <v>-1067650.202426333</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5514,24 +5041,21 @@
         <v>38050.549</v>
       </c>
       <c r="G140" t="n">
-        <v>-1105700.751426333</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5553,24 +5077,21 @@
         <v>3051</v>
       </c>
       <c r="G141" t="n">
-        <v>-1102649.751426333</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5592,24 +5113,21 @@
         <v>179</v>
       </c>
       <c r="G142" t="n">
-        <v>-1102649.751426333</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5631,24 +5149,21 @@
         <v>21414.3595</v>
       </c>
       <c r="G143" t="n">
-        <v>-1124064.110926333</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5670,24 +5185,21 @@
         <v>2561</v>
       </c>
       <c r="G144" t="n">
-        <v>-1126625.110926333</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5709,24 +5221,21 @@
         <v>20000</v>
       </c>
       <c r="G145" t="n">
-        <v>-1106625.110926333</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5748,24 +5257,21 @@
         <v>2000</v>
       </c>
       <c r="G146" t="n">
-        <v>-1104625.110926333</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5787,24 +5293,21 @@
         <v>86471.5275</v>
       </c>
       <c r="G147" t="n">
-        <v>-1191096.638426333</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5826,24 +5329,21 @@
         <v>88994.93859999999</v>
       </c>
       <c r="G148" t="n">
-        <v>-1280091.577026333</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5865,24 +5365,21 @@
         <v>418140.4434</v>
       </c>
       <c r="G149" t="n">
-        <v>-861951.1336263327</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5904,24 +5401,21 @@
         <v>27634</v>
       </c>
       <c r="G150" t="n">
-        <v>-834317.1336263327</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5943,24 +5437,21 @@
         <v>59775</v>
       </c>
       <c r="G151" t="n">
-        <v>-894092.1336263327</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5982,24 +5473,21 @@
         <v>198133</v>
       </c>
       <c r="G152" t="n">
-        <v>-695959.1336263327</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6021,24 +5509,21 @@
         <v>38506</v>
       </c>
       <c r="G153" t="n">
-        <v>-695959.1336263327</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6060,24 +5545,21 @@
         <v>146624.0596</v>
       </c>
       <c r="G154" t="n">
-        <v>-549335.0740263327</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6099,26 +5581,21 @@
         <v>20</v>
       </c>
       <c r="G155" t="n">
-        <v>-549355.0740263327</v>
-      </c>
-      <c r="H155" t="n">
-        <v>2</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1.161666666666667</v>
-      </c>
-      <c r="M155" t="n">
-        <v>1.075907590759076</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6140,18 +5617,23 @@
         <v>1422.975</v>
       </c>
       <c r="G156" t="n">
-        <v>-547932.0990263327</v>
-      </c>
-      <c r="H156" t="n">
         <v>2</v>
       </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1.143867313915858</v>
+      </c>
       <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>1.075907590759076</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6173,18 +5655,15 @@
         <v>62827</v>
       </c>
       <c r="G157" t="n">
-        <v>-610759.0990263327</v>
-      </c>
-      <c r="H157" t="n">
         <v>2</v>
       </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6206,18 +5685,15 @@
         <v>10</v>
       </c>
       <c r="G158" t="n">
-        <v>-610749.0990263327</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6239,18 +5715,15 @@
         <v>69999.99980000001</v>
       </c>
       <c r="G159" t="n">
-        <v>-680749.0988263327</v>
-      </c>
-      <c r="H159" t="n">
         <v>2</v>
       </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6272,18 +5745,15 @@
         <v>10</v>
       </c>
       <c r="G160" t="n">
-        <v>-680739.0988263327</v>
-      </c>
-      <c r="H160" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6305,18 +5775,15 @@
         <v>10934.0486</v>
       </c>
       <c r="G161" t="n">
-        <v>-680739.0988263327</v>
-      </c>
-      <c r="H161" t="n">
         <v>2</v>
       </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6338,18 +5805,15 @@
         <v>303947.7578</v>
       </c>
       <c r="G162" t="n">
-        <v>-984686.8566263327</v>
-      </c>
-      <c r="H162" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
